--- a/raw_data.xlsx
+++ b/raw_data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9000" uniqueCount="1185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8550" uniqueCount="1186">
   <si>
     <t>Ya</t>
   </si>
@@ -3813,6 +3813,9 @@
   </si>
   <si>
     <t>Buat proyek riset energi surya</t>
+  </si>
+  <si>
+    <t>normal</t>
   </si>
 </sst>
 </file>
@@ -3885,7 +3888,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3906,6 +3909,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4188,15 +4194,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EO151"/>
+  <dimension ref="A1:EQ151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" topLeftCell="ED151" workbookViewId="0">
+      <selection activeCell="ES146" sqref="ES146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:145" ht="409.6">
+    <row r="1" spans="1:147" ht="409.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4524,26 +4530,26 @@
       <c r="DY1" s="4">
         <v>4</v>
       </c>
-      <c r="DZ1" s="4" t="s">
-        <v>13</v>
+      <c r="DZ1" s="4">
+        <v>4</v>
       </c>
       <c r="EA1" s="4">
         <v>4</v>
       </c>
-      <c r="EB1" s="4" t="s">
-        <v>14</v>
+      <c r="EB1" s="4">
+        <v>4</v>
       </c>
       <c r="EC1" s="4">
         <v>4</v>
       </c>
-      <c r="ED1" s="4" t="s">
-        <v>12</v>
+      <c r="ED1" s="4">
+        <v>4</v>
       </c>
       <c r="EE1" s="4">
         <v>5</v>
       </c>
-      <c r="EF1" s="4" t="s">
-        <v>15</v>
+      <c r="EF1" s="4">
+        <v>4</v>
       </c>
       <c r="EG1" s="4">
         <v>4</v>
@@ -4572,8 +4578,14 @@
       <c r="EO1" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="EP1" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ1" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="2" spans="1:145" ht="388.8">
+    <row r="2" spans="1:147" ht="388.8">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4901,26 +4913,26 @@
       <c r="DY2" s="4">
         <v>4</v>
       </c>
-      <c r="DZ2" s="4" t="s">
-        <v>13</v>
+      <c r="DZ2" s="4">
+        <v>4</v>
       </c>
       <c r="EA2" s="4">
         <v>3</v>
       </c>
-      <c r="EB2" s="4" t="s">
-        <v>15</v>
+      <c r="EB2" s="4">
+        <v>4</v>
       </c>
       <c r="EC2" s="4">
         <v>3</v>
       </c>
-      <c r="ED2" s="4" t="s">
-        <v>13</v>
+      <c r="ED2" s="4">
+        <v>4</v>
       </c>
       <c r="EE2" s="4">
         <v>4</v>
       </c>
-      <c r="EF2" s="4" t="s">
-        <v>13</v>
+      <c r="EF2" s="4">
+        <v>4</v>
       </c>
       <c r="EG2" s="4">
         <v>3</v>
@@ -4949,8 +4961,14 @@
       <c r="EO2" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="EP2" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ2" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="3" spans="1:145" ht="409.6">
+    <row r="3" spans="1:147" ht="409.6">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -5278,26 +5296,26 @@
       <c r="DY3" s="4">
         <v>5</v>
       </c>
-      <c r="DZ3" s="4" t="s">
-        <v>12</v>
+      <c r="DZ3" s="4">
+        <v>4</v>
       </c>
       <c r="EA3" s="4">
         <v>4</v>
       </c>
-      <c r="EB3" s="4" t="s">
-        <v>13</v>
+      <c r="EB3" s="4">
+        <v>4</v>
       </c>
       <c r="EC3" s="4">
         <v>5</v>
       </c>
-      <c r="ED3" s="4" t="s">
-        <v>13</v>
+      <c r="ED3" s="4">
+        <v>4</v>
       </c>
       <c r="EE3" s="4">
         <v>4</v>
       </c>
-      <c r="EF3" s="4" t="s">
-        <v>13</v>
+      <c r="EF3" s="4">
+        <v>4</v>
       </c>
       <c r="EG3" s="4">
         <v>5</v>
@@ -5326,8 +5344,14 @@
       <c r="EO3" s="4" t="s">
         <v>41</v>
       </c>
+      <c r="EP3" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ3" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="4" spans="1:145" ht="409.6">
+    <row r="4" spans="1:147" ht="409.6">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -5655,26 +5679,26 @@
       <c r="DY4" s="4">
         <v>5</v>
       </c>
-      <c r="DZ4" s="4" t="s">
-        <v>13</v>
+      <c r="DZ4" s="4">
+        <v>4</v>
       </c>
       <c r="EA4" s="4">
         <v>4</v>
       </c>
-      <c r="EB4" s="4" t="s">
-        <v>14</v>
+      <c r="EB4" s="4">
+        <v>4</v>
       </c>
       <c r="EC4" s="4">
         <v>4</v>
       </c>
-      <c r="ED4" s="4" t="s">
-        <v>15</v>
+      <c r="ED4" s="4">
+        <v>4</v>
       </c>
       <c r="EE4" s="4">
         <v>5</v>
       </c>
-      <c r="EF4" s="4" t="s">
-        <v>12</v>
+      <c r="EF4" s="4">
+        <v>4</v>
       </c>
       <c r="EG4" s="4">
         <v>5</v>
@@ -5703,8 +5727,14 @@
       <c r="EO4" s="4" t="s">
         <v>51</v>
       </c>
+      <c r="EP4" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ4" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="5" spans="1:145" ht="409.6">
+    <row r="5" spans="1:147" ht="409.6">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -6032,26 +6062,26 @@
       <c r="DY5" s="4">
         <v>5</v>
       </c>
-      <c r="DZ5" s="4" t="s">
-        <v>12</v>
+      <c r="DZ5" s="4">
+        <v>4</v>
       </c>
       <c r="EA5" s="4">
         <v>4</v>
       </c>
-      <c r="EB5" s="4" t="s">
-        <v>15</v>
+      <c r="EB5" s="4">
+        <v>4</v>
       </c>
       <c r="EC5" s="4">
         <v>5</v>
       </c>
-      <c r="ED5" s="4" t="s">
-        <v>14</v>
+      <c r="ED5" s="4">
+        <v>4</v>
       </c>
       <c r="EE5" s="4">
         <v>4</v>
       </c>
-      <c r="EF5" s="4" t="s">
-        <v>15</v>
+      <c r="EF5" s="4">
+        <v>4</v>
       </c>
       <c r="EG5" s="4">
         <v>5</v>
@@ -6080,8 +6110,14 @@
       <c r="EO5" s="4" t="s">
         <v>60</v>
       </c>
+      <c r="EP5" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ5" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="6" spans="1:145" ht="409.6">
+    <row r="6" spans="1:147" ht="409.6">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -6409,26 +6445,26 @@
       <c r="DY6" s="4">
         <v>5</v>
       </c>
-      <c r="DZ6" s="4" t="s">
-        <v>13</v>
+      <c r="DZ6" s="4">
+        <v>4</v>
       </c>
       <c r="EA6" s="4">
         <v>5</v>
       </c>
-      <c r="EB6" s="4" t="s">
-        <v>15</v>
+      <c r="EB6" s="4">
+        <v>4</v>
       </c>
       <c r="EC6" s="4">
         <v>5</v>
       </c>
-      <c r="ED6" s="4" t="s">
-        <v>68</v>
+      <c r="ED6" s="4">
+        <v>4</v>
       </c>
       <c r="EE6" s="4">
         <v>5</v>
       </c>
-      <c r="EF6" s="4" t="s">
-        <v>12</v>
+      <c r="EF6" s="4">
+        <v>4</v>
       </c>
       <c r="EG6" s="4">
         <v>4</v>
@@ -6457,8 +6493,14 @@
       <c r="EO6" s="4" t="s">
         <v>71</v>
       </c>
+      <c r="EP6" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ6" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="7" spans="1:145" ht="409.6">
+    <row r="7" spans="1:147" ht="409.6">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -6786,26 +6828,26 @@
       <c r="DY7" s="4">
         <v>4</v>
       </c>
-      <c r="DZ7" s="4" t="s">
-        <v>13</v>
+      <c r="DZ7" s="4">
+        <v>4</v>
       </c>
       <c r="EA7" s="4">
         <v>5</v>
       </c>
-      <c r="EB7" s="4" t="s">
-        <v>13</v>
+      <c r="EB7" s="4">
+        <v>4</v>
       </c>
       <c r="EC7" s="4">
         <v>4</v>
       </c>
-      <c r="ED7" s="4" t="s">
-        <v>14</v>
+      <c r="ED7" s="4">
+        <v>4</v>
       </c>
       <c r="EE7" s="4">
         <v>4</v>
       </c>
-      <c r="EF7" s="4" t="s">
-        <v>12</v>
+      <c r="EF7" s="4">
+        <v>4</v>
       </c>
       <c r="EG7" s="4">
         <v>4</v>
@@ -6834,8 +6876,14 @@
       <c r="EO7" s="4" t="s">
         <v>80</v>
       </c>
+      <c r="EP7" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ7" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="8" spans="1:145" ht="409.6">
+    <row r="8" spans="1:147" ht="409.6">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -7163,26 +7211,26 @@
       <c r="DY8" s="4">
         <v>4</v>
       </c>
-      <c r="DZ8" s="4" t="s">
-        <v>12</v>
+      <c r="DZ8" s="4">
+        <v>4</v>
       </c>
       <c r="EA8" s="4">
         <v>4</v>
       </c>
-      <c r="EB8" s="4" t="s">
-        <v>12</v>
+      <c r="EB8" s="4">
+        <v>4</v>
       </c>
       <c r="EC8" s="4">
         <v>5</v>
       </c>
-      <c r="ED8" s="4" t="s">
-        <v>13</v>
+      <c r="ED8" s="4">
+        <v>4</v>
       </c>
       <c r="EE8" s="4">
         <v>4</v>
       </c>
-      <c r="EF8" s="4" t="s">
-        <v>13</v>
+      <c r="EF8" s="4">
+        <v>4</v>
       </c>
       <c r="EG8" s="4">
         <v>5</v>
@@ -7211,8 +7259,14 @@
       <c r="EO8" s="4" t="s">
         <v>90</v>
       </c>
+      <c r="EP8" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ8" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="9" spans="1:145" ht="409.6">
+    <row r="9" spans="1:147" ht="409.6">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -7540,26 +7594,26 @@
       <c r="DY9" s="4">
         <v>4</v>
       </c>
-      <c r="DZ9" s="4" t="s">
-        <v>13</v>
+      <c r="DZ9" s="4">
+        <v>4</v>
       </c>
       <c r="EA9" s="4">
         <v>5</v>
       </c>
-      <c r="EB9" s="4" t="s">
-        <v>15</v>
+      <c r="EB9" s="4">
+        <v>4</v>
       </c>
       <c r="EC9" s="4">
         <v>4</v>
       </c>
-      <c r="ED9" s="4" t="s">
-        <v>13</v>
+      <c r="ED9" s="4">
+        <v>4</v>
       </c>
       <c r="EE9" s="4">
         <v>4</v>
       </c>
-      <c r="EF9" s="4" t="s">
-        <v>12</v>
+      <c r="EF9" s="4">
+        <v>4</v>
       </c>
       <c r="EG9" s="4">
         <v>5</v>
@@ -7588,8 +7642,14 @@
       <c r="EO9" s="4" t="s">
         <v>98</v>
       </c>
+      <c r="EP9" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ9" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="10" spans="1:145" ht="409.6">
+    <row r="10" spans="1:147" ht="409.6">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -7917,26 +7977,26 @@
       <c r="DY10" s="4">
         <v>3</v>
       </c>
-      <c r="DZ10" s="4" t="s">
-        <v>68</v>
+      <c r="DZ10" s="4">
+        <v>4</v>
       </c>
       <c r="EA10" s="4">
         <v>2</v>
       </c>
-      <c r="EB10" s="4" t="s">
-        <v>14</v>
+      <c r="EB10" s="4">
+        <v>4</v>
       </c>
       <c r="EC10" s="4">
         <v>3</v>
       </c>
-      <c r="ED10" s="4" t="s">
-        <v>13</v>
+      <c r="ED10" s="4">
+        <v>4</v>
       </c>
       <c r="EE10" s="4">
         <v>2</v>
       </c>
-      <c r="EF10" s="4" t="s">
-        <v>68</v>
+      <c r="EF10" s="4">
+        <v>4</v>
       </c>
       <c r="EG10" s="4">
         <v>2</v>
@@ -7965,8 +8025,14 @@
       <c r="EO10" s="4" t="s">
         <v>108</v>
       </c>
+      <c r="EP10" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ10" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="11" spans="1:145" ht="409.6">
+    <row r="11" spans="1:147" ht="409.6">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -8294,26 +8360,26 @@
       <c r="DY11" s="4">
         <v>3</v>
       </c>
-      <c r="DZ11" s="4" t="s">
-        <v>15</v>
+      <c r="DZ11" s="4">
+        <v>4</v>
       </c>
       <c r="EA11" s="4">
         <v>3</v>
       </c>
-      <c r="EB11" s="4" t="s">
-        <v>15</v>
+      <c r="EB11" s="4">
+        <v>4</v>
       </c>
       <c r="EC11" s="4">
         <v>3</v>
       </c>
-      <c r="ED11" s="4" t="s">
-        <v>12</v>
+      <c r="ED11" s="4">
+        <v>4</v>
       </c>
       <c r="EE11" s="4">
         <v>4</v>
       </c>
-      <c r="EF11" s="4" t="s">
-        <v>15</v>
+      <c r="EF11" s="4">
+        <v>4</v>
       </c>
       <c r="EG11" s="4">
         <v>4</v>
@@ -8342,8 +8408,14 @@
       <c r="EO11" s="4" t="s">
         <v>117</v>
       </c>
+      <c r="EP11" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ11" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="12" spans="1:145" ht="409.6">
+    <row r="12" spans="1:147" ht="409.6">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -8671,26 +8743,26 @@
       <c r="DY12" s="4">
         <v>4</v>
       </c>
-      <c r="DZ12" s="4" t="s">
-        <v>14</v>
+      <c r="DZ12" s="4">
+        <v>4</v>
       </c>
       <c r="EA12" s="4">
         <v>3</v>
       </c>
-      <c r="EB12" s="4" t="s">
-        <v>14</v>
+      <c r="EB12" s="4">
+        <v>4</v>
       </c>
       <c r="EC12" s="4">
         <v>4</v>
       </c>
-      <c r="ED12" s="4" t="s">
-        <v>13</v>
+      <c r="ED12" s="4">
+        <v>4</v>
       </c>
       <c r="EE12" s="4">
         <v>4</v>
       </c>
-      <c r="EF12" s="4" t="s">
-        <v>14</v>
+      <c r="EF12" s="4">
+        <v>4</v>
       </c>
       <c r="EG12" s="4">
         <v>3</v>
@@ -8719,8 +8791,14 @@
       <c r="EO12" s="4" t="s">
         <v>125</v>
       </c>
+      <c r="EP12" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ12" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="13" spans="1:145" ht="409.6">
+    <row r="13" spans="1:147" ht="409.6">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -9048,26 +9126,26 @@
       <c r="DY13" s="4">
         <v>1</v>
       </c>
-      <c r="DZ13" s="4" t="s">
-        <v>68</v>
+      <c r="DZ13" s="4">
+        <v>4</v>
       </c>
       <c r="EA13" s="4">
         <v>3</v>
       </c>
-      <c r="EB13" s="4" t="s">
-        <v>68</v>
+      <c r="EB13" s="4">
+        <v>4</v>
       </c>
       <c r="EC13" s="4">
         <v>1</v>
       </c>
-      <c r="ED13" s="4" t="s">
-        <v>12</v>
+      <c r="ED13" s="4">
+        <v>4</v>
       </c>
       <c r="EE13" s="4">
         <v>1</v>
       </c>
-      <c r="EF13" s="4" t="s">
-        <v>14</v>
+      <c r="EF13" s="4">
+        <v>4</v>
       </c>
       <c r="EG13" s="4">
         <v>2</v>
@@ -9096,8 +9174,14 @@
       <c r="EO13" s="4" t="s">
         <v>134</v>
       </c>
+      <c r="EP13" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ13" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="14" spans="1:145" ht="409.6">
+    <row r="14" spans="1:147" ht="409.6">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -9425,26 +9509,26 @@
       <c r="DY14" s="4">
         <v>2</v>
       </c>
-      <c r="DZ14" s="4" t="s">
-        <v>14</v>
+      <c r="DZ14" s="4">
+        <v>4</v>
       </c>
       <c r="EA14" s="4">
         <v>3</v>
       </c>
-      <c r="EB14" s="4" t="s">
-        <v>14</v>
+      <c r="EB14" s="4">
+        <v>4</v>
       </c>
       <c r="EC14" s="4">
         <v>2</v>
       </c>
-      <c r="ED14" s="4" t="s">
-        <v>13</v>
+      <c r="ED14" s="4">
+        <v>4</v>
       </c>
       <c r="EE14" s="4">
         <v>3</v>
       </c>
-      <c r="EF14" s="4" t="s">
-        <v>13</v>
+      <c r="EF14" s="4">
+        <v>4</v>
       </c>
       <c r="EG14" s="4">
         <v>3</v>
@@ -9473,8 +9557,14 @@
       <c r="EO14" s="4" t="s">
         <v>141</v>
       </c>
+      <c r="EP14" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ14" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="15" spans="1:145" ht="409.6">
+    <row r="15" spans="1:147" ht="409.6">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -9802,26 +9892,26 @@
       <c r="DY15" s="4">
         <v>4</v>
       </c>
-      <c r="DZ15" s="4" t="s">
-        <v>13</v>
+      <c r="DZ15" s="4">
+        <v>4</v>
       </c>
       <c r="EA15" s="4">
         <v>5</v>
       </c>
-      <c r="EB15" s="4" t="s">
-        <v>13</v>
+      <c r="EB15" s="4">
+        <v>4</v>
       </c>
       <c r="EC15" s="4">
         <v>5</v>
       </c>
-      <c r="ED15" s="4" t="s">
-        <v>12</v>
+      <c r="ED15" s="4">
+        <v>4</v>
       </c>
       <c r="EE15" s="4">
         <v>4</v>
       </c>
-      <c r="EF15" s="4" t="s">
-        <v>13</v>
+      <c r="EF15" s="4">
+        <v>4</v>
       </c>
       <c r="EG15" s="4">
         <v>5</v>
@@ -9850,8 +9940,14 @@
       <c r="EO15" s="4" t="s">
         <v>149</v>
       </c>
+      <c r="EP15" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ15" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="16" spans="1:145" ht="409.6">
+    <row r="16" spans="1:147" ht="409.6">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -10179,26 +10275,26 @@
       <c r="DY16" s="4">
         <v>4</v>
       </c>
-      <c r="DZ16" s="4" t="s">
-        <v>13</v>
+      <c r="DZ16" s="4">
+        <v>4</v>
       </c>
       <c r="EA16" s="4">
         <v>5</v>
       </c>
-      <c r="EB16" s="4" t="s">
-        <v>13</v>
+      <c r="EB16" s="4">
+        <v>4</v>
       </c>
       <c r="EC16" s="4">
         <v>5</v>
       </c>
-      <c r="ED16" s="4" t="s">
-        <v>13</v>
+      <c r="ED16" s="4">
+        <v>4</v>
       </c>
       <c r="EE16" s="4">
         <v>4</v>
       </c>
-      <c r="EF16" s="4" t="s">
-        <v>13</v>
+      <c r="EF16" s="4">
+        <v>4</v>
       </c>
       <c r="EG16" s="4">
         <v>4</v>
@@ -10227,8 +10323,14 @@
       <c r="EO16" s="4" t="s">
         <v>160</v>
       </c>
+      <c r="EP16" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ16" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="17" spans="1:145" ht="409.6">
+    <row r="17" spans="1:147" ht="409.6">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -10556,26 +10658,26 @@
       <c r="DY17" s="4">
         <v>4</v>
       </c>
-      <c r="DZ17" s="4" t="s">
-        <v>13</v>
+      <c r="DZ17" s="4">
+        <v>4</v>
       </c>
       <c r="EA17" s="4">
         <v>4</v>
       </c>
-      <c r="EB17" s="4" t="s">
-        <v>13</v>
+      <c r="EB17" s="4">
+        <v>4</v>
       </c>
       <c r="EC17" s="4">
         <v>4</v>
       </c>
-      <c r="ED17" s="4" t="s">
-        <v>15</v>
+      <c r="ED17" s="4">
+        <v>4</v>
       </c>
       <c r="EE17" s="4">
         <v>4</v>
       </c>
-      <c r="EF17" s="4" t="s">
-        <v>13</v>
+      <c r="EF17" s="4">
+        <v>4</v>
       </c>
       <c r="EG17" s="4">
         <v>3</v>
@@ -10604,8 +10706,14 @@
       <c r="EO17" s="4" t="s">
         <v>169</v>
       </c>
+      <c r="EP17" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ17" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="18" spans="1:145" ht="409.6">
+    <row r="18" spans="1:147" ht="409.6">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -10933,26 +11041,26 @@
       <c r="DY18" s="4">
         <v>5</v>
       </c>
-      <c r="DZ18" s="4" t="s">
-        <v>12</v>
+      <c r="DZ18" s="4">
+        <v>4</v>
       </c>
       <c r="EA18" s="4">
         <v>5</v>
       </c>
-      <c r="EB18" s="4" t="s">
-        <v>12</v>
+      <c r="EB18" s="4">
+        <v>4</v>
       </c>
       <c r="EC18" s="4">
         <v>5</v>
       </c>
-      <c r="ED18" s="4" t="s">
-        <v>13</v>
+      <c r="ED18" s="4">
+        <v>4</v>
       </c>
       <c r="EE18" s="4">
         <v>5</v>
       </c>
-      <c r="EF18" s="4" t="s">
-        <v>13</v>
+      <c r="EF18" s="4">
+        <v>4</v>
       </c>
       <c r="EG18" s="4">
         <v>4</v>
@@ -10981,8 +11089,14 @@
       <c r="EO18" s="4" t="s">
         <v>178</v>
       </c>
+      <c r="EP18" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ18" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="19" spans="1:145" ht="409.6">
+    <row r="19" spans="1:147" ht="409.6">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -11310,26 +11424,26 @@
       <c r="DY19" s="4">
         <v>2</v>
       </c>
-      <c r="DZ19" s="4" t="s">
-        <v>13</v>
+      <c r="DZ19" s="4">
+        <v>4</v>
       </c>
       <c r="EA19" s="4">
         <v>2</v>
       </c>
-      <c r="EB19" s="4" t="s">
-        <v>13</v>
+      <c r="EB19" s="4">
+        <v>4</v>
       </c>
       <c r="EC19" s="4">
         <v>3</v>
       </c>
-      <c r="ED19" s="4" t="s">
-        <v>13</v>
+      <c r="ED19" s="4">
+        <v>4</v>
       </c>
       <c r="EE19" s="4">
         <v>4</v>
       </c>
-      <c r="EF19" s="4" t="s">
-        <v>14</v>
+      <c r="EF19" s="4">
+        <v>4</v>
       </c>
       <c r="EG19" s="4">
         <v>3</v>
@@ -11358,8 +11472,14 @@
       <c r="EO19" s="4" t="s">
         <v>186</v>
       </c>
+      <c r="EP19" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ19" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="20" spans="1:145" ht="409.6">
+    <row r="20" spans="1:147" ht="409.6">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
@@ -11687,26 +11807,26 @@
       <c r="DY20" s="4">
         <v>4</v>
       </c>
-      <c r="DZ20" s="4" t="s">
-        <v>12</v>
+      <c r="DZ20" s="4">
+        <v>4</v>
       </c>
       <c r="EA20" s="4">
         <v>4</v>
       </c>
-      <c r="EB20" s="4" t="s">
-        <v>12</v>
+      <c r="EB20" s="4">
+        <v>4</v>
       </c>
       <c r="EC20" s="4">
         <v>4</v>
       </c>
-      <c r="ED20" s="4" t="s">
-        <v>14</v>
+      <c r="ED20" s="4">
+        <v>4</v>
       </c>
       <c r="EE20" s="4">
         <v>5</v>
       </c>
-      <c r="EF20" s="4" t="s">
-        <v>13</v>
+      <c r="EF20" s="4">
+        <v>4</v>
       </c>
       <c r="EG20" s="4">
         <v>5</v>
@@ -11735,8 +11855,14 @@
       <c r="EO20" s="4" t="s">
         <v>193</v>
       </c>
+      <c r="EP20" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ20" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="21" spans="1:145" ht="409.6">
+    <row r="21" spans="1:147" ht="409.6">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -12064,26 +12190,26 @@
       <c r="DY21" s="4">
         <v>4</v>
       </c>
-      <c r="DZ21" s="4" t="s">
-        <v>13</v>
+      <c r="DZ21" s="4">
+        <v>4</v>
       </c>
       <c r="EA21" s="4">
         <v>5</v>
       </c>
-      <c r="EB21" s="4" t="s">
-        <v>13</v>
+      <c r="EB21" s="4">
+        <v>4</v>
       </c>
       <c r="EC21" s="4">
         <v>4</v>
       </c>
-      <c r="ED21" s="4" t="s">
-        <v>13</v>
+      <c r="ED21" s="4">
+        <v>4</v>
       </c>
       <c r="EE21" s="4">
         <v>5</v>
       </c>
-      <c r="EF21" s="4" t="s">
-        <v>13</v>
+      <c r="EF21" s="4">
+        <v>4</v>
       </c>
       <c r="EG21" s="4">
         <v>4</v>
@@ -12112,8 +12238,14 @@
       <c r="EO21" s="4" t="s">
         <v>201</v>
       </c>
+      <c r="EP21" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ21" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="22" spans="1:145" ht="409.6">
+    <row r="22" spans="1:147" ht="409.6">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -12441,26 +12573,26 @@
       <c r="DY22" s="4">
         <v>5</v>
       </c>
-      <c r="DZ22" s="4" t="s">
-        <v>12</v>
+      <c r="DZ22" s="4">
+        <v>4</v>
       </c>
       <c r="EA22" s="4">
         <v>4</v>
       </c>
-      <c r="EB22" s="4" t="s">
-        <v>12</v>
+      <c r="EB22" s="4">
+        <v>4</v>
       </c>
       <c r="EC22" s="4">
         <v>5</v>
       </c>
-      <c r="ED22" s="4" t="s">
-        <v>13</v>
+      <c r="ED22" s="4">
+        <v>4</v>
       </c>
       <c r="EE22" s="4">
         <v>5</v>
       </c>
-      <c r="EF22" s="4" t="s">
-        <v>12</v>
+      <c r="EF22" s="4">
+        <v>4</v>
       </c>
       <c r="EG22" s="4">
         <v>4</v>
@@ -12489,8 +12621,14 @@
       <c r="EO22" s="4" t="s">
         <v>211</v>
       </c>
+      <c r="EP22" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ22" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="23" spans="1:145" ht="409.6">
+    <row r="23" spans="1:147" ht="409.6">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -12818,26 +12956,26 @@
       <c r="DY23" s="4">
         <v>3</v>
       </c>
-      <c r="DZ23" s="4" t="s">
-        <v>13</v>
+      <c r="DZ23" s="4">
+        <v>4</v>
       </c>
       <c r="EA23" s="4">
         <v>4</v>
       </c>
-      <c r="EB23" s="4" t="s">
-        <v>13</v>
+      <c r="EB23" s="4">
+        <v>4</v>
       </c>
       <c r="EC23" s="4">
         <v>3</v>
       </c>
-      <c r="ED23" s="4" t="s">
-        <v>13</v>
+      <c r="ED23" s="4">
+        <v>4</v>
       </c>
       <c r="EE23" s="4">
         <v>3</v>
       </c>
-      <c r="EF23" s="4" t="s">
-        <v>15</v>
+      <c r="EF23" s="4">
+        <v>4</v>
       </c>
       <c r="EG23" s="4">
         <v>3</v>
@@ -12866,8 +13004,14 @@
       <c r="EO23" s="4" t="s">
         <v>220</v>
       </c>
+      <c r="EP23" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ23" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="24" spans="1:145" ht="409.6">
+    <row r="24" spans="1:147" ht="409.6">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -13195,26 +13339,26 @@
       <c r="DY24" s="4">
         <v>3</v>
       </c>
-      <c r="DZ24" s="4" t="s">
-        <v>15</v>
+      <c r="DZ24" s="4">
+        <v>4</v>
       </c>
       <c r="EA24" s="4">
         <v>4</v>
       </c>
-      <c r="EB24" s="4" t="s">
-        <v>15</v>
+      <c r="EB24" s="4">
+        <v>4</v>
       </c>
       <c r="EC24" s="4">
         <v>3</v>
       </c>
-      <c r="ED24" s="4" t="s">
-        <v>13</v>
+      <c r="ED24" s="4">
+        <v>4</v>
       </c>
       <c r="EE24" s="4">
         <v>3</v>
       </c>
-      <c r="EF24" s="4" t="s">
-        <v>13</v>
+      <c r="EF24" s="4">
+        <v>4</v>
       </c>
       <c r="EG24" s="4">
         <v>4</v>
@@ -13243,8 +13387,14 @@
       <c r="EO24" s="4" t="s">
         <v>228</v>
       </c>
+      <c r="EP24" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ24" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="25" spans="1:145" ht="409.6">
+    <row r="25" spans="1:147" ht="409.6">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -13572,26 +13722,26 @@
       <c r="DY25" s="4">
         <v>4</v>
       </c>
-      <c r="DZ25" s="4" t="s">
-        <v>13</v>
+      <c r="DZ25" s="4">
+        <v>4</v>
       </c>
       <c r="EA25" s="4">
         <v>4</v>
       </c>
-      <c r="EB25" s="4" t="s">
-        <v>13</v>
+      <c r="EB25" s="4">
+        <v>4</v>
       </c>
       <c r="EC25" s="4">
         <v>5</v>
       </c>
-      <c r="ED25" s="4" t="s">
-        <v>13</v>
+      <c r="ED25" s="4">
+        <v>4</v>
       </c>
       <c r="EE25" s="4">
         <v>4</v>
       </c>
-      <c r="EF25" s="4" t="s">
-        <v>13</v>
+      <c r="EF25" s="4">
+        <v>4</v>
       </c>
       <c r="EG25" s="4">
         <v>5</v>
@@ -13620,8 +13770,14 @@
       <c r="EO25" s="4" t="s">
         <v>237</v>
       </c>
+      <c r="EP25" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ25" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="26" spans="1:145" ht="409.6">
+    <row r="26" spans="1:147" ht="409.6">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
@@ -13949,26 +14105,26 @@
       <c r="DY26" s="4">
         <v>3</v>
       </c>
-      <c r="DZ26" s="4" t="s">
-        <v>13</v>
+      <c r="DZ26" s="4">
+        <v>4</v>
       </c>
       <c r="EA26" s="4">
         <v>3</v>
       </c>
-      <c r="EB26" s="4" t="s">
-        <v>13</v>
+      <c r="EB26" s="4">
+        <v>4</v>
       </c>
       <c r="EC26" s="4">
         <v>4</v>
       </c>
-      <c r="ED26" s="4" t="s">
-        <v>12</v>
+      <c r="ED26" s="4">
+        <v>4</v>
       </c>
       <c r="EE26" s="4">
         <v>4</v>
       </c>
-      <c r="EF26" s="4" t="s">
-        <v>13</v>
+      <c r="EF26" s="4">
+        <v>4</v>
       </c>
       <c r="EG26" s="4">
         <v>4</v>
@@ -13997,8 +14153,14 @@
       <c r="EO26" s="4" t="s">
         <v>245</v>
       </c>
+      <c r="EP26" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ26" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="27" spans="1:145" ht="409.6">
+    <row r="27" spans="1:147" ht="409.6">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
@@ -14326,26 +14488,26 @@
       <c r="DY27" s="4">
         <v>2</v>
       </c>
-      <c r="DZ27" s="4" t="s">
-        <v>14</v>
+      <c r="DZ27" s="4">
+        <v>4</v>
       </c>
       <c r="EA27" s="4">
         <v>2</v>
       </c>
-      <c r="EB27" s="4" t="s">
-        <v>14</v>
+      <c r="EB27" s="4">
+        <v>4</v>
       </c>
       <c r="EC27" s="4">
         <v>3</v>
       </c>
-      <c r="ED27" s="4" t="s">
-        <v>12</v>
+      <c r="ED27" s="4">
+        <v>4</v>
       </c>
       <c r="EE27" s="4">
         <v>3</v>
       </c>
-      <c r="EF27" s="4" t="s">
-        <v>14</v>
+      <c r="EF27" s="4">
+        <v>4</v>
       </c>
       <c r="EG27" s="4">
         <v>3</v>
@@ -14374,8 +14536,14 @@
       <c r="EO27" s="4" t="s">
         <v>253</v>
       </c>
+      <c r="EP27" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ27" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="28" spans="1:145" ht="409.6">
+    <row r="28" spans="1:147" ht="409.6">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
@@ -14703,26 +14871,26 @@
       <c r="DY28" s="4">
         <v>4</v>
       </c>
-      <c r="DZ28" s="4" t="s">
-        <v>13</v>
+      <c r="DZ28" s="4">
+        <v>4</v>
       </c>
       <c r="EA28" s="4">
         <v>5</v>
       </c>
-      <c r="EB28" s="4" t="s">
-        <v>13</v>
+      <c r="EB28" s="4">
+        <v>4</v>
       </c>
       <c r="EC28" s="4">
         <v>5</v>
       </c>
-      <c r="ED28" s="4" t="s">
-        <v>13</v>
+      <c r="ED28" s="4">
+        <v>4</v>
       </c>
       <c r="EE28" s="4">
         <v>5</v>
       </c>
-      <c r="EF28" s="4" t="s">
-        <v>12</v>
+      <c r="EF28" s="4">
+        <v>4</v>
       </c>
       <c r="EG28" s="4">
         <v>4</v>
@@ -14751,8 +14919,14 @@
       <c r="EO28" s="4" t="s">
         <v>260</v>
       </c>
+      <c r="EP28" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ28" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="29" spans="1:145" ht="409.6">
+    <row r="29" spans="1:147" ht="409.6">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -15080,26 +15254,26 @@
       <c r="DY29" s="4">
         <v>2</v>
       </c>
-      <c r="DZ29" s="4" t="s">
-        <v>13</v>
+      <c r="DZ29" s="4">
+        <v>4</v>
       </c>
       <c r="EA29" s="4">
         <v>4</v>
       </c>
-      <c r="EB29" s="4" t="s">
-        <v>13</v>
+      <c r="EB29" s="4">
+        <v>4</v>
       </c>
       <c r="EC29" s="4">
         <v>2</v>
       </c>
-      <c r="ED29" s="4" t="s">
-        <v>12</v>
+      <c r="ED29" s="4">
+        <v>4</v>
       </c>
       <c r="EE29" s="4">
         <v>2</v>
       </c>
-      <c r="EF29" s="4" t="s">
-        <v>14</v>
+      <c r="EF29" s="4">
+        <v>4</v>
       </c>
       <c r="EG29" s="4">
         <v>3</v>
@@ -15128,8 +15302,14 @@
       <c r="EO29" s="4" t="s">
         <v>269</v>
       </c>
+      <c r="EP29" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ29" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="30" spans="1:145" ht="409.6">
+    <row r="30" spans="1:147" ht="409.6">
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
@@ -15457,26 +15637,26 @@
       <c r="DY30" s="4">
         <v>4</v>
       </c>
-      <c r="DZ30" s="4" t="s">
-        <v>13</v>
+      <c r="DZ30" s="4">
+        <v>4</v>
       </c>
       <c r="EA30" s="4">
         <v>3</v>
       </c>
-      <c r="EB30" s="4" t="s">
-        <v>13</v>
+      <c r="EB30" s="4">
+        <v>4</v>
       </c>
       <c r="EC30" s="4">
         <v>4</v>
       </c>
-      <c r="ED30" s="4" t="s">
-        <v>13</v>
+      <c r="ED30" s="4">
+        <v>4</v>
       </c>
       <c r="EE30" s="4">
         <v>3</v>
       </c>
-      <c r="EF30" s="4" t="s">
-        <v>15</v>
+      <c r="EF30" s="4">
+        <v>4</v>
       </c>
       <c r="EG30" s="4">
         <v>3</v>
@@ -15505,8 +15685,14 @@
       <c r="EO30" s="4" t="s">
         <v>279</v>
       </c>
+      <c r="EP30" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ30" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="31" spans="1:145" ht="409.6">
+    <row r="31" spans="1:147" ht="409.6">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
@@ -15834,26 +16020,26 @@
       <c r="DY31" s="4">
         <v>4</v>
       </c>
-      <c r="DZ31" s="4" t="s">
-        <v>13</v>
+      <c r="DZ31" s="4">
+        <v>4</v>
       </c>
       <c r="EA31" s="4">
         <v>4</v>
       </c>
-      <c r="EB31" s="4" t="s">
-        <v>13</v>
+      <c r="EB31" s="4">
+        <v>4</v>
       </c>
       <c r="EC31" s="4">
         <v>4</v>
       </c>
-      <c r="ED31" s="4" t="s">
-        <v>13</v>
+      <c r="ED31" s="4">
+        <v>4</v>
       </c>
       <c r="EE31" s="4">
         <v>4</v>
       </c>
-      <c r="EF31" s="4" t="s">
-        <v>12</v>
+      <c r="EF31" s="4">
+        <v>4</v>
       </c>
       <c r="EG31" s="4">
         <v>5</v>
@@ -15882,8 +16068,14 @@
       <c r="EO31" s="4" t="s">
         <v>289</v>
       </c>
+      <c r="EP31" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ31" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="32" spans="1:145" ht="409.6">
+    <row r="32" spans="1:147" ht="409.6">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
@@ -16211,26 +16403,26 @@
       <c r="DY32" s="4">
         <v>5</v>
       </c>
-      <c r="DZ32" s="4" t="s">
-        <v>13</v>
+      <c r="DZ32" s="4">
+        <v>4</v>
       </c>
       <c r="EA32" s="4">
         <v>4</v>
       </c>
-      <c r="EB32" s="4" t="s">
-        <v>13</v>
+      <c r="EB32" s="4">
+        <v>4</v>
       </c>
       <c r="EC32" s="4">
         <v>4</v>
       </c>
-      <c r="ED32" s="4" t="s">
-        <v>13</v>
+      <c r="ED32" s="4">
+        <v>4</v>
       </c>
       <c r="EE32" s="4">
         <v>4</v>
       </c>
-      <c r="EF32" s="4" t="s">
-        <v>13</v>
+      <c r="EF32" s="4">
+        <v>4</v>
       </c>
       <c r="EG32" s="4">
         <v>5</v>
@@ -16259,8 +16451,14 @@
       <c r="EO32" s="4" t="s">
         <v>298</v>
       </c>
+      <c r="EP32" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ32" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="33" spans="1:145" ht="409.6">
+    <row r="33" spans="1:147" ht="409.6">
       <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
@@ -16588,26 +16786,26 @@
       <c r="DY33" s="4">
         <v>5</v>
       </c>
-      <c r="DZ33" s="4" t="s">
-        <v>12</v>
+      <c r="DZ33" s="4">
+        <v>4</v>
       </c>
       <c r="EA33" s="4">
         <v>5</v>
       </c>
-      <c r="EB33" s="4" t="s">
-        <v>12</v>
+      <c r="EB33" s="4">
+        <v>4</v>
       </c>
       <c r="EC33" s="4">
         <v>5</v>
       </c>
-      <c r="ED33" s="4" t="s">
-        <v>12</v>
+      <c r="ED33" s="4">
+        <v>4</v>
       </c>
       <c r="EE33" s="4">
         <v>5</v>
       </c>
-      <c r="EF33" s="4" t="s">
-        <v>12</v>
+      <c r="EF33" s="4">
+        <v>4</v>
       </c>
       <c r="EG33" s="4">
         <v>4</v>
@@ -16636,8 +16834,14 @@
       <c r="EO33" s="4" t="s">
         <v>308</v>
       </c>
+      <c r="EP33" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ33" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="34" spans="1:145" ht="409.6">
+    <row r="34" spans="1:147" ht="409.6">
       <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
@@ -16965,26 +17169,26 @@
       <c r="DY34" s="4">
         <v>4</v>
       </c>
-      <c r="DZ34" s="4" t="s">
-        <v>12</v>
+      <c r="DZ34" s="4">
+        <v>4</v>
       </c>
       <c r="EA34" s="4">
         <v>5</v>
       </c>
-      <c r="EB34" s="4" t="s">
-        <v>12</v>
+      <c r="EB34" s="4">
+        <v>4</v>
       </c>
       <c r="EC34" s="4">
         <v>4</v>
       </c>
-      <c r="ED34" s="4" t="s">
-        <v>12</v>
+      <c r="ED34" s="4">
+        <v>4</v>
       </c>
       <c r="EE34" s="4">
         <v>4</v>
       </c>
-      <c r="EF34" s="4" t="s">
-        <v>13</v>
+      <c r="EF34" s="4">
+        <v>4</v>
       </c>
       <c r="EG34" s="4">
         <v>5</v>
@@ -17013,8 +17217,14 @@
       <c r="EO34" s="4" t="s">
         <v>317</v>
       </c>
+      <c r="EP34" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ34" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="35" spans="1:145" ht="409.6">
+    <row r="35" spans="1:147" ht="409.6">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
@@ -17342,26 +17552,26 @@
       <c r="DY35" s="4">
         <v>5</v>
       </c>
-      <c r="DZ35" s="4" t="s">
-        <v>13</v>
+      <c r="DZ35" s="4">
+        <v>4</v>
       </c>
       <c r="EA35" s="4">
         <v>5</v>
       </c>
-      <c r="EB35" s="4" t="s">
-        <v>13</v>
+      <c r="EB35" s="4">
+        <v>4</v>
       </c>
       <c r="EC35" s="4">
         <v>4</v>
       </c>
-      <c r="ED35" s="4" t="s">
-        <v>68</v>
+      <c r="ED35" s="4">
+        <v>4</v>
       </c>
       <c r="EE35" s="4">
         <v>5</v>
       </c>
-      <c r="EF35" s="4" t="s">
-        <v>12</v>
+      <c r="EF35" s="4">
+        <v>4</v>
       </c>
       <c r="EG35" s="4">
         <v>4</v>
@@ -17390,8 +17600,14 @@
       <c r="EO35" s="4" t="s">
         <v>326</v>
       </c>
+      <c r="EP35" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ35" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="36" spans="1:145" ht="409.6">
+    <row r="36" spans="1:147" ht="409.6">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
@@ -17719,26 +17935,26 @@
       <c r="DY36" s="4">
         <v>4</v>
       </c>
-      <c r="DZ36" s="4" t="s">
-        <v>12</v>
+      <c r="DZ36" s="4">
+        <v>4</v>
       </c>
       <c r="EA36" s="4">
         <v>5</v>
       </c>
-      <c r="EB36" s="4" t="s">
-        <v>12</v>
+      <c r="EB36" s="4">
+        <v>4</v>
       </c>
       <c r="EC36" s="4">
         <v>4</v>
       </c>
-      <c r="ED36" s="4" t="s">
-        <v>12</v>
+      <c r="ED36" s="4">
+        <v>4</v>
       </c>
       <c r="EE36" s="4">
         <v>4</v>
       </c>
-      <c r="EF36" s="4" t="s">
-        <v>12</v>
+      <c r="EF36" s="4">
+        <v>4</v>
       </c>
       <c r="EG36" s="4">
         <v>5</v>
@@ -17767,8 +17983,14 @@
       <c r="EO36" s="4" t="s">
         <v>335</v>
       </c>
+      <c r="EP36" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ36" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="37" spans="1:145" ht="409.6">
+    <row r="37" spans="1:147" ht="409.6">
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
@@ -18096,26 +18318,26 @@
       <c r="DY37" s="4">
         <v>5</v>
       </c>
-      <c r="DZ37" s="4" t="s">
-        <v>13</v>
+      <c r="DZ37" s="4">
+        <v>4</v>
       </c>
       <c r="EA37" s="4">
         <v>5</v>
       </c>
-      <c r="EB37" s="4" t="s">
-        <v>13</v>
+      <c r="EB37" s="4">
+        <v>4</v>
       </c>
       <c r="EC37" s="4">
         <v>4</v>
       </c>
-      <c r="ED37" s="4" t="s">
-        <v>13</v>
+      <c r="ED37" s="4">
+        <v>4</v>
       </c>
       <c r="EE37" s="4">
         <v>5</v>
       </c>
-      <c r="EF37" s="4" t="s">
-        <v>12</v>
+      <c r="EF37" s="4">
+        <v>4</v>
       </c>
       <c r="EG37" s="4">
         <v>5</v>
@@ -18144,8 +18366,14 @@
       <c r="EO37" s="4" t="s">
         <v>344</v>
       </c>
+      <c r="EP37" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ37" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="38" spans="1:145" ht="409.6">
+    <row r="38" spans="1:147" ht="409.6">
       <c r="A38" s="1" t="s">
         <v>0</v>
       </c>
@@ -18473,26 +18701,26 @@
       <c r="DY38" s="4">
         <v>4</v>
       </c>
-      <c r="DZ38" s="4" t="s">
-        <v>13</v>
+      <c r="DZ38" s="4">
+        <v>4</v>
       </c>
       <c r="EA38" s="4">
         <v>3</v>
       </c>
-      <c r="EB38" s="4" t="s">
-        <v>13</v>
+      <c r="EB38" s="4">
+        <v>4</v>
       </c>
       <c r="EC38" s="4">
         <v>3</v>
       </c>
-      <c r="ED38" s="4" t="s">
-        <v>12</v>
+      <c r="ED38" s="4">
+        <v>4</v>
       </c>
       <c r="EE38" s="4">
         <v>3</v>
       </c>
-      <c r="EF38" s="4" t="s">
-        <v>15</v>
+      <c r="EF38" s="4">
+        <v>4</v>
       </c>
       <c r="EG38" s="4">
         <v>4</v>
@@ -18521,8 +18749,14 @@
       <c r="EO38" s="4" t="s">
         <v>352</v>
       </c>
+      <c r="EP38" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ38" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="39" spans="1:145" ht="409.6">
+    <row r="39" spans="1:147" ht="409.6">
       <c r="A39" s="1" t="s">
         <v>0</v>
       </c>
@@ -18850,26 +19084,26 @@
       <c r="DY39" s="4">
         <v>5</v>
       </c>
-      <c r="DZ39" s="4" t="s">
-        <v>13</v>
+      <c r="DZ39" s="4">
+        <v>4</v>
       </c>
       <c r="EA39" s="4">
         <v>5</v>
       </c>
-      <c r="EB39" s="4" t="s">
-        <v>13</v>
+      <c r="EB39" s="4">
+        <v>4</v>
       </c>
       <c r="EC39" s="4">
         <v>5</v>
       </c>
-      <c r="ED39" s="4" t="s">
-        <v>15</v>
+      <c r="ED39" s="4">
+        <v>4</v>
       </c>
       <c r="EE39" s="4">
         <v>4</v>
       </c>
-      <c r="EF39" s="4" t="s">
-        <v>13</v>
+      <c r="EF39" s="4">
+        <v>4</v>
       </c>
       <c r="EG39" s="4">
         <v>4</v>
@@ -18898,8 +19132,14 @@
       <c r="EO39" s="4" t="s">
         <v>360</v>
       </c>
+      <c r="EP39" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ39" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="40" spans="1:145" ht="409.6">
+    <row r="40" spans="1:147" ht="409.6">
       <c r="A40" s="1" t="s">
         <v>0</v>
       </c>
@@ -19227,26 +19467,26 @@
       <c r="DY40" s="4">
         <v>4</v>
       </c>
-      <c r="DZ40" s="4" t="s">
-        <v>12</v>
+      <c r="DZ40" s="4">
+        <v>4</v>
       </c>
       <c r="EA40" s="4">
         <v>5</v>
       </c>
-      <c r="EB40" s="4" t="s">
-        <v>12</v>
+      <c r="EB40" s="4">
+        <v>4</v>
       </c>
       <c r="EC40" s="4">
         <v>5</v>
       </c>
-      <c r="ED40" s="4" t="s">
-        <v>13</v>
+      <c r="ED40" s="4">
+        <v>4</v>
       </c>
       <c r="EE40" s="4">
         <v>5</v>
       </c>
-      <c r="EF40" s="4" t="s">
-        <v>12</v>
+      <c r="EF40" s="4">
+        <v>4</v>
       </c>
       <c r="EG40" s="4">
         <v>5</v>
@@ -19275,8 +19515,14 @@
       <c r="EO40" s="4" t="s">
         <v>370</v>
       </c>
+      <c r="EP40" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ40" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="41" spans="1:145" ht="409.6">
+    <row r="41" spans="1:147" ht="409.6">
       <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
@@ -19604,26 +19850,26 @@
       <c r="DY41" s="4">
         <v>4</v>
       </c>
-      <c r="DZ41" s="4" t="s">
-        <v>12</v>
+      <c r="DZ41" s="4">
+        <v>4</v>
       </c>
       <c r="EA41" s="4">
         <v>4</v>
       </c>
-      <c r="EB41" s="4" t="s">
-        <v>12</v>
+      <c r="EB41" s="4">
+        <v>4</v>
       </c>
       <c r="EC41" s="4">
         <v>4</v>
       </c>
-      <c r="ED41" s="4" t="s">
-        <v>12</v>
+      <c r="ED41" s="4">
+        <v>4</v>
       </c>
       <c r="EE41" s="4">
         <v>4</v>
       </c>
-      <c r="EF41" s="4" t="s">
-        <v>12</v>
+      <c r="EF41" s="4">
+        <v>4</v>
       </c>
       <c r="EG41" s="4">
         <v>4</v>
@@ -19652,8 +19898,14 @@
       <c r="EO41" s="4" t="s">
         <v>379</v>
       </c>
+      <c r="EP41" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ41" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="42" spans="1:145" ht="409.6">
+    <row r="42" spans="1:147" ht="409.6">
       <c r="A42" s="1" t="s">
         <v>0</v>
       </c>
@@ -19981,26 +20233,26 @@
       <c r="DY42" s="4">
         <v>2</v>
       </c>
-      <c r="DZ42" s="4" t="s">
-        <v>68</v>
+      <c r="DZ42" s="4">
+        <v>4</v>
       </c>
       <c r="EA42" s="4">
         <v>1</v>
       </c>
-      <c r="EB42" s="4" t="s">
-        <v>68</v>
+      <c r="EB42" s="4">
+        <v>4</v>
       </c>
       <c r="EC42" s="4">
         <v>2</v>
       </c>
-      <c r="ED42" s="4" t="s">
-        <v>12</v>
+      <c r="ED42" s="4">
+        <v>4</v>
       </c>
       <c r="EE42" s="4">
         <v>1</v>
       </c>
-      <c r="EF42" s="4" t="s">
-        <v>68</v>
+      <c r="EF42" s="4">
+        <v>4</v>
       </c>
       <c r="EG42" s="4">
         <v>2</v>
@@ -20029,8 +20281,14 @@
       <c r="EO42" s="4" t="s">
         <v>387</v>
       </c>
+      <c r="EP42" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ42" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="43" spans="1:145" ht="409.6">
+    <row r="43" spans="1:147" ht="409.6">
       <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
@@ -20358,26 +20616,26 @@
       <c r="DY43" s="4">
         <v>4</v>
       </c>
-      <c r="DZ43" s="4" t="s">
-        <v>12</v>
+      <c r="DZ43" s="4">
+        <v>4</v>
       </c>
       <c r="EA43" s="4">
         <v>4</v>
       </c>
-      <c r="EB43" s="4" t="s">
-        <v>12</v>
+      <c r="EB43" s="4">
+        <v>4</v>
       </c>
       <c r="EC43" s="4">
         <v>4</v>
       </c>
-      <c r="ED43" s="4" t="s">
-        <v>13</v>
+      <c r="ED43" s="4">
+        <v>4</v>
       </c>
       <c r="EE43" s="4">
         <v>4</v>
       </c>
-      <c r="EF43" s="4" t="s">
-        <v>13</v>
+      <c r="EF43" s="4">
+        <v>4</v>
       </c>
       <c r="EG43" s="4">
         <v>5</v>
@@ -20406,8 +20664,14 @@
       <c r="EO43" s="4" t="s">
         <v>90</v>
       </c>
+      <c r="EP43" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ43" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="44" spans="1:145" ht="409.6">
+    <row r="44" spans="1:147" ht="409.6">
       <c r="A44" s="1" t="s">
         <v>0</v>
       </c>
@@ -20735,26 +20999,26 @@
       <c r="DY44" s="4">
         <v>4</v>
       </c>
-      <c r="DZ44" s="4" t="s">
-        <v>13</v>
+      <c r="DZ44" s="4">
+        <v>4</v>
       </c>
       <c r="EA44" s="4">
         <v>4</v>
       </c>
-      <c r="EB44" s="4" t="s">
-        <v>13</v>
+      <c r="EB44" s="4">
+        <v>4</v>
       </c>
       <c r="EC44" s="4">
         <v>5</v>
       </c>
-      <c r="ED44" s="4" t="s">
-        <v>12</v>
+      <c r="ED44" s="4">
+        <v>4</v>
       </c>
       <c r="EE44" s="4">
         <v>4</v>
       </c>
-      <c r="EF44" s="4" t="s">
-        <v>12</v>
+      <c r="EF44" s="4">
+        <v>4</v>
       </c>
       <c r="EG44" s="4">
         <v>5</v>
@@ -20783,8 +21047,14 @@
       <c r="EO44" s="4" t="s">
         <v>402</v>
       </c>
+      <c r="EP44" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ44" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="45" spans="1:145" ht="409.6">
+    <row r="45" spans="1:147" ht="409.6">
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
@@ -21112,26 +21382,26 @@
       <c r="DY45" s="4">
         <v>4</v>
       </c>
-      <c r="DZ45" s="4" t="s">
-        <v>12</v>
+      <c r="DZ45" s="4">
+        <v>4</v>
       </c>
       <c r="EA45" s="4">
         <v>5</v>
       </c>
-      <c r="EB45" s="4" t="s">
-        <v>12</v>
+      <c r="EB45" s="4">
+        <v>4</v>
       </c>
       <c r="EC45" s="4">
         <v>5</v>
       </c>
-      <c r="ED45" s="4" t="s">
-        <v>13</v>
+      <c r="ED45" s="4">
+        <v>4</v>
       </c>
       <c r="EE45" s="4">
         <v>5</v>
       </c>
-      <c r="EF45" s="4" t="s">
-        <v>12</v>
+      <c r="EF45" s="4">
+        <v>4</v>
       </c>
       <c r="EG45" s="4">
         <v>4</v>
@@ -21160,8 +21430,14 @@
       <c r="EO45" s="4" t="s">
         <v>410</v>
       </c>
+      <c r="EP45" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ45" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="46" spans="1:145" ht="409.6">
+    <row r="46" spans="1:147" ht="409.6">
       <c r="A46" s="1" t="s">
         <v>0</v>
       </c>
@@ -21489,26 +21765,26 @@
       <c r="DY46" s="4">
         <v>4</v>
       </c>
-      <c r="DZ46" s="4" t="s">
-        <v>15</v>
+      <c r="DZ46" s="4">
+        <v>4</v>
       </c>
       <c r="EA46" s="4">
         <v>4</v>
       </c>
-      <c r="EB46" s="4" t="s">
-        <v>15</v>
+      <c r="EB46" s="4">
+        <v>4</v>
       </c>
       <c r="EC46" s="4">
         <v>3</v>
       </c>
-      <c r="ED46" s="4" t="s">
-        <v>14</v>
+      <c r="ED46" s="4">
+        <v>4</v>
       </c>
       <c r="EE46" s="4">
         <v>3</v>
       </c>
-      <c r="EF46" s="4" t="s">
-        <v>15</v>
+      <c r="EF46" s="4">
+        <v>4</v>
       </c>
       <c r="EG46" s="4">
         <v>4</v>
@@ -21537,8 +21813,14 @@
       <c r="EO46" s="4" t="s">
         <v>418</v>
       </c>
+      <c r="EP46" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ46" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="47" spans="1:145" ht="409.6">
+    <row r="47" spans="1:147" ht="409.6">
       <c r="A47" s="1" t="s">
         <v>0</v>
       </c>
@@ -21866,26 +22148,26 @@
       <c r="DY47" s="4">
         <v>5</v>
       </c>
-      <c r="DZ47" s="4" t="s">
-        <v>13</v>
+      <c r="DZ47" s="4">
+        <v>4</v>
       </c>
       <c r="EA47" s="4">
         <v>4</v>
       </c>
-      <c r="EB47" s="4" t="s">
-        <v>13</v>
+      <c r="EB47" s="4">
+        <v>4</v>
       </c>
       <c r="EC47" s="4">
         <v>4</v>
       </c>
-      <c r="ED47" s="4" t="s">
-        <v>13</v>
+      <c r="ED47" s="4">
+        <v>4</v>
       </c>
       <c r="EE47" s="4">
         <v>5</v>
       </c>
-      <c r="EF47" s="4" t="s">
-        <v>13</v>
+      <c r="EF47" s="4">
+        <v>4</v>
       </c>
       <c r="EG47" s="4">
         <v>5</v>
@@ -21914,8 +22196,14 @@
       <c r="EO47" s="4" t="s">
         <v>426</v>
       </c>
+      <c r="EP47" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ47" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="48" spans="1:145" ht="409.6">
+    <row r="48" spans="1:147" ht="409.6">
       <c r="A48" s="1" t="s">
         <v>0</v>
       </c>
@@ -22243,26 +22531,26 @@
       <c r="DY48" s="4">
         <v>5</v>
       </c>
-      <c r="DZ48" s="4" t="s">
-        <v>12</v>
+      <c r="DZ48" s="4">
+        <v>4</v>
       </c>
       <c r="EA48" s="4">
         <v>4</v>
       </c>
-      <c r="EB48" s="4" t="s">
-        <v>12</v>
+      <c r="EB48" s="4">
+        <v>4</v>
       </c>
       <c r="EC48" s="4">
         <v>5</v>
       </c>
-      <c r="ED48" s="4" t="s">
-        <v>12</v>
+      <c r="ED48" s="4">
+        <v>4</v>
       </c>
       <c r="EE48" s="4">
         <v>4</v>
       </c>
-      <c r="EF48" s="4" t="s">
-        <v>13</v>
+      <c r="EF48" s="4">
+        <v>4</v>
       </c>
       <c r="EG48" s="4">
         <v>5</v>
@@ -22291,8 +22579,14 @@
       <c r="EO48" s="4" t="s">
         <v>435</v>
       </c>
+      <c r="EP48" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ48" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="49" spans="1:145" ht="409.6">
+    <row r="49" spans="1:147" ht="409.6">
       <c r="A49" s="1" t="s">
         <v>0</v>
       </c>
@@ -22620,26 +22914,26 @@
       <c r="DY49" s="4">
         <v>4</v>
       </c>
-      <c r="DZ49" s="4" t="s">
-        <v>12</v>
+      <c r="DZ49" s="4">
+        <v>4</v>
       </c>
       <c r="EA49" s="4">
         <v>5</v>
       </c>
-      <c r="EB49" s="4" t="s">
-        <v>12</v>
+      <c r="EB49" s="4">
+        <v>4</v>
       </c>
       <c r="EC49" s="4">
         <v>4</v>
       </c>
-      <c r="ED49" s="4" t="s">
-        <v>13</v>
+      <c r="ED49" s="4">
+        <v>4</v>
       </c>
       <c r="EE49" s="4">
         <v>5</v>
       </c>
-      <c r="EF49" s="4" t="s">
-        <v>13</v>
+      <c r="EF49" s="4">
+        <v>4</v>
       </c>
       <c r="EG49" s="4">
         <v>5</v>
@@ -22668,8 +22962,14 @@
       <c r="EO49" s="4" t="s">
         <v>443</v>
       </c>
+      <c r="EP49" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ49" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="50" spans="1:145" ht="409.6">
+    <row r="50" spans="1:147" ht="409.6">
       <c r="A50" s="1" t="s">
         <v>0</v>
       </c>
@@ -22997,26 +23297,26 @@
       <c r="DY50" s="4">
         <v>4</v>
       </c>
-      <c r="DZ50" s="4" t="s">
-        <v>13</v>
+      <c r="DZ50" s="4">
+        <v>4</v>
       </c>
       <c r="EA50" s="4">
         <v>5</v>
       </c>
-      <c r="EB50" s="4" t="s">
-        <v>13</v>
+      <c r="EB50" s="4">
+        <v>4</v>
       </c>
       <c r="EC50" s="4">
         <v>4</v>
       </c>
-      <c r="ED50" s="4" t="s">
-        <v>12</v>
+      <c r="ED50" s="4">
+        <v>4</v>
       </c>
       <c r="EE50" s="4">
         <v>4</v>
       </c>
-      <c r="EF50" s="4" t="s">
-        <v>13</v>
+      <c r="EF50" s="4">
+        <v>4</v>
       </c>
       <c r="EG50" s="4">
         <v>4</v>
@@ -23045,8 +23345,14 @@
       <c r="EO50" s="4" t="s">
         <v>450</v>
       </c>
+      <c r="EP50" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ50" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="51" spans="1:145" ht="409.6">
+    <row r="51" spans="1:147" ht="409.6">
       <c r="A51" s="1" t="s">
         <v>0</v>
       </c>
@@ -23374,26 +23680,26 @@
       <c r="DY51" s="4">
         <v>5</v>
       </c>
-      <c r="DZ51" s="4" t="s">
-        <v>12</v>
+      <c r="DZ51" s="4">
+        <v>4</v>
       </c>
       <c r="EA51" s="4">
         <v>5</v>
       </c>
-      <c r="EB51" s="4" t="s">
-        <v>12</v>
+      <c r="EB51" s="4">
+        <v>4</v>
       </c>
       <c r="EC51" s="4">
         <v>4</v>
       </c>
-      <c r="ED51" s="4" t="s">
-        <v>13</v>
+      <c r="ED51" s="4">
+        <v>4</v>
       </c>
       <c r="EE51" s="4">
         <v>5</v>
       </c>
-      <c r="EF51" s="4" t="s">
-        <v>13</v>
+      <c r="EF51" s="4">
+        <v>4</v>
       </c>
       <c r="EG51" s="4">
         <v>4</v>
@@ -23422,8 +23728,14 @@
       <c r="EO51" s="4" t="s">
         <v>459</v>
       </c>
+      <c r="EP51" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ51" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="52" spans="1:145" ht="409.6">
+    <row r="52" spans="1:147" ht="409.6">
       <c r="A52" s="1" t="s">
         <v>0</v>
       </c>
@@ -23751,26 +24063,26 @@
       <c r="DY52" s="4">
         <v>4</v>
       </c>
-      <c r="DZ52" s="4" t="s">
-        <v>13</v>
+      <c r="DZ52" s="4">
+        <v>4</v>
       </c>
       <c r="EA52" s="4">
         <v>4</v>
       </c>
-      <c r="EB52" s="4" t="s">
-        <v>13</v>
+      <c r="EB52" s="4">
+        <v>4</v>
       </c>
       <c r="EC52" s="4">
         <v>3</v>
       </c>
-      <c r="ED52" s="4" t="s">
-        <v>13</v>
+      <c r="ED52" s="4">
+        <v>4</v>
       </c>
       <c r="EE52" s="4">
         <v>4</v>
       </c>
-      <c r="EF52" s="4" t="s">
-        <v>15</v>
+      <c r="EF52" s="4">
+        <v>4</v>
       </c>
       <c r="EG52" s="4">
         <v>3</v>
@@ -23799,8 +24111,14 @@
       <c r="EO52" s="4" t="s">
         <v>468</v>
       </c>
+      <c r="EP52" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ52" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="53" spans="1:145" ht="409.6">
+    <row r="53" spans="1:147" ht="409.6">
       <c r="A53" s="1" t="s">
         <v>0</v>
       </c>
@@ -24128,26 +24446,26 @@
       <c r="DY53" s="4">
         <v>3</v>
       </c>
-      <c r="DZ53" s="4" t="s">
-        <v>14</v>
+      <c r="DZ53" s="4">
+        <v>4</v>
       </c>
       <c r="EA53" s="4">
         <v>2</v>
       </c>
-      <c r="EB53" s="4" t="s">
-        <v>14</v>
+      <c r="EB53" s="4">
+        <v>4</v>
       </c>
       <c r="EC53" s="4">
         <v>3</v>
       </c>
-      <c r="ED53" s="4" t="s">
-        <v>12</v>
+      <c r="ED53" s="4">
+        <v>4</v>
       </c>
       <c r="EE53" s="4">
         <v>3</v>
       </c>
-      <c r="EF53" s="4" t="s">
-        <v>14</v>
+      <c r="EF53" s="4">
+        <v>4</v>
       </c>
       <c r="EG53" s="4">
         <v>2</v>
@@ -24176,8 +24494,14 @@
       <c r="EO53" s="4" t="s">
         <v>477</v>
       </c>
+      <c r="EP53" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ53" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="54" spans="1:145" ht="409.6">
+    <row r="54" spans="1:147" ht="409.6">
       <c r="A54" s="1" t="s">
         <v>0</v>
       </c>
@@ -24505,26 +24829,26 @@
       <c r="DY54" s="4">
         <v>4</v>
       </c>
-      <c r="DZ54" s="4" t="s">
-        <v>13</v>
+      <c r="DZ54" s="4">
+        <v>4</v>
       </c>
       <c r="EA54" s="4">
         <v>5</v>
       </c>
-      <c r="EB54" s="4" t="s">
-        <v>13</v>
+      <c r="EB54" s="4">
+        <v>4</v>
       </c>
       <c r="EC54" s="4">
         <v>4</v>
       </c>
-      <c r="ED54" s="4" t="s">
-        <v>13</v>
+      <c r="ED54" s="4">
+        <v>4</v>
       </c>
       <c r="EE54" s="4">
         <v>5</v>
       </c>
-      <c r="EF54" s="4" t="s">
-        <v>12</v>
+      <c r="EF54" s="4">
+        <v>4</v>
       </c>
       <c r="EG54" s="4">
         <v>4</v>
@@ -24553,8 +24877,14 @@
       <c r="EO54" s="4" t="s">
         <v>485</v>
       </c>
+      <c r="EP54" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ54" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="55" spans="1:145" ht="409.6">
+    <row r="55" spans="1:147" ht="409.6">
       <c r="A55" s="1" t="s">
         <v>0</v>
       </c>
@@ -24882,26 +25212,26 @@
       <c r="DY55" s="4">
         <v>5</v>
       </c>
-      <c r="DZ55" s="4" t="s">
-        <v>12</v>
+      <c r="DZ55" s="4">
+        <v>4</v>
       </c>
       <c r="EA55" s="4">
         <v>5</v>
       </c>
-      <c r="EB55" s="4" t="s">
-        <v>12</v>
+      <c r="EB55" s="4">
+        <v>4</v>
       </c>
       <c r="EC55" s="4">
         <v>5</v>
       </c>
-      <c r="ED55" s="4" t="s">
-        <v>13</v>
+      <c r="ED55" s="4">
+        <v>4</v>
       </c>
       <c r="EE55" s="4">
         <v>5</v>
       </c>
-      <c r="EF55" s="4" t="s">
-        <v>13</v>
+      <c r="EF55" s="4">
+        <v>4</v>
       </c>
       <c r="EG55" s="4">
         <v>4</v>
@@ -24930,8 +25260,14 @@
       <c r="EO55" s="4" t="s">
         <v>494</v>
       </c>
+      <c r="EP55" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ55" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="56" spans="1:145" ht="409.6">
+    <row r="56" spans="1:147" ht="409.6">
       <c r="A56" s="1" t="s">
         <v>0</v>
       </c>
@@ -25259,26 +25595,26 @@
       <c r="DY56" s="4">
         <v>4</v>
       </c>
-      <c r="DZ56" s="4" t="s">
-        <v>13</v>
+      <c r="DZ56" s="4">
+        <v>4</v>
       </c>
       <c r="EA56" s="4">
         <v>4</v>
       </c>
-      <c r="EB56" s="4" t="s">
-        <v>13</v>
+      <c r="EB56" s="4">
+        <v>4</v>
       </c>
       <c r="EC56" s="4">
         <v>4</v>
       </c>
-      <c r="ED56" s="4" t="s">
-        <v>13</v>
+      <c r="ED56" s="4">
+        <v>4</v>
       </c>
       <c r="EE56" s="4">
         <v>5</v>
       </c>
-      <c r="EF56" s="4" t="s">
-        <v>12</v>
+      <c r="EF56" s="4">
+        <v>4</v>
       </c>
       <c r="EG56" s="4">
         <v>4</v>
@@ -25307,8 +25643,14 @@
       <c r="EO56" s="4" t="s">
         <v>502</v>
       </c>
+      <c r="EP56" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ56" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="57" spans="1:145" ht="409.6">
+    <row r="57" spans="1:147" ht="409.6">
       <c r="A57" s="1" t="s">
         <v>0</v>
       </c>
@@ -25636,26 +25978,26 @@
       <c r="DY57" s="4">
         <v>4</v>
       </c>
-      <c r="DZ57" s="4" t="s">
-        <v>12</v>
+      <c r="DZ57" s="4">
+        <v>4</v>
       </c>
       <c r="EA57" s="4">
         <v>5</v>
       </c>
-      <c r="EB57" s="4" t="s">
-        <v>12</v>
+      <c r="EB57" s="4">
+        <v>4</v>
       </c>
       <c r="EC57" s="4">
         <v>4</v>
       </c>
-      <c r="ED57" s="4" t="s">
-        <v>12</v>
+      <c r="ED57" s="4">
+        <v>4</v>
       </c>
       <c r="EE57" s="4">
         <v>4</v>
       </c>
-      <c r="EF57" s="4" t="s">
-        <v>12</v>
+      <c r="EF57" s="4">
+        <v>4</v>
       </c>
       <c r="EG57" s="4">
         <v>5</v>
@@ -25684,8 +26026,14 @@
       <c r="EO57" s="4" t="s">
         <v>510</v>
       </c>
+      <c r="EP57" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ57" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="58" spans="1:145" ht="409.6">
+    <row r="58" spans="1:147" ht="409.6">
       <c r="A58" s="1" t="s">
         <v>0</v>
       </c>
@@ -26013,26 +26361,26 @@
       <c r="DY58" s="4">
         <v>5</v>
       </c>
-      <c r="DZ58" s="4" t="s">
-        <v>13</v>
+      <c r="DZ58" s="4">
+        <v>4</v>
       </c>
       <c r="EA58" s="4">
         <v>4</v>
       </c>
-      <c r="EB58" s="4" t="s">
-        <v>13</v>
+      <c r="EB58" s="4">
+        <v>4</v>
       </c>
       <c r="EC58" s="4">
         <v>4</v>
       </c>
-      <c r="ED58" s="4" t="s">
-        <v>12</v>
+      <c r="ED58" s="4">
+        <v>4</v>
       </c>
       <c r="EE58" s="4">
         <v>5</v>
       </c>
-      <c r="EF58" s="4" t="s">
-        <v>12</v>
+      <c r="EF58" s="4">
+        <v>4</v>
       </c>
       <c r="EG58" s="4">
         <v>4</v>
@@ -26061,8 +26409,14 @@
       <c r="EO58" s="4" t="s">
         <v>518</v>
       </c>
+      <c r="EP58" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ58" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="59" spans="1:145" ht="409.6">
+    <row r="59" spans="1:147" ht="409.6">
       <c r="A59" s="1" t="s">
         <v>0</v>
       </c>
@@ -26390,26 +26744,26 @@
       <c r="DY59" s="4">
         <v>5</v>
       </c>
-      <c r="DZ59" s="4" t="s">
-        <v>13</v>
+      <c r="DZ59" s="4">
+        <v>4</v>
       </c>
       <c r="EA59" s="4">
         <v>5</v>
       </c>
-      <c r="EB59" s="4" t="s">
-        <v>13</v>
+      <c r="EB59" s="4">
+        <v>4</v>
       </c>
       <c r="EC59" s="4">
         <v>5</v>
       </c>
-      <c r="ED59" s="4" t="s">
-        <v>14</v>
+      <c r="ED59" s="4">
+        <v>4</v>
       </c>
       <c r="EE59" s="4">
         <v>4</v>
       </c>
-      <c r="EF59" s="4" t="s">
-        <v>12</v>
+      <c r="EF59" s="4">
+        <v>4</v>
       </c>
       <c r="EG59" s="4">
         <v>5</v>
@@ -26438,8 +26792,14 @@
       <c r="EO59" s="4" t="s">
         <v>525</v>
       </c>
+      <c r="EP59" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ59" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="60" spans="1:145" ht="409.6">
+    <row r="60" spans="1:147" ht="409.6">
       <c r="A60" s="1" t="s">
         <v>0</v>
       </c>
@@ -26767,26 +27127,26 @@
       <c r="DY60" s="4">
         <v>5</v>
       </c>
-      <c r="DZ60" s="4" t="s">
-        <v>12</v>
+      <c r="DZ60" s="4">
+        <v>4</v>
       </c>
       <c r="EA60" s="4">
         <v>5</v>
       </c>
-      <c r="EB60" s="4" t="s">
-        <v>12</v>
+      <c r="EB60" s="4">
+        <v>4</v>
       </c>
       <c r="EC60" s="4">
         <v>4</v>
       </c>
-      <c r="ED60" s="4" t="s">
-        <v>13</v>
+      <c r="ED60" s="4">
+        <v>4</v>
       </c>
       <c r="EE60" s="4">
         <v>5</v>
       </c>
-      <c r="EF60" s="4" t="s">
-        <v>12</v>
+      <c r="EF60" s="4">
+        <v>4</v>
       </c>
       <c r="EG60" s="4">
         <v>5</v>
@@ -26815,8 +27175,14 @@
       <c r="EO60" s="4" t="s">
         <v>534</v>
       </c>
+      <c r="EP60" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ60" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="61" spans="1:145" ht="409.6">
+    <row r="61" spans="1:147" ht="409.6">
       <c r="A61" s="1" t="s">
         <v>0</v>
       </c>
@@ -27144,26 +27510,26 @@
       <c r="DY61" s="4">
         <v>5</v>
       </c>
-      <c r="DZ61" s="4" t="s">
-        <v>13</v>
+      <c r="DZ61" s="4">
+        <v>4</v>
       </c>
       <c r="EA61" s="4">
         <v>5</v>
       </c>
-      <c r="EB61" s="4" t="s">
-        <v>13</v>
+      <c r="EB61" s="4">
+        <v>4</v>
       </c>
       <c r="EC61" s="4">
         <v>4</v>
       </c>
-      <c r="ED61" s="4" t="s">
-        <v>13</v>
+      <c r="ED61" s="4">
+        <v>4</v>
       </c>
       <c r="EE61" s="4">
         <v>5</v>
       </c>
-      <c r="EF61" s="4" t="s">
-        <v>12</v>
+      <c r="EF61" s="4">
+        <v>4</v>
       </c>
       <c r="EG61" s="4">
         <v>4</v>
@@ -27192,8 +27558,14 @@
       <c r="EO61" s="4" t="s">
         <v>541</v>
       </c>
+      <c r="EP61" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ61" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="62" spans="1:145" ht="409.6">
+    <row r="62" spans="1:147" ht="409.6">
       <c r="A62" s="1" t="s">
         <v>0</v>
       </c>
@@ -27521,26 +27893,26 @@
       <c r="DY62" s="4">
         <v>3</v>
       </c>
-      <c r="DZ62" s="4" t="s">
-        <v>13</v>
+      <c r="DZ62" s="4">
+        <v>4</v>
       </c>
       <c r="EA62" s="4">
         <v>4</v>
       </c>
-      <c r="EB62" s="4" t="s">
-        <v>13</v>
+      <c r="EB62" s="4">
+        <v>4</v>
       </c>
       <c r="EC62" s="4">
         <v>3</v>
       </c>
-      <c r="ED62" s="4" t="s">
-        <v>12</v>
+      <c r="ED62" s="4">
+        <v>4</v>
       </c>
       <c r="EE62" s="4">
         <v>4</v>
       </c>
-      <c r="EF62" s="4" t="s">
-        <v>13</v>
+      <c r="EF62" s="4">
+        <v>4</v>
       </c>
       <c r="EG62" s="4">
         <v>4</v>
@@ -27569,8 +27941,14 @@
       <c r="EO62" s="4" t="s">
         <v>549</v>
       </c>
+      <c r="EP62" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ62" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="63" spans="1:145" ht="409.6">
+    <row r="63" spans="1:147" ht="409.6">
       <c r="A63" s="1" t="s">
         <v>0</v>
       </c>
@@ -27898,26 +28276,26 @@
       <c r="DY63" s="4">
         <v>5</v>
       </c>
-      <c r="DZ63" s="4" t="s">
-        <v>13</v>
+      <c r="DZ63" s="4">
+        <v>4</v>
       </c>
       <c r="EA63" s="4">
         <v>4</v>
       </c>
-      <c r="EB63" s="4" t="s">
-        <v>13</v>
+      <c r="EB63" s="4">
+        <v>4</v>
       </c>
       <c r="EC63" s="4">
         <v>5</v>
       </c>
-      <c r="ED63" s="4" t="s">
-        <v>12</v>
+      <c r="ED63" s="4">
+        <v>4</v>
       </c>
       <c r="EE63" s="4">
         <v>4</v>
       </c>
-      <c r="EF63" s="4" t="s">
-        <v>12</v>
+      <c r="EF63" s="4">
+        <v>4</v>
       </c>
       <c r="EG63" s="4">
         <v>5</v>
@@ -27946,8 +28324,14 @@
       <c r="EO63" s="4" t="s">
         <v>557</v>
       </c>
+      <c r="EP63" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ63" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="64" spans="1:145" ht="409.6">
+    <row r="64" spans="1:147" ht="409.6">
       <c r="A64" s="1" t="s">
         <v>0</v>
       </c>
@@ -28275,26 +28659,26 @@
       <c r="DY64" s="4">
         <v>5</v>
       </c>
-      <c r="DZ64" s="4" t="s">
-        <v>12</v>
+      <c r="DZ64" s="4">
+        <v>4</v>
       </c>
       <c r="EA64" s="4">
         <v>4</v>
       </c>
-      <c r="EB64" s="4" t="s">
-        <v>12</v>
+      <c r="EB64" s="4">
+        <v>4</v>
       </c>
       <c r="EC64" s="4">
         <v>4</v>
       </c>
-      <c r="ED64" s="4" t="s">
-        <v>13</v>
+      <c r="ED64" s="4">
+        <v>4</v>
       </c>
       <c r="EE64" s="4">
         <v>5</v>
       </c>
-      <c r="EF64" s="4" t="s">
-        <v>12</v>
+      <c r="EF64" s="4">
+        <v>4</v>
       </c>
       <c r="EG64" s="4">
         <v>4</v>
@@ -28323,8 +28707,14 @@
       <c r="EO64" s="4" t="s">
         <v>565</v>
       </c>
+      <c r="EP64" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ64" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="65" spans="1:145" ht="409.6">
+    <row r="65" spans="1:147" ht="409.6">
       <c r="A65" s="1" t="s">
         <v>0</v>
       </c>
@@ -28652,26 +29042,26 @@
       <c r="DY65" s="4">
         <v>5</v>
       </c>
-      <c r="DZ65" s="4" t="s">
-        <v>12</v>
+      <c r="DZ65" s="4">
+        <v>4</v>
       </c>
       <c r="EA65" s="4">
         <v>4</v>
       </c>
-      <c r="EB65" s="4" t="s">
-        <v>12</v>
+      <c r="EB65" s="4">
+        <v>4</v>
       </c>
       <c r="EC65" s="4">
         <v>4</v>
       </c>
-      <c r="ED65" s="4" t="s">
-        <v>13</v>
+      <c r="ED65" s="4">
+        <v>4</v>
       </c>
       <c r="EE65" s="4">
         <v>5</v>
       </c>
-      <c r="EF65" s="4" t="s">
-        <v>12</v>
+      <c r="EF65" s="4">
+        <v>4</v>
       </c>
       <c r="EG65" s="4">
         <v>5</v>
@@ -28700,8 +29090,14 @@
       <c r="EO65" s="4" t="s">
         <v>573</v>
       </c>
+      <c r="EP65" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ65" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="66" spans="1:145" ht="409.6">
+    <row r="66" spans="1:147" ht="409.6">
       <c r="A66" s="1" t="s">
         <v>0</v>
       </c>
@@ -29029,26 +29425,26 @@
       <c r="DY66" s="4">
         <v>2</v>
       </c>
-      <c r="DZ66" s="4" t="s">
-        <v>14</v>
+      <c r="DZ66" s="4">
+        <v>4</v>
       </c>
       <c r="EA66" s="4">
         <v>2</v>
       </c>
-      <c r="EB66" s="4" t="s">
-        <v>14</v>
+      <c r="EB66" s="4">
+        <v>4</v>
       </c>
       <c r="EC66" s="4">
         <v>3</v>
       </c>
-      <c r="ED66" s="4" t="s">
-        <v>12</v>
+      <c r="ED66" s="4">
+        <v>4</v>
       </c>
       <c r="EE66" s="4">
         <v>3</v>
       </c>
-      <c r="EF66" s="4" t="s">
-        <v>14</v>
+      <c r="EF66" s="4">
+        <v>4</v>
       </c>
       <c r="EG66" s="4">
         <v>2</v>
@@ -29077,8 +29473,14 @@
       <c r="EO66" s="4" t="s">
         <v>582</v>
       </c>
+      <c r="EP66" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ66" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="67" spans="1:145" ht="409.6">
+    <row r="67" spans="1:147" ht="409.6">
       <c r="A67" s="1" t="s">
         <v>0</v>
       </c>
@@ -29406,26 +29808,26 @@
       <c r="DY67" s="4">
         <v>4</v>
       </c>
-      <c r="DZ67" s="4" t="s">
-        <v>13</v>
+      <c r="DZ67" s="4">
+        <v>4</v>
       </c>
       <c r="EA67" s="4">
         <v>4</v>
       </c>
-      <c r="EB67" s="4" t="s">
-        <v>13</v>
+      <c r="EB67" s="4">
+        <v>4</v>
       </c>
       <c r="EC67" s="4">
         <v>4</v>
       </c>
-      <c r="ED67" s="4" t="s">
-        <v>12</v>
+      <c r="ED67" s="4">
+        <v>4</v>
       </c>
       <c r="EE67" s="4">
         <v>4</v>
       </c>
-      <c r="EF67" s="4" t="s">
-        <v>12</v>
+      <c r="EF67" s="4">
+        <v>4</v>
       </c>
       <c r="EG67" s="4">
         <v>4</v>
@@ -29454,8 +29856,14 @@
       <c r="EO67" s="4" t="s">
         <v>590</v>
       </c>
+      <c r="EP67" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ67" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="68" spans="1:145" ht="409.6">
+    <row r="68" spans="1:147" ht="409.6">
       <c r="A68" s="1" t="s">
         <v>0</v>
       </c>
@@ -29783,26 +30191,26 @@
       <c r="DY68" s="4">
         <v>3</v>
       </c>
-      <c r="DZ68" s="4" t="s">
-        <v>13</v>
+      <c r="DZ68" s="4">
+        <v>4</v>
       </c>
       <c r="EA68" s="4">
         <v>4</v>
       </c>
-      <c r="EB68" s="4" t="s">
-        <v>13</v>
+      <c r="EB68" s="4">
+        <v>4</v>
       </c>
       <c r="EC68" s="4">
         <v>3</v>
       </c>
-      <c r="ED68" s="4" t="s">
-        <v>12</v>
+      <c r="ED68" s="4">
+        <v>4</v>
       </c>
       <c r="EE68" s="4">
         <v>3</v>
       </c>
-      <c r="EF68" s="4" t="s">
-        <v>13</v>
+      <c r="EF68" s="4">
+        <v>4</v>
       </c>
       <c r="EG68" s="4">
         <v>4</v>
@@ -29831,8 +30239,14 @@
       <c r="EO68" s="4" t="s">
         <v>597</v>
       </c>
+      <c r="EP68" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ68" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="69" spans="1:145" ht="409.6">
+    <row r="69" spans="1:147" ht="409.6">
       <c r="A69" s="1" t="s">
         <v>0</v>
       </c>
@@ -30160,26 +30574,26 @@
       <c r="DY69" s="4">
         <v>4</v>
       </c>
-      <c r="DZ69" s="4" t="s">
-        <v>12</v>
+      <c r="DZ69" s="4">
+        <v>4</v>
       </c>
       <c r="EA69" s="4">
         <v>5</v>
       </c>
-      <c r="EB69" s="4" t="s">
-        <v>12</v>
+      <c r="EB69" s="4">
+        <v>4</v>
       </c>
       <c r="EC69" s="4">
         <v>4</v>
       </c>
-      <c r="ED69" s="4" t="s">
-        <v>15</v>
+      <c r="ED69" s="4">
+        <v>4</v>
       </c>
       <c r="EE69" s="4">
         <v>5</v>
       </c>
-      <c r="EF69" s="4" t="s">
-        <v>12</v>
+      <c r="EF69" s="4">
+        <v>4</v>
       </c>
       <c r="EG69" s="4">
         <v>4</v>
@@ -30208,8 +30622,14 @@
       <c r="EO69" s="4" t="s">
         <v>605</v>
       </c>
+      <c r="EP69" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ69" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="70" spans="1:145" ht="409.6">
+    <row r="70" spans="1:147" ht="409.6">
       <c r="A70" s="1" t="s">
         <v>0</v>
       </c>
@@ -30537,26 +30957,26 @@
       <c r="DY70" s="4">
         <v>5</v>
       </c>
-      <c r="DZ70" s="4" t="s">
-        <v>12</v>
+      <c r="DZ70" s="4">
+        <v>4</v>
       </c>
       <c r="EA70" s="4">
         <v>4</v>
       </c>
-      <c r="EB70" s="4" t="s">
-        <v>12</v>
+      <c r="EB70" s="4">
+        <v>4</v>
       </c>
       <c r="EC70" s="4">
         <v>5</v>
       </c>
-      <c r="ED70" s="4" t="s">
-        <v>12</v>
+      <c r="ED70" s="4">
+        <v>4</v>
       </c>
       <c r="EE70" s="4">
         <v>4</v>
       </c>
-      <c r="EF70" s="4" t="s">
-        <v>12</v>
+      <c r="EF70" s="4">
+        <v>4</v>
       </c>
       <c r="EG70" s="4">
         <v>4</v>
@@ -30585,8 +31005,14 @@
       <c r="EO70" s="4" t="s">
         <v>613</v>
       </c>
+      <c r="EP70" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ70" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="71" spans="1:145" ht="409.6">
+    <row r="71" spans="1:147" ht="409.6">
       <c r="A71" s="1" t="s">
         <v>0</v>
       </c>
@@ -30914,26 +31340,26 @@
       <c r="DY71" s="4">
         <v>5</v>
       </c>
-      <c r="DZ71" s="4" t="s">
-        <v>13</v>
+      <c r="DZ71" s="4">
+        <v>4</v>
       </c>
       <c r="EA71" s="4">
         <v>4</v>
       </c>
-      <c r="EB71" s="4" t="s">
-        <v>13</v>
+      <c r="EB71" s="4">
+        <v>4</v>
       </c>
       <c r="EC71" s="4">
         <v>4</v>
       </c>
-      <c r="ED71" s="4" t="s">
-        <v>12</v>
+      <c r="ED71" s="4">
+        <v>4</v>
       </c>
       <c r="EE71" s="4">
         <v>5</v>
       </c>
-      <c r="EF71" s="4" t="s">
-        <v>13</v>
+      <c r="EF71" s="4">
+        <v>4</v>
       </c>
       <c r="EG71" s="4">
         <v>5</v>
@@ -30962,8 +31388,14 @@
       <c r="EO71" s="4" t="s">
         <v>621</v>
       </c>
+      <c r="EP71" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ71" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="72" spans="1:145" ht="409.6">
+    <row r="72" spans="1:147" ht="409.6">
       <c r="A72" s="1" t="s">
         <v>0</v>
       </c>
@@ -31291,26 +31723,26 @@
       <c r="DY72" s="4">
         <v>3</v>
       </c>
-      <c r="DZ72" s="4" t="s">
-        <v>13</v>
+      <c r="DZ72" s="4">
+        <v>4</v>
       </c>
       <c r="EA72" s="4">
         <v>4</v>
       </c>
-      <c r="EB72" s="4" t="s">
-        <v>13</v>
+      <c r="EB72" s="4">
+        <v>4</v>
       </c>
       <c r="EC72" s="4">
         <v>4</v>
       </c>
-      <c r="ED72" s="4" t="s">
-        <v>13</v>
+      <c r="ED72" s="4">
+        <v>4</v>
       </c>
       <c r="EE72" s="4">
         <v>4</v>
       </c>
-      <c r="EF72" s="4" t="s">
-        <v>15</v>
+      <c r="EF72" s="4">
+        <v>4</v>
       </c>
       <c r="EG72" s="4">
         <v>3</v>
@@ -31339,8 +31771,14 @@
       <c r="EO72" s="4" t="s">
         <v>629</v>
       </c>
+      <c r="EP72" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ72" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="73" spans="1:145" ht="409.6">
+    <row r="73" spans="1:147" ht="409.6">
       <c r="A73" s="1" t="s">
         <v>0</v>
       </c>
@@ -31668,26 +32106,26 @@
       <c r="DY73" s="4">
         <v>5</v>
       </c>
-      <c r="DZ73" s="4" t="s">
-        <v>12</v>
+      <c r="DZ73" s="4">
+        <v>4</v>
       </c>
       <c r="EA73" s="4">
         <v>5</v>
       </c>
-      <c r="EB73" s="4" t="s">
-        <v>12</v>
+      <c r="EB73" s="4">
+        <v>4</v>
       </c>
       <c r="EC73" s="4">
         <v>4</v>
       </c>
-      <c r="ED73" s="4" t="s">
-        <v>13</v>
+      <c r="ED73" s="4">
+        <v>4</v>
       </c>
       <c r="EE73" s="4">
         <v>4</v>
       </c>
-      <c r="EF73" s="4" t="s">
-        <v>13</v>
+      <c r="EF73" s="4">
+        <v>4</v>
       </c>
       <c r="EG73" s="4">
         <v>4</v>
@@ -31716,8 +32154,14 @@
       <c r="EO73" s="4" t="s">
         <v>636</v>
       </c>
+      <c r="EP73" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ73" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="74" spans="1:145" ht="409.6">
+    <row r="74" spans="1:147" ht="409.6">
       <c r="A74" s="1" t="s">
         <v>0</v>
       </c>
@@ -32045,26 +32489,26 @@
       <c r="DY74" s="4">
         <v>4</v>
       </c>
-      <c r="DZ74" s="4" t="s">
-        <v>12</v>
+      <c r="DZ74" s="4">
+        <v>4</v>
       </c>
       <c r="EA74" s="4">
         <v>5</v>
       </c>
-      <c r="EB74" s="4" t="s">
-        <v>12</v>
+      <c r="EB74" s="4">
+        <v>4</v>
       </c>
       <c r="EC74" s="4">
         <v>5</v>
       </c>
-      <c r="ED74" s="4" t="s">
-        <v>15</v>
+      <c r="ED74" s="4">
+        <v>4</v>
       </c>
       <c r="EE74" s="4">
         <v>4</v>
       </c>
-      <c r="EF74" s="4" t="s">
-        <v>12</v>
+      <c r="EF74" s="4">
+        <v>4</v>
       </c>
       <c r="EG74" s="4">
         <v>5</v>
@@ -32093,8 +32537,14 @@
       <c r="EO74" s="4" t="s">
         <v>644</v>
       </c>
+      <c r="EP74" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ74" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="75" spans="1:145" ht="409.6">
+    <row r="75" spans="1:147" ht="409.6">
       <c r="A75" s="1" t="s">
         <v>0</v>
       </c>
@@ -32422,26 +32872,26 @@
       <c r="DY75" s="4">
         <v>5</v>
       </c>
-      <c r="DZ75" s="4" t="s">
-        <v>12</v>
+      <c r="DZ75" s="4">
+        <v>4</v>
       </c>
       <c r="EA75" s="4">
         <v>4</v>
       </c>
-      <c r="EB75" s="4" t="s">
-        <v>12</v>
+      <c r="EB75" s="4">
+        <v>4</v>
       </c>
       <c r="EC75" s="4">
         <v>4</v>
       </c>
-      <c r="ED75" s="4" t="s">
-        <v>14</v>
+      <c r="ED75" s="4">
+        <v>4</v>
       </c>
       <c r="EE75" s="4">
         <v>4</v>
       </c>
-      <c r="EF75" s="4" t="s">
-        <v>12</v>
+      <c r="EF75" s="4">
+        <v>4</v>
       </c>
       <c r="EG75" s="4">
         <v>4</v>
@@ -32470,8 +32920,14 @@
       <c r="EO75" s="4" t="s">
         <v>651</v>
       </c>
+      <c r="EP75" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ75" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="76" spans="1:145" ht="409.6">
+    <row r="76" spans="1:147" ht="409.6">
       <c r="A76" s="1" t="s">
         <v>0</v>
       </c>
@@ -32799,26 +33255,26 @@
       <c r="DY76" s="4">
         <v>4</v>
       </c>
-      <c r="DZ76" s="4" t="s">
-        <v>15</v>
+      <c r="DZ76" s="4">
+        <v>4</v>
       </c>
       <c r="EA76" s="4">
         <v>4</v>
       </c>
-      <c r="EB76" s="4" t="s">
-        <v>15</v>
+      <c r="EB76" s="4">
+        <v>4</v>
       </c>
       <c r="EC76" s="4">
         <v>4</v>
       </c>
-      <c r="ED76" s="4" t="s">
-        <v>13</v>
+      <c r="ED76" s="4">
+        <v>4</v>
       </c>
       <c r="EE76" s="4">
         <v>4</v>
       </c>
-      <c r="EF76" s="4" t="s">
-        <v>13</v>
+      <c r="EF76" s="4">
+        <v>4</v>
       </c>
       <c r="EG76" s="4">
         <v>3</v>
@@ -32847,8 +33303,14 @@
       <c r="EO76" s="4" t="s">
         <v>658</v>
       </c>
+      <c r="EP76" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ76" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="77" spans="1:145" ht="409.6">
+    <row r="77" spans="1:147" ht="409.6">
       <c r="A77" s="1" t="s">
         <v>0</v>
       </c>
@@ -33176,26 +33638,26 @@
       <c r="DY77" s="4">
         <v>5</v>
       </c>
-      <c r="DZ77" s="4" t="s">
-        <v>12</v>
+      <c r="DZ77" s="4">
+        <v>4</v>
       </c>
       <c r="EA77" s="4">
         <v>4</v>
       </c>
-      <c r="EB77" s="4" t="s">
-        <v>12</v>
+      <c r="EB77" s="4">
+        <v>4</v>
       </c>
       <c r="EC77" s="4">
         <v>5</v>
       </c>
-      <c r="ED77" s="4" t="s">
-        <v>12</v>
+      <c r="ED77" s="4">
+        <v>4</v>
       </c>
       <c r="EE77" s="4">
         <v>5</v>
       </c>
-      <c r="EF77" s="4" t="s">
-        <v>12</v>
+      <c r="EF77" s="4">
+        <v>4</v>
       </c>
       <c r="EG77" s="4">
         <v>4</v>
@@ -33224,8 +33686,14 @@
       <c r="EO77" s="4" t="s">
         <v>664</v>
       </c>
+      <c r="EP77" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ77" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="78" spans="1:145" ht="409.6">
+    <row r="78" spans="1:147" ht="409.6">
       <c r="A78" s="1" t="s">
         <v>0</v>
       </c>
@@ -33553,26 +34021,26 @@
       <c r="DY78" s="4">
         <v>4</v>
       </c>
-      <c r="DZ78" s="4" t="s">
-        <v>12</v>
+      <c r="DZ78" s="4">
+        <v>4</v>
       </c>
       <c r="EA78" s="4">
         <v>4</v>
       </c>
-      <c r="EB78" s="4" t="s">
-        <v>12</v>
+      <c r="EB78" s="4">
+        <v>4</v>
       </c>
       <c r="EC78" s="4">
         <v>5</v>
       </c>
-      <c r="ED78" s="4" t="s">
-        <v>12</v>
+      <c r="ED78" s="4">
+        <v>4</v>
       </c>
       <c r="EE78" s="4">
         <v>4</v>
       </c>
-      <c r="EF78" s="4" t="s">
-        <v>12</v>
+      <c r="EF78" s="4">
+        <v>4</v>
       </c>
       <c r="EG78" s="4">
         <v>5</v>
@@ -33601,8 +34069,14 @@
       <c r="EO78" s="4" t="s">
         <v>672</v>
       </c>
+      <c r="EP78" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ78" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="79" spans="1:145" ht="409.6">
+    <row r="79" spans="1:147" ht="409.6">
       <c r="A79" s="1" t="s">
         <v>0</v>
       </c>
@@ -33930,26 +34404,26 @@
       <c r="DY79" s="4">
         <v>4</v>
       </c>
-      <c r="DZ79" s="4" t="s">
-        <v>13</v>
+      <c r="DZ79" s="4">
+        <v>4</v>
       </c>
       <c r="EA79" s="4">
         <v>4</v>
       </c>
-      <c r="EB79" s="4" t="s">
-        <v>13</v>
+      <c r="EB79" s="4">
+        <v>4</v>
       </c>
       <c r="EC79" s="4">
         <v>4</v>
       </c>
-      <c r="ED79" s="4" t="s">
-        <v>14</v>
+      <c r="ED79" s="4">
+        <v>4</v>
       </c>
       <c r="EE79" s="4">
         <v>4</v>
       </c>
-      <c r="EF79" s="4" t="s">
-        <v>13</v>
+      <c r="EF79" s="4">
+        <v>4</v>
       </c>
       <c r="EG79" s="4">
         <v>5</v>
@@ -33978,8 +34452,14 @@
       <c r="EO79" s="4" t="s">
         <v>680</v>
       </c>
+      <c r="EP79" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ79" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="80" spans="1:145" ht="409.6">
+    <row r="80" spans="1:147" ht="409.6">
       <c r="A80" s="1" t="s">
         <v>0</v>
       </c>
@@ -34307,26 +34787,26 @@
       <c r="DY80" s="4">
         <v>5</v>
       </c>
-      <c r="DZ80" s="4" t="s">
-        <v>13</v>
+      <c r="DZ80" s="4">
+        <v>4</v>
       </c>
       <c r="EA80" s="4">
         <v>4</v>
       </c>
-      <c r="EB80" s="4" t="s">
-        <v>13</v>
+      <c r="EB80" s="4">
+        <v>4</v>
       </c>
       <c r="EC80" s="4">
         <v>5</v>
       </c>
-      <c r="ED80" s="4" t="s">
-        <v>13</v>
+      <c r="ED80" s="4">
+        <v>4</v>
       </c>
       <c r="EE80" s="4">
         <v>4</v>
       </c>
-      <c r="EF80" s="4" t="s">
-        <v>13</v>
+      <c r="EF80" s="4">
+        <v>4</v>
       </c>
       <c r="EG80" s="4">
         <v>5</v>
@@ -34355,8 +34835,14 @@
       <c r="EO80" s="4" t="s">
         <v>688</v>
       </c>
+      <c r="EP80" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ80" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="81" spans="1:145" ht="409.6">
+    <row r="81" spans="1:147" ht="409.6">
       <c r="A81" s="1" t="s">
         <v>0</v>
       </c>
@@ -34684,26 +35170,26 @@
       <c r="DY81" s="4">
         <v>3</v>
       </c>
-      <c r="DZ81" s="4" t="s">
-        <v>15</v>
+      <c r="DZ81" s="4">
+        <v>4</v>
       </c>
       <c r="EA81" s="4">
         <v>4</v>
       </c>
-      <c r="EB81" s="4" t="s">
-        <v>15</v>
+      <c r="EB81" s="4">
+        <v>4</v>
       </c>
       <c r="EC81" s="4">
         <v>3</v>
       </c>
-      <c r="ED81" s="4" t="s">
-        <v>13</v>
+      <c r="ED81" s="4">
+        <v>4</v>
       </c>
       <c r="EE81" s="4">
         <v>4</v>
       </c>
-      <c r="EF81" s="4" t="s">
-        <v>13</v>
+      <c r="EF81" s="4">
+        <v>4</v>
       </c>
       <c r="EG81" s="4">
         <v>4</v>
@@ -34732,8 +35218,14 @@
       <c r="EO81" s="4" t="s">
         <v>696</v>
       </c>
+      <c r="EP81" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ81" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="82" spans="1:145" ht="409.6">
+    <row r="82" spans="1:147" ht="409.6">
       <c r="A82" s="1" t="s">
         <v>0</v>
       </c>
@@ -35061,26 +35553,26 @@
       <c r="DY82" s="4">
         <v>2</v>
       </c>
-      <c r="DZ82" s="4" t="s">
-        <v>14</v>
+      <c r="DZ82" s="4">
+        <v>4</v>
       </c>
       <c r="EA82" s="4">
         <v>2</v>
       </c>
-      <c r="EB82" s="4" t="s">
-        <v>14</v>
+      <c r="EB82" s="4">
+        <v>4</v>
       </c>
       <c r="EC82" s="4">
         <v>2</v>
       </c>
-      <c r="ED82" s="4" t="s">
-        <v>12</v>
+      <c r="ED82" s="4">
+        <v>4</v>
       </c>
       <c r="EE82" s="4">
         <v>2</v>
       </c>
-      <c r="EF82" s="4" t="s">
-        <v>68</v>
+      <c r="EF82" s="4">
+        <v>4</v>
       </c>
       <c r="EG82" s="4">
         <v>1</v>
@@ -35109,8 +35601,14 @@
       <c r="EO82" s="4" t="s">
         <v>703</v>
       </c>
+      <c r="EP82" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ82" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="83" spans="1:145" ht="409.6">
+    <row r="83" spans="1:147" ht="409.6">
       <c r="A83" s="1" t="s">
         <v>0</v>
       </c>
@@ -35438,26 +35936,26 @@
       <c r="DY83" s="4">
         <v>4</v>
       </c>
-      <c r="DZ83" s="4" t="s">
-        <v>13</v>
+      <c r="DZ83" s="4">
+        <v>4</v>
       </c>
       <c r="EA83" s="4">
         <v>5</v>
       </c>
-      <c r="EB83" s="4" t="s">
-        <v>13</v>
+      <c r="EB83" s="4">
+        <v>4</v>
       </c>
       <c r="EC83" s="4">
         <v>5</v>
       </c>
-      <c r="ED83" s="4" t="s">
-        <v>14</v>
+      <c r="ED83" s="4">
+        <v>4</v>
       </c>
       <c r="EE83" s="4">
         <v>4</v>
       </c>
-      <c r="EF83" s="4" t="s">
-        <v>12</v>
+      <c r="EF83" s="4">
+        <v>4</v>
       </c>
       <c r="EG83" s="4">
         <v>5</v>
@@ -35486,8 +35984,14 @@
       <c r="EO83" s="4" t="s">
         <v>712</v>
       </c>
+      <c r="EP83" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ83" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="84" spans="1:145" ht="409.6">
+    <row r="84" spans="1:147" ht="409.6">
       <c r="A84" s="1" t="s">
         <v>0</v>
       </c>
@@ -35815,26 +36319,26 @@
       <c r="DY84" s="4">
         <v>5</v>
       </c>
-      <c r="DZ84" s="4" t="s">
-        <v>12</v>
+      <c r="DZ84" s="4">
+        <v>4</v>
       </c>
       <c r="EA84" s="4">
         <v>5</v>
       </c>
-      <c r="EB84" s="4" t="s">
-        <v>12</v>
+      <c r="EB84" s="4">
+        <v>4</v>
       </c>
       <c r="EC84" s="4">
         <v>4</v>
       </c>
-      <c r="ED84" s="4" t="s">
-        <v>12</v>
+      <c r="ED84" s="4">
+        <v>4</v>
       </c>
       <c r="EE84" s="4">
         <v>5</v>
       </c>
-      <c r="EF84" s="4" t="s">
-        <v>12</v>
+      <c r="EF84" s="4">
+        <v>4</v>
       </c>
       <c r="EG84" s="4">
         <v>5</v>
@@ -35863,8 +36367,14 @@
       <c r="EO84" s="4" t="s">
         <v>720</v>
       </c>
+      <c r="EP84" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ84" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="85" spans="1:145" ht="409.6">
+    <row r="85" spans="1:147" ht="409.6">
       <c r="A85" s="1" t="s">
         <v>0</v>
       </c>
@@ -36192,26 +36702,26 @@
       <c r="DY85" s="4">
         <v>5</v>
       </c>
-      <c r="DZ85" s="4" t="s">
-        <v>12</v>
+      <c r="DZ85" s="4">
+        <v>4</v>
       </c>
       <c r="EA85" s="4">
         <v>4</v>
       </c>
-      <c r="EB85" s="4" t="s">
-        <v>12</v>
+      <c r="EB85" s="4">
+        <v>4</v>
       </c>
       <c r="EC85" s="4">
         <v>5</v>
       </c>
-      <c r="ED85" s="4" t="s">
-        <v>15</v>
+      <c r="ED85" s="4">
+        <v>4</v>
       </c>
       <c r="EE85" s="4">
         <v>4</v>
       </c>
-      <c r="EF85" s="4" t="s">
-        <v>12</v>
+      <c r="EF85" s="4">
+        <v>4</v>
       </c>
       <c r="EG85" s="4">
         <v>4</v>
@@ -36240,8 +36750,14 @@
       <c r="EO85" s="4" t="s">
         <v>726</v>
       </c>
+      <c r="EP85" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ85" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="86" spans="1:145" ht="409.6">
+    <row r="86" spans="1:147" ht="409.6">
       <c r="A86" s="1" t="s">
         <v>0</v>
       </c>
@@ -36569,26 +37085,26 @@
       <c r="DY86" s="4">
         <v>2</v>
       </c>
-      <c r="DZ86" s="4" t="s">
-        <v>14</v>
+      <c r="DZ86" s="4">
+        <v>4</v>
       </c>
       <c r="EA86" s="4">
         <v>3</v>
       </c>
-      <c r="EB86" s="4" t="s">
-        <v>14</v>
+      <c r="EB86" s="4">
+        <v>4</v>
       </c>
       <c r="EC86" s="4">
         <v>2</v>
       </c>
-      <c r="ED86" s="4" t="s">
-        <v>13</v>
+      <c r="ED86" s="4">
+        <v>4</v>
       </c>
       <c r="EE86" s="4">
         <v>3</v>
       </c>
-      <c r="EF86" s="4" t="s">
-        <v>14</v>
+      <c r="EF86" s="4">
+        <v>4</v>
       </c>
       <c r="EG86" s="4">
         <v>3</v>
@@ -36617,8 +37133,14 @@
       <c r="EO86" s="4" t="s">
         <v>732</v>
       </c>
+      <c r="EP86" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ86" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="87" spans="1:145" ht="409.6">
+    <row r="87" spans="1:147" ht="409.6">
       <c r="A87" s="1" t="s">
         <v>0</v>
       </c>
@@ -36946,26 +37468,26 @@
       <c r="DY87" s="4">
         <v>4</v>
       </c>
-      <c r="DZ87" s="4" t="s">
-        <v>13</v>
+      <c r="DZ87" s="4">
+        <v>4</v>
       </c>
       <c r="EA87" s="4">
         <v>4</v>
       </c>
-      <c r="EB87" s="4" t="s">
-        <v>13</v>
+      <c r="EB87" s="4">
+        <v>4</v>
       </c>
       <c r="EC87" s="4">
         <v>5</v>
       </c>
-      <c r="ED87" s="4" t="s">
-        <v>12</v>
+      <c r="ED87" s="4">
+        <v>4</v>
       </c>
       <c r="EE87" s="4">
         <v>5</v>
       </c>
-      <c r="EF87" s="4" t="s">
-        <v>13</v>
+      <c r="EF87" s="4">
+        <v>4</v>
       </c>
       <c r="EG87" s="4">
         <v>5</v>
@@ -36994,8 +37516,14 @@
       <c r="EO87" s="4" t="s">
         <v>740</v>
       </c>
+      <c r="EP87" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ87" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="88" spans="1:145" ht="409.6">
+    <row r="88" spans="1:147" ht="409.6">
       <c r="A88" s="1" t="s">
         <v>0</v>
       </c>
@@ -37323,26 +37851,26 @@
       <c r="DY88" s="4">
         <v>4</v>
       </c>
-      <c r="DZ88" s="4" t="s">
-        <v>13</v>
+      <c r="DZ88" s="4">
+        <v>4</v>
       </c>
       <c r="EA88" s="4">
         <v>5</v>
       </c>
-      <c r="EB88" s="4" t="s">
-        <v>13</v>
+      <c r="EB88" s="4">
+        <v>4</v>
       </c>
       <c r="EC88" s="4">
         <v>5</v>
       </c>
-      <c r="ED88" s="4" t="s">
-        <v>13</v>
+      <c r="ED88" s="4">
+        <v>4</v>
       </c>
       <c r="EE88" s="4">
         <v>4</v>
       </c>
-      <c r="EF88" s="4" t="s">
-        <v>12</v>
+      <c r="EF88" s="4">
+        <v>4</v>
       </c>
       <c r="EG88" s="4">
         <v>5</v>
@@ -37371,8 +37899,14 @@
       <c r="EO88" s="4" t="s">
         <v>748</v>
       </c>
+      <c r="EP88" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ88" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="89" spans="1:145" ht="409.6">
+    <row r="89" spans="1:147" ht="409.6">
       <c r="A89" s="1" t="s">
         <v>0</v>
       </c>
@@ -37700,26 +38234,26 @@
       <c r="DY89" s="4">
         <v>4</v>
       </c>
-      <c r="DZ89" s="4" t="s">
-        <v>12</v>
+      <c r="DZ89" s="4">
+        <v>4</v>
       </c>
       <c r="EA89" s="4">
         <v>5</v>
       </c>
-      <c r="EB89" s="4" t="s">
-        <v>12</v>
+      <c r="EB89" s="4">
+        <v>4</v>
       </c>
       <c r="EC89" s="4">
         <v>4</v>
       </c>
-      <c r="ED89" s="4" t="s">
-        <v>14</v>
+      <c r="ED89" s="4">
+        <v>4</v>
       </c>
       <c r="EE89" s="4">
         <v>4</v>
       </c>
-      <c r="EF89" s="4" t="s">
-        <v>12</v>
+      <c r="EF89" s="4">
+        <v>4</v>
       </c>
       <c r="EG89" s="4">
         <v>5</v>
@@ -37748,8 +38282,14 @@
       <c r="EO89" s="4" t="s">
         <v>756</v>
       </c>
+      <c r="EP89" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ89" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="90" spans="1:145" ht="409.6">
+    <row r="90" spans="1:147" ht="409.6">
       <c r="A90" s="1" t="s">
         <v>0</v>
       </c>
@@ -38077,26 +38617,26 @@
       <c r="DY90" s="4">
         <v>3</v>
       </c>
-      <c r="DZ90" s="4" t="s">
-        <v>14</v>
+      <c r="DZ90" s="4">
+        <v>4</v>
       </c>
       <c r="EA90" s="4">
         <v>2</v>
       </c>
-      <c r="EB90" s="4" t="s">
-        <v>14</v>
+      <c r="EB90" s="4">
+        <v>4</v>
       </c>
       <c r="EC90" s="4">
         <v>3</v>
       </c>
-      <c r="ED90" s="4" t="s">
-        <v>13</v>
+      <c r="ED90" s="4">
+        <v>4</v>
       </c>
       <c r="EE90" s="4">
         <v>2</v>
       </c>
-      <c r="EF90" s="4" t="s">
-        <v>15</v>
+      <c r="EF90" s="4">
+        <v>4</v>
       </c>
       <c r="EG90" s="4">
         <v>2</v>
@@ -38125,8 +38665,14 @@
       <c r="EO90" s="4" t="s">
         <v>764</v>
       </c>
+      <c r="EP90" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ90" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="91" spans="1:145" ht="409.6">
+    <row r="91" spans="1:147" ht="409.6">
       <c r="A91" s="1" t="s">
         <v>0</v>
       </c>
@@ -38454,26 +39000,26 @@
       <c r="DY91" s="4">
         <v>4</v>
       </c>
-      <c r="DZ91" s="4" t="s">
-        <v>12</v>
+      <c r="DZ91" s="4">
+        <v>4</v>
       </c>
       <c r="EA91" s="4">
         <v>4</v>
       </c>
-      <c r="EB91" s="4" t="s">
-        <v>12</v>
+      <c r="EB91" s="4">
+        <v>4</v>
       </c>
       <c r="EC91" s="4">
         <v>5</v>
       </c>
-      <c r="ED91" s="4" t="s">
-        <v>13</v>
+      <c r="ED91" s="4">
+        <v>4</v>
       </c>
       <c r="EE91" s="4">
         <v>4</v>
       </c>
-      <c r="EF91" s="4" t="s">
-        <v>13</v>
+      <c r="EF91" s="4">
+        <v>4</v>
       </c>
       <c r="EG91" s="4">
         <v>5</v>
@@ -38502,8 +39048,14 @@
       <c r="EO91" s="4" t="s">
         <v>772</v>
       </c>
+      <c r="EP91" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ91" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="92" spans="1:145" ht="409.6">
+    <row r="92" spans="1:147" ht="409.6">
       <c r="A92" s="1" t="s">
         <v>0</v>
       </c>
@@ -38831,26 +39383,26 @@
       <c r="DY92" s="4">
         <v>4</v>
       </c>
-      <c r="DZ92" s="4" t="s">
-        <v>15</v>
+      <c r="DZ92" s="4">
+        <v>4</v>
       </c>
       <c r="EA92" s="4">
         <v>3</v>
       </c>
-      <c r="EB92" s="4" t="s">
-        <v>15</v>
+      <c r="EB92" s="4">
+        <v>4</v>
       </c>
       <c r="EC92" s="4">
         <v>3</v>
       </c>
-      <c r="ED92" s="4" t="s">
-        <v>12</v>
+      <c r="ED92" s="4">
+        <v>4</v>
       </c>
       <c r="EE92" s="4">
         <v>4</v>
       </c>
-      <c r="EF92" s="4" t="s">
-        <v>13</v>
+      <c r="EF92" s="4">
+        <v>4</v>
       </c>
       <c r="EG92" s="4">
         <v>3</v>
@@ -38879,8 +39431,14 @@
       <c r="EO92" s="4" t="s">
         <v>779</v>
       </c>
+      <c r="EP92" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ92" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="93" spans="1:145" ht="409.6">
+    <row r="93" spans="1:147" ht="409.6">
       <c r="A93" s="1" t="s">
         <v>0</v>
       </c>
@@ -39208,26 +39766,26 @@
       <c r="DY93" s="4">
         <v>4</v>
       </c>
-      <c r="DZ93" s="4" t="s">
-        <v>13</v>
+      <c r="DZ93" s="4">
+        <v>4</v>
       </c>
       <c r="EA93" s="4">
         <v>4</v>
       </c>
-      <c r="EB93" s="4" t="s">
-        <v>13</v>
+      <c r="EB93" s="4">
+        <v>4</v>
       </c>
       <c r="EC93" s="4">
         <v>4</v>
       </c>
-      <c r="ED93" s="4" t="s">
-        <v>13</v>
+      <c r="ED93" s="4">
+        <v>4</v>
       </c>
       <c r="EE93" s="4">
         <v>5</v>
       </c>
-      <c r="EF93" s="4" t="s">
-        <v>12</v>
+      <c r="EF93" s="4">
+        <v>4</v>
       </c>
       <c r="EG93" s="4">
         <v>4</v>
@@ -39256,8 +39814,14 @@
       <c r="EO93" s="4" t="s">
         <v>787</v>
       </c>
+      <c r="EP93" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ93" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="94" spans="1:145" ht="409.6">
+    <row r="94" spans="1:147" ht="409.6">
       <c r="A94" s="1" t="s">
         <v>0</v>
       </c>
@@ -39585,26 +40149,26 @@
       <c r="DY94" s="4">
         <v>5</v>
       </c>
-      <c r="DZ94" s="4" t="s">
-        <v>12</v>
+      <c r="DZ94" s="4">
+        <v>4</v>
       </c>
       <c r="EA94" s="4">
         <v>4</v>
       </c>
-      <c r="EB94" s="4" t="s">
-        <v>12</v>
+      <c r="EB94" s="4">
+        <v>4</v>
       </c>
       <c r="EC94" s="4">
         <v>5</v>
       </c>
-      <c r="ED94" s="4" t="s">
-        <v>12</v>
+      <c r="ED94" s="4">
+        <v>4</v>
       </c>
       <c r="EE94" s="4">
         <v>4</v>
       </c>
-      <c r="EF94" s="4" t="s">
-        <v>13</v>
+      <c r="EF94" s="4">
+        <v>4</v>
       </c>
       <c r="EG94" s="4">
         <v>4</v>
@@ -39633,8 +40197,14 @@
       <c r="EO94" s="4" t="s">
         <v>794</v>
       </c>
+      <c r="EP94" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ94" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="95" spans="1:145" ht="409.6">
+    <row r="95" spans="1:147" ht="409.6">
       <c r="A95" s="1" t="s">
         <v>0</v>
       </c>
@@ -39962,26 +40532,26 @@
       <c r="DY95" s="4">
         <v>3</v>
       </c>
-      <c r="DZ95" s="4" t="s">
-        <v>13</v>
+      <c r="DZ95" s="4">
+        <v>4</v>
       </c>
       <c r="EA95" s="4">
         <v>4</v>
       </c>
-      <c r="EB95" s="4" t="s">
-        <v>13</v>
+      <c r="EB95" s="4">
+        <v>4</v>
       </c>
       <c r="EC95" s="4">
         <v>3</v>
       </c>
-      <c r="ED95" s="4" t="s">
-        <v>14</v>
+      <c r="ED95" s="4">
+        <v>4</v>
       </c>
       <c r="EE95" s="4">
         <v>3</v>
       </c>
-      <c r="EF95" s="4" t="s">
-        <v>13</v>
+      <c r="EF95" s="4">
+        <v>4</v>
       </c>
       <c r="EG95" s="4">
         <v>3</v>
@@ -40010,8 +40580,14 @@
       <c r="EO95" s="4" t="s">
         <v>802</v>
       </c>
+      <c r="EP95" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ95" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="96" spans="1:145" ht="409.6">
+    <row r="96" spans="1:147" ht="409.6">
       <c r="A96" s="1" t="s">
         <v>0</v>
       </c>
@@ -40339,26 +40915,26 @@
       <c r="DY96" s="4">
         <v>2</v>
       </c>
-      <c r="DZ96" s="4" t="s">
-        <v>14</v>
+      <c r="DZ96" s="4">
+        <v>4</v>
       </c>
       <c r="EA96" s="4">
         <v>1</v>
       </c>
-      <c r="EB96" s="4" t="s">
-        <v>14</v>
+      <c r="EB96" s="4">
+        <v>4</v>
       </c>
       <c r="EC96" s="4">
         <v>2</v>
       </c>
-      <c r="ED96" s="4" t="s">
-        <v>13</v>
+      <c r="ED96" s="4">
+        <v>4</v>
       </c>
       <c r="EE96" s="4">
         <v>1</v>
       </c>
-      <c r="EF96" s="4" t="s">
-        <v>14</v>
+      <c r="EF96" s="4">
+        <v>4</v>
       </c>
       <c r="EG96" s="4">
         <v>1</v>
@@ -40387,8 +40963,14 @@
       <c r="EO96" s="4" t="s">
         <v>809</v>
       </c>
+      <c r="EP96" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ96" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="97" spans="1:145" ht="409.6">
+    <row r="97" spans="1:147" ht="409.6">
       <c r="A97" s="1" t="s">
         <v>0</v>
       </c>
@@ -40716,26 +41298,26 @@
       <c r="DY97" s="4">
         <v>4</v>
       </c>
-      <c r="DZ97" s="4" t="s">
-        <v>13</v>
+      <c r="DZ97" s="4">
+        <v>4</v>
       </c>
       <c r="EA97" s="4">
         <v>4</v>
       </c>
-      <c r="EB97" s="4" t="s">
-        <v>13</v>
+      <c r="EB97" s="4">
+        <v>4</v>
       </c>
       <c r="EC97" s="4">
         <v>5</v>
       </c>
-      <c r="ED97" s="4" t="s">
-        <v>12</v>
+      <c r="ED97" s="4">
+        <v>4</v>
       </c>
       <c r="EE97" s="4">
         <v>4</v>
       </c>
-      <c r="EF97" s="4" t="s">
-        <v>12</v>
+      <c r="EF97" s="4">
+        <v>4</v>
       </c>
       <c r="EG97" s="4">
         <v>5</v>
@@ -40764,8 +41346,14 @@
       <c r="EO97" s="4" t="s">
         <v>817</v>
       </c>
+      <c r="EP97" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ97" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="98" spans="1:145" ht="409.6">
+    <row r="98" spans="1:147" ht="409.6">
       <c r="A98" s="1" t="s">
         <v>0</v>
       </c>
@@ -41093,26 +41681,26 @@
       <c r="DY98" s="4">
         <v>4</v>
       </c>
-      <c r="DZ98" s="4" t="s">
-        <v>13</v>
+      <c r="DZ98" s="4">
+        <v>4</v>
       </c>
       <c r="EA98" s="4">
         <v>4</v>
       </c>
-      <c r="EB98" s="4" t="s">
-        <v>13</v>
+      <c r="EB98" s="4">
+        <v>4</v>
       </c>
       <c r="EC98" s="4">
         <v>5</v>
       </c>
-      <c r="ED98" s="4" t="s">
-        <v>12</v>
+      <c r="ED98" s="4">
+        <v>4</v>
       </c>
       <c r="EE98" s="4">
         <v>4</v>
       </c>
-      <c r="EF98" s="4" t="s">
-        <v>12</v>
+      <c r="EF98" s="4">
+        <v>4</v>
       </c>
       <c r="EG98" s="4">
         <v>5</v>
@@ -41141,8 +41729,14 @@
       <c r="EO98" s="4" t="s">
         <v>825</v>
       </c>
+      <c r="EP98" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ98" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="99" spans="1:145" ht="409.6">
+    <row r="99" spans="1:147" ht="409.6">
       <c r="A99" s="1" t="s">
         <v>0</v>
       </c>
@@ -41470,26 +42064,26 @@
       <c r="DY99" s="4">
         <v>4</v>
       </c>
-      <c r="DZ99" s="4" t="s">
-        <v>12</v>
+      <c r="DZ99" s="4">
+        <v>4</v>
       </c>
       <c r="EA99" s="4">
         <v>5</v>
       </c>
-      <c r="EB99" s="4" t="s">
-        <v>12</v>
+      <c r="EB99" s="4">
+        <v>4</v>
       </c>
       <c r="EC99" s="4">
         <v>4</v>
       </c>
-      <c r="ED99" s="4" t="s">
-        <v>13</v>
+      <c r="ED99" s="4">
+        <v>4</v>
       </c>
       <c r="EE99" s="4">
         <v>5</v>
       </c>
-      <c r="EF99" s="4" t="s">
-        <v>12</v>
+      <c r="EF99" s="4">
+        <v>4</v>
       </c>
       <c r="EG99" s="4">
         <v>5</v>
@@ -41518,8 +42112,14 @@
       <c r="EO99" s="4" t="s">
         <v>832</v>
       </c>
+      <c r="EP99" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ99" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="100" spans="1:145" ht="409.6">
+    <row r="100" spans="1:147" ht="409.6">
       <c r="A100" s="1" t="s">
         <v>0</v>
       </c>
@@ -41847,26 +42447,26 @@
       <c r="DY100" s="4">
         <v>4</v>
       </c>
-      <c r="DZ100" s="4" t="s">
-        <v>13</v>
+      <c r="DZ100" s="4">
+        <v>4</v>
       </c>
       <c r="EA100" s="4">
         <v>3</v>
       </c>
-      <c r="EB100" s="4" t="s">
-        <v>13</v>
+      <c r="EB100" s="4">
+        <v>4</v>
       </c>
       <c r="EC100" s="4">
         <v>3</v>
       </c>
-      <c r="ED100" s="4" t="s">
-        <v>12</v>
+      <c r="ED100" s="4">
+        <v>4</v>
       </c>
       <c r="EE100" s="4">
         <v>4</v>
       </c>
-      <c r="EF100" s="4" t="s">
-        <v>13</v>
+      <c r="EF100" s="4">
+        <v>4</v>
       </c>
       <c r="EG100" s="4">
         <v>3</v>
@@ -41895,8 +42495,14 @@
       <c r="EO100" s="4" t="s">
         <v>840</v>
       </c>
+      <c r="EP100" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ100" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="101" spans="1:145" ht="409.6">
+    <row r="101" spans="1:147" ht="409.6">
       <c r="A101" s="1" t="s">
         <v>0</v>
       </c>
@@ -42224,26 +42830,26 @@
       <c r="DY101" s="4">
         <v>5</v>
       </c>
-      <c r="DZ101" s="4" t="s">
-        <v>12</v>
+      <c r="DZ101" s="4">
+        <v>4</v>
       </c>
       <c r="EA101" s="4">
         <v>5</v>
       </c>
-      <c r="EB101" s="4" t="s">
-        <v>12</v>
+      <c r="EB101" s="4">
+        <v>4</v>
       </c>
       <c r="EC101" s="4">
         <v>5</v>
       </c>
-      <c r="ED101" s="4" t="s">
-        <v>15</v>
+      <c r="ED101" s="4">
+        <v>4</v>
       </c>
       <c r="EE101" s="4">
         <v>5</v>
       </c>
-      <c r="EF101" s="4" t="s">
-        <v>13</v>
+      <c r="EF101" s="4">
+        <v>4</v>
       </c>
       <c r="EG101" s="4">
         <v>4</v>
@@ -42272,8 +42878,14 @@
       <c r="EO101" s="4" t="s">
         <v>847</v>
       </c>
+      <c r="EP101" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ101" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="102" spans="1:145" ht="409.6">
+    <row r="102" spans="1:147" ht="409.6">
       <c r="A102" s="1" t="s">
         <v>0</v>
       </c>
@@ -42601,26 +43213,26 @@
       <c r="DY102" s="4">
         <v>2</v>
       </c>
-      <c r="DZ102" s="4" t="s">
-        <v>14</v>
+      <c r="DZ102" s="4">
+        <v>4</v>
       </c>
       <c r="EA102" s="4">
         <v>1</v>
       </c>
-      <c r="EB102" s="4" t="s">
-        <v>14</v>
+      <c r="EB102" s="4">
+        <v>4</v>
       </c>
       <c r="EC102" s="4">
         <v>1</v>
       </c>
-      <c r="ED102" s="4" t="s">
-        <v>15</v>
+      <c r="ED102" s="4">
+        <v>4</v>
       </c>
       <c r="EE102" s="4">
         <v>1</v>
       </c>
-      <c r="EF102" s="4" t="s">
-        <v>14</v>
+      <c r="EF102" s="4">
+        <v>4</v>
       </c>
       <c r="EG102" s="4">
         <v>2</v>
@@ -42649,8 +43261,14 @@
       <c r="EO102" s="4" t="s">
         <v>854</v>
       </c>
+      <c r="EP102" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ102" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="103" spans="1:145" ht="409.6">
+    <row r="103" spans="1:147" ht="409.6">
       <c r="A103" s="1" t="s">
         <v>0</v>
       </c>
@@ -42978,26 +43596,26 @@
       <c r="DY103" s="4">
         <v>3</v>
       </c>
-      <c r="DZ103" s="4" t="s">
-        <v>13</v>
+      <c r="DZ103" s="4">
+        <v>4</v>
       </c>
       <c r="EA103" s="4">
         <v>4</v>
       </c>
-      <c r="EB103" s="4" t="s">
-        <v>13</v>
+      <c r="EB103" s="4">
+        <v>4</v>
       </c>
       <c r="EC103" s="4">
         <v>3</v>
       </c>
-      <c r="ED103" s="4" t="s">
-        <v>14</v>
+      <c r="ED103" s="4">
+        <v>4</v>
       </c>
       <c r="EE103" s="4">
         <v>4</v>
       </c>
-      <c r="EF103" s="4" t="s">
-        <v>13</v>
+      <c r="EF103" s="4">
+        <v>4</v>
       </c>
       <c r="EG103" s="4">
         <v>3</v>
@@ -43026,8 +43644,14 @@
       <c r="EO103" s="4" t="s">
         <v>861</v>
       </c>
+      <c r="EP103" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ103" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="104" spans="1:145" ht="409.6">
+    <row r="104" spans="1:147" ht="409.6">
       <c r="A104" s="1" t="s">
         <v>0</v>
       </c>
@@ -43355,26 +43979,26 @@
       <c r="DY104" s="4">
         <v>5</v>
       </c>
-      <c r="DZ104" s="4" t="s">
-        <v>12</v>
+      <c r="DZ104" s="4">
+        <v>4</v>
       </c>
       <c r="EA104" s="4">
         <v>4</v>
       </c>
-      <c r="EB104" s="4" t="s">
-        <v>12</v>
+      <c r="EB104" s="4">
+        <v>4</v>
       </c>
       <c r="EC104" s="4">
         <v>4</v>
       </c>
-      <c r="ED104" s="4" t="s">
-        <v>15</v>
+      <c r="ED104" s="4">
+        <v>4</v>
       </c>
       <c r="EE104" s="4">
         <v>4</v>
       </c>
-      <c r="EF104" s="4" t="s">
-        <v>13</v>
+      <c r="EF104" s="4">
+        <v>4</v>
       </c>
       <c r="EG104" s="4">
         <v>5</v>
@@ -43403,8 +44027,14 @@
       <c r="EO104" s="4" t="s">
         <v>869</v>
       </c>
+      <c r="EP104" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ104" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="105" spans="1:145" ht="409.6">
+    <row r="105" spans="1:147" ht="409.6">
       <c r="A105" s="1" t="s">
         <v>0</v>
       </c>
@@ -43732,26 +44362,26 @@
       <c r="DY105" s="4">
         <v>5</v>
       </c>
-      <c r="DZ105" s="4" t="s">
-        <v>12</v>
+      <c r="DZ105" s="4">
+        <v>4</v>
       </c>
       <c r="EA105" s="4">
         <v>4</v>
       </c>
-      <c r="EB105" s="4" t="s">
-        <v>12</v>
+      <c r="EB105" s="4">
+        <v>4</v>
       </c>
       <c r="EC105" s="4">
         <v>5</v>
       </c>
-      <c r="ED105" s="4" t="s">
-        <v>68</v>
+      <c r="ED105" s="4">
+        <v>4</v>
       </c>
       <c r="EE105" s="4">
         <v>4</v>
       </c>
-      <c r="EF105" s="4" t="s">
-        <v>13</v>
+      <c r="EF105" s="4">
+        <v>4</v>
       </c>
       <c r="EG105" s="4">
         <v>4</v>
@@ -43780,8 +44410,14 @@
       <c r="EO105" s="4" t="s">
         <v>877</v>
       </c>
+      <c r="EP105" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ105" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="106" spans="1:145" ht="409.6">
+    <row r="106" spans="1:147" ht="409.6">
       <c r="A106" s="1" t="s">
         <v>0</v>
       </c>
@@ -44109,26 +44745,26 @@
       <c r="DY106" s="4">
         <v>5</v>
       </c>
-      <c r="DZ106" s="4" t="s">
-        <v>13</v>
+      <c r="DZ106" s="4">
+        <v>4</v>
       </c>
       <c r="EA106" s="4">
         <v>5</v>
       </c>
-      <c r="EB106" s="4" t="s">
-        <v>13</v>
+      <c r="EB106" s="4">
+        <v>4</v>
       </c>
       <c r="EC106" s="4">
         <v>4</v>
       </c>
-      <c r="ED106" s="4" t="s">
-        <v>15</v>
+      <c r="ED106" s="4">
+        <v>4</v>
       </c>
       <c r="EE106" s="4">
         <v>4</v>
       </c>
-      <c r="EF106" s="4" t="s">
-        <v>13</v>
+      <c r="EF106" s="4">
+        <v>4</v>
       </c>
       <c r="EG106" s="4">
         <v>5</v>
@@ -44157,8 +44793,14 @@
       <c r="EO106" s="4" t="s">
         <v>883</v>
       </c>
+      <c r="EP106" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ106" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="107" spans="1:145" ht="409.6">
+    <row r="107" spans="1:147" ht="409.6">
       <c r="A107" s="1" t="s">
         <v>0</v>
       </c>
@@ -44486,26 +45128,26 @@
       <c r="DY107" s="4">
         <v>4</v>
       </c>
-      <c r="DZ107" s="4" t="s">
-        <v>12</v>
+      <c r="DZ107" s="4">
+        <v>4</v>
       </c>
       <c r="EA107" s="4">
         <v>4</v>
       </c>
-      <c r="EB107" s="4" t="s">
-        <v>12</v>
+      <c r="EB107" s="4">
+        <v>4</v>
       </c>
       <c r="EC107" s="4">
         <v>4</v>
       </c>
-      <c r="ED107" s="4" t="s">
-        <v>12</v>
+      <c r="ED107" s="4">
+        <v>4</v>
       </c>
       <c r="EE107" s="4">
         <v>4</v>
       </c>
-      <c r="EF107" s="4" t="s">
-        <v>12</v>
+      <c r="EF107" s="4">
+        <v>4</v>
       </c>
       <c r="EG107" s="4">
         <v>4</v>
@@ -44534,8 +45176,14 @@
       <c r="EO107" s="4" t="s">
         <v>889</v>
       </c>
+      <c r="EP107" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ107" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="108" spans="1:145" ht="409.6">
+    <row r="108" spans="1:147" ht="409.6">
       <c r="A108" s="1" t="s">
         <v>0</v>
       </c>
@@ -44863,26 +45511,26 @@
       <c r="DY108" s="4">
         <v>3</v>
       </c>
-      <c r="DZ108" s="4" t="s">
-        <v>15</v>
+      <c r="DZ108" s="4">
+        <v>4</v>
       </c>
       <c r="EA108" s="4">
         <v>3</v>
       </c>
-      <c r="EB108" s="4" t="s">
-        <v>15</v>
+      <c r="EB108" s="4">
+        <v>4</v>
       </c>
       <c r="EC108" s="4">
         <v>4</v>
       </c>
-      <c r="ED108" s="4" t="s">
-        <v>13</v>
+      <c r="ED108" s="4">
+        <v>4</v>
       </c>
       <c r="EE108" s="4">
         <v>3</v>
       </c>
-      <c r="EF108" s="4" t="s">
-        <v>13</v>
+      <c r="EF108" s="4">
+        <v>4</v>
       </c>
       <c r="EG108" s="4">
         <v>3</v>
@@ -44911,8 +45559,14 @@
       <c r="EO108" s="4" t="s">
         <v>895</v>
       </c>
+      <c r="EP108" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ108" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="109" spans="1:145" ht="409.6">
+    <row r="109" spans="1:147" ht="409.6">
       <c r="A109" s="1" t="s">
         <v>0</v>
       </c>
@@ -45240,26 +45894,26 @@
       <c r="DY109" s="4">
         <v>4</v>
       </c>
-      <c r="DZ109" s="4" t="s">
-        <v>15</v>
+      <c r="DZ109" s="4">
+        <v>4</v>
       </c>
       <c r="EA109" s="4">
         <v>3</v>
       </c>
-      <c r="EB109" s="4" t="s">
-        <v>15</v>
+      <c r="EB109" s="4">
+        <v>4</v>
       </c>
       <c r="EC109" s="4">
         <v>3</v>
       </c>
-      <c r="ED109" s="4" t="s">
-        <v>12</v>
+      <c r="ED109" s="4">
+        <v>4</v>
       </c>
       <c r="EE109" s="4">
         <v>4</v>
       </c>
-      <c r="EF109" s="4" t="s">
-        <v>13</v>
+      <c r="EF109" s="4">
+        <v>4</v>
       </c>
       <c r="EG109" s="4">
         <v>4</v>
@@ -45288,8 +45942,14 @@
       <c r="EO109" s="4" t="s">
         <v>903</v>
       </c>
+      <c r="EP109" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ109" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="110" spans="1:145" ht="409.6">
+    <row r="110" spans="1:147" ht="409.6">
       <c r="A110" s="1" t="s">
         <v>0</v>
       </c>
@@ -45617,26 +46277,26 @@
       <c r="DY110" s="4">
         <v>1</v>
       </c>
-      <c r="DZ110" s="4" t="s">
-        <v>14</v>
+      <c r="DZ110" s="4">
+        <v>4</v>
       </c>
       <c r="EA110" s="4">
         <v>2</v>
       </c>
-      <c r="EB110" s="4" t="s">
-        <v>14</v>
+      <c r="EB110" s="4">
+        <v>4</v>
       </c>
       <c r="EC110" s="4">
         <v>1</v>
       </c>
-      <c r="ED110" s="4" t="s">
-        <v>68</v>
+      <c r="ED110" s="4">
+        <v>4</v>
       </c>
       <c r="EE110" s="4">
         <v>1</v>
       </c>
-      <c r="EF110" s="4" t="s">
-        <v>14</v>
+      <c r="EF110" s="4">
+        <v>4</v>
       </c>
       <c r="EG110" s="4">
         <v>2</v>
@@ -45665,8 +46325,14 @@
       <c r="EO110" s="4" t="s">
         <v>911</v>
       </c>
+      <c r="EP110" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ110" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="111" spans="1:145" ht="409.6">
+    <row r="111" spans="1:147" ht="409.6">
       <c r="A111" s="1" t="s">
         <v>0</v>
       </c>
@@ -45994,26 +46660,26 @@
       <c r="DY111" s="4">
         <v>3</v>
       </c>
-      <c r="DZ111" s="4" t="s">
-        <v>15</v>
+      <c r="DZ111" s="4">
+        <v>4</v>
       </c>
       <c r="EA111" s="4">
         <v>2</v>
       </c>
-      <c r="EB111" s="4" t="s">
-        <v>15</v>
+      <c r="EB111" s="4">
+        <v>4</v>
       </c>
       <c r="EC111" s="4">
         <v>2</v>
       </c>
-      <c r="ED111" s="4" t="s">
-        <v>12</v>
+      <c r="ED111" s="4">
+        <v>4</v>
       </c>
       <c r="EE111" s="4">
         <v>2</v>
       </c>
-      <c r="EF111" s="4" t="s">
-        <v>15</v>
+      <c r="EF111" s="4">
+        <v>4</v>
       </c>
       <c r="EG111" s="4">
         <v>2</v>
@@ -46042,8 +46708,14 @@
       <c r="EO111" s="4" t="s">
         <v>917</v>
       </c>
+      <c r="EP111" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ111" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="112" spans="1:145" ht="409.6">
+    <row r="112" spans="1:147" ht="409.6">
       <c r="A112" s="1" t="s">
         <v>0</v>
       </c>
@@ -46371,26 +47043,26 @@
       <c r="DY112" s="4">
         <v>1</v>
       </c>
-      <c r="DZ112" s="4" t="s">
-        <v>68</v>
+      <c r="DZ112" s="4">
+        <v>4</v>
       </c>
       <c r="EA112" s="4">
         <v>1</v>
       </c>
-      <c r="EB112" s="4" t="s">
-        <v>68</v>
+      <c r="EB112" s="4">
+        <v>4</v>
       </c>
       <c r="EC112" s="4">
         <v>2</v>
       </c>
-      <c r="ED112" s="4" t="s">
-        <v>15</v>
+      <c r="ED112" s="4">
+        <v>4</v>
       </c>
       <c r="EE112" s="4">
         <v>2</v>
       </c>
-      <c r="EF112" s="4" t="s">
-        <v>14</v>
+      <c r="EF112" s="4">
+        <v>4</v>
       </c>
       <c r="EG112" s="4">
         <v>2</v>
@@ -46419,8 +47091,14 @@
       <c r="EO112" s="4" t="s">
         <v>924</v>
       </c>
+      <c r="EP112" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ112" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="113" spans="1:145" ht="409.6">
+    <row r="113" spans="1:147" ht="409.6">
       <c r="A113" s="1" t="s">
         <v>0</v>
       </c>
@@ -46748,26 +47426,26 @@
       <c r="DY113" s="4">
         <v>4</v>
       </c>
-      <c r="DZ113" s="4" t="s">
-        <v>15</v>
+      <c r="DZ113" s="4">
+        <v>4</v>
       </c>
       <c r="EA113" s="4">
         <v>3</v>
       </c>
-      <c r="EB113" s="4" t="s">
-        <v>15</v>
+      <c r="EB113" s="4">
+        <v>4</v>
       </c>
       <c r="EC113" s="4">
         <v>4</v>
       </c>
-      <c r="ED113" s="4" t="s">
-        <v>15</v>
+      <c r="ED113" s="4">
+        <v>4</v>
       </c>
       <c r="EE113" s="4">
         <v>3</v>
       </c>
-      <c r="EF113" s="4" t="s">
-        <v>15</v>
+      <c r="EF113" s="4">
+        <v>4</v>
       </c>
       <c r="EG113" s="4">
         <v>3</v>
@@ -46796,8 +47474,14 @@
       <c r="EO113" s="4" t="s">
         <v>931</v>
       </c>
+      <c r="EP113" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ113" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="114" spans="1:145" ht="409.6">
+    <row r="114" spans="1:147" ht="409.6">
       <c r="A114" s="1" t="s">
         <v>0</v>
       </c>
@@ -47125,26 +47809,26 @@
       <c r="DY114" s="4">
         <v>4</v>
       </c>
-      <c r="DZ114" s="4" t="s">
-        <v>12</v>
+      <c r="DZ114" s="4">
+        <v>4</v>
       </c>
       <c r="EA114" s="4">
         <v>5</v>
       </c>
-      <c r="EB114" s="4" t="s">
-        <v>12</v>
+      <c r="EB114" s="4">
+        <v>4</v>
       </c>
       <c r="EC114" s="4">
         <v>4</v>
       </c>
-      <c r="ED114" s="4" t="s">
-        <v>15</v>
+      <c r="ED114" s="4">
+        <v>4</v>
       </c>
       <c r="EE114" s="4">
         <v>5</v>
       </c>
-      <c r="EF114" s="4" t="s">
-        <v>12</v>
+      <c r="EF114" s="4">
+        <v>4</v>
       </c>
       <c r="EG114" s="4">
         <v>5</v>
@@ -47173,8 +47857,14 @@
       <c r="EO114" s="4" t="s">
         <v>938</v>
       </c>
+      <c r="EP114" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ114" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="115" spans="1:145" ht="409.6">
+    <row r="115" spans="1:147" ht="409.6">
       <c r="A115" s="1" t="s">
         <v>0</v>
       </c>
@@ -47502,26 +48192,26 @@
       <c r="DY115" s="4">
         <v>4</v>
       </c>
-      <c r="DZ115" s="4" t="s">
-        <v>13</v>
+      <c r="DZ115" s="4">
+        <v>4</v>
       </c>
       <c r="EA115" s="4">
         <v>5</v>
       </c>
-      <c r="EB115" s="4" t="s">
-        <v>13</v>
+      <c r="EB115" s="4">
+        <v>4</v>
       </c>
       <c r="EC115" s="4">
         <v>5</v>
       </c>
-      <c r="ED115" s="4" t="s">
-        <v>13</v>
+      <c r="ED115" s="4">
+        <v>4</v>
       </c>
       <c r="EE115" s="4">
         <v>4</v>
       </c>
-      <c r="EF115" s="4" t="s">
-        <v>13</v>
+      <c r="EF115" s="4">
+        <v>4</v>
       </c>
       <c r="EG115" s="4">
         <v>5</v>
@@ -47550,8 +48240,14 @@
       <c r="EO115" s="4" t="s">
         <v>944</v>
       </c>
+      <c r="EP115" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ115" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="116" spans="1:145" ht="409.6">
+    <row r="116" spans="1:147" ht="409.6">
       <c r="A116" s="1" t="s">
         <v>0</v>
       </c>
@@ -47879,26 +48575,26 @@
       <c r="DY116" s="4">
         <v>4</v>
       </c>
-      <c r="DZ116" s="4" t="s">
-        <v>12</v>
+      <c r="DZ116" s="4">
+        <v>4</v>
       </c>
       <c r="EA116" s="4">
         <v>5</v>
       </c>
-      <c r="EB116" s="4" t="s">
-        <v>12</v>
+      <c r="EB116" s="4">
+        <v>4</v>
       </c>
       <c r="EC116" s="4">
         <v>5</v>
       </c>
-      <c r="ED116" s="4" t="s">
-        <v>15</v>
+      <c r="ED116" s="4">
+        <v>4</v>
       </c>
       <c r="EE116" s="4">
         <v>4</v>
       </c>
-      <c r="EF116" s="4" t="s">
-        <v>13</v>
+      <c r="EF116" s="4">
+        <v>4</v>
       </c>
       <c r="EG116" s="4">
         <v>4</v>
@@ -47927,8 +48623,14 @@
       <c r="EO116" s="4" t="s">
         <v>951</v>
       </c>
+      <c r="EP116" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ116" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="117" spans="1:145" ht="409.6">
+    <row r="117" spans="1:147" ht="409.6">
       <c r="A117" s="1" t="s">
         <v>0</v>
       </c>
@@ -48256,26 +48958,26 @@
       <c r="DY117" s="4">
         <v>1</v>
       </c>
-      <c r="DZ117" s="4" t="s">
-        <v>68</v>
+      <c r="DZ117" s="4">
+        <v>4</v>
       </c>
       <c r="EA117" s="4">
         <v>2</v>
       </c>
-      <c r="EB117" s="4" t="s">
-        <v>68</v>
+      <c r="EB117" s="4">
+        <v>4</v>
       </c>
       <c r="EC117" s="4">
         <v>1</v>
       </c>
-      <c r="ED117" s="4" t="s">
-        <v>13</v>
+      <c r="ED117" s="4">
+        <v>4</v>
       </c>
       <c r="EE117" s="4">
         <v>2</v>
       </c>
-      <c r="EF117" s="4" t="s">
-        <v>14</v>
+      <c r="EF117" s="4">
+        <v>4</v>
       </c>
       <c r="EG117" s="4">
         <v>2</v>
@@ -48304,8 +49006,14 @@
       <c r="EO117" s="4" t="s">
         <v>959</v>
       </c>
+      <c r="EP117" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ117" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="118" spans="1:145" ht="409.6">
+    <row r="118" spans="1:147" ht="409.6">
       <c r="A118" s="1" t="s">
         <v>0</v>
       </c>
@@ -48633,26 +49341,26 @@
       <c r="DY118" s="4">
         <v>5</v>
       </c>
-      <c r="DZ118" s="4" t="s">
-        <v>12</v>
+      <c r="DZ118" s="4">
+        <v>4</v>
       </c>
       <c r="EA118" s="4">
         <v>5</v>
       </c>
-      <c r="EB118" s="4" t="s">
-        <v>12</v>
+      <c r="EB118" s="4">
+        <v>4</v>
       </c>
       <c r="EC118" s="4">
         <v>5</v>
       </c>
-      <c r="ED118" s="4" t="s">
-        <v>13</v>
+      <c r="ED118" s="4">
+        <v>4</v>
       </c>
       <c r="EE118" s="4">
         <v>5</v>
       </c>
-      <c r="EF118" s="4" t="s">
-        <v>13</v>
+      <c r="EF118" s="4">
+        <v>4</v>
       </c>
       <c r="EG118" s="4">
         <v>4</v>
@@ -48681,8 +49389,14 @@
       <c r="EO118" s="4" t="s">
         <v>965</v>
       </c>
+      <c r="EP118" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ118" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="119" spans="1:145" ht="409.6">
+    <row r="119" spans="1:147" ht="409.6">
       <c r="A119" s="1" t="s">
         <v>0</v>
       </c>
@@ -49010,26 +49724,26 @@
       <c r="DY119" s="4">
         <v>4</v>
       </c>
-      <c r="DZ119" s="4" t="s">
-        <v>15</v>
+      <c r="DZ119" s="4">
+        <v>4</v>
       </c>
       <c r="EA119" s="4">
         <v>3</v>
       </c>
-      <c r="EB119" s="4" t="s">
-        <v>15</v>
+      <c r="EB119" s="4">
+        <v>4</v>
       </c>
       <c r="EC119" s="4">
         <v>3</v>
       </c>
-      <c r="ED119" s="4" t="s">
-        <v>15</v>
+      <c r="ED119" s="4">
+        <v>4</v>
       </c>
       <c r="EE119" s="4">
         <v>3</v>
       </c>
-      <c r="EF119" s="4" t="s">
-        <v>13</v>
+      <c r="EF119" s="4">
+        <v>4</v>
       </c>
       <c r="EG119" s="4">
         <v>3</v>
@@ -49058,8 +49772,14 @@
       <c r="EO119" s="4" t="s">
         <v>973</v>
       </c>
+      <c r="EP119" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ119" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="120" spans="1:145" ht="409.6">
+    <row r="120" spans="1:147" ht="409.6">
       <c r="A120" s="1" t="s">
         <v>0</v>
       </c>
@@ -49387,26 +50107,26 @@
       <c r="DY120" s="4">
         <v>3</v>
       </c>
-      <c r="DZ120" s="4" t="s">
-        <v>15</v>
+      <c r="DZ120" s="4">
+        <v>4</v>
       </c>
       <c r="EA120" s="4">
         <v>3</v>
       </c>
-      <c r="EB120" s="4" t="s">
-        <v>15</v>
+      <c r="EB120" s="4">
+        <v>4</v>
       </c>
       <c r="EC120" s="4">
         <v>4</v>
       </c>
-      <c r="ED120" s="4" t="s">
-        <v>13</v>
+      <c r="ED120" s="4">
+        <v>4</v>
       </c>
       <c r="EE120" s="4">
         <v>3</v>
       </c>
-      <c r="EF120" s="4" t="s">
-        <v>13</v>
+      <c r="EF120" s="4">
+        <v>4</v>
       </c>
       <c r="EG120" s="4">
         <v>3</v>
@@ -49435,8 +50155,14 @@
       <c r="EO120" s="4" t="s">
         <v>980</v>
       </c>
+      <c r="EP120" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ120" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="121" spans="1:145" ht="409.6">
+    <row r="121" spans="1:147" ht="409.6">
       <c r="A121" s="1" t="s">
         <v>0</v>
       </c>
@@ -49764,26 +50490,26 @@
       <c r="DY121" s="4">
         <v>3</v>
       </c>
-      <c r="DZ121" s="4" t="s">
-        <v>15</v>
+      <c r="DZ121" s="4">
+        <v>4</v>
       </c>
       <c r="EA121" s="4">
         <v>3</v>
       </c>
-      <c r="EB121" s="4" t="s">
-        <v>15</v>
+      <c r="EB121" s="4">
+        <v>4</v>
       </c>
       <c r="EC121" s="4">
         <v>3</v>
       </c>
-      <c r="ED121" s="4" t="s">
-        <v>13</v>
+      <c r="ED121" s="4">
+        <v>4</v>
       </c>
       <c r="EE121" s="4">
         <v>3</v>
       </c>
-      <c r="EF121" s="4" t="s">
-        <v>13</v>
+      <c r="EF121" s="4">
+        <v>4</v>
       </c>
       <c r="EG121" s="4">
         <v>3</v>
@@ -49812,8 +50538,14 @@
       <c r="EO121" s="4" t="s">
         <v>986</v>
       </c>
+      <c r="EP121" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ121" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="122" spans="1:145" ht="409.6">
+    <row r="122" spans="1:147" ht="409.6">
       <c r="A122" s="1" t="s">
         <v>0</v>
       </c>
@@ -50141,26 +50873,26 @@
       <c r="DY122" s="4">
         <v>5</v>
       </c>
-      <c r="DZ122" s="4" t="s">
-        <v>13</v>
+      <c r="DZ122" s="4">
+        <v>4</v>
       </c>
       <c r="EA122" s="4">
         <v>4</v>
       </c>
-      <c r="EB122" s="4" t="s">
-        <v>13</v>
+      <c r="EB122" s="4">
+        <v>4</v>
       </c>
       <c r="EC122" s="4">
         <v>5</v>
       </c>
-      <c r="ED122" s="4" t="s">
-        <v>13</v>
+      <c r="ED122" s="4">
+        <v>4</v>
       </c>
       <c r="EE122" s="4">
         <v>5</v>
       </c>
-      <c r="EF122" s="4" t="s">
-        <v>12</v>
+      <c r="EF122" s="4">
+        <v>4</v>
       </c>
       <c r="EG122" s="4">
         <v>4</v>
@@ -50189,8 +50921,14 @@
       <c r="EO122" s="4" t="s">
         <v>992</v>
       </c>
+      <c r="EP122" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ122" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="123" spans="1:145" ht="409.6">
+    <row r="123" spans="1:147" ht="409.6">
       <c r="A123" s="1" t="s">
         <v>0</v>
       </c>
@@ -50518,26 +51256,26 @@
       <c r="DY123" s="4">
         <v>2</v>
       </c>
-      <c r="DZ123" s="4" t="s">
-        <v>15</v>
+      <c r="DZ123" s="4">
+        <v>4</v>
       </c>
       <c r="EA123" s="4">
         <v>2</v>
       </c>
-      <c r="EB123" s="4" t="s">
-        <v>15</v>
+      <c r="EB123" s="4">
+        <v>4</v>
       </c>
       <c r="EC123" s="4">
         <v>2</v>
       </c>
-      <c r="ED123" s="4" t="s">
-        <v>13</v>
+      <c r="ED123" s="4">
+        <v>4</v>
       </c>
       <c r="EE123" s="4">
         <v>2</v>
       </c>
-      <c r="EF123" s="4" t="s">
-        <v>14</v>
+      <c r="EF123" s="4">
+        <v>4</v>
       </c>
       <c r="EG123" s="4">
         <v>2</v>
@@ -50566,8 +51304,14 @@
       <c r="EO123" s="4" t="s">
         <v>999</v>
       </c>
+      <c r="EP123" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ123" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="124" spans="1:145" ht="409.6">
+    <row r="124" spans="1:147" ht="409.6">
       <c r="A124" s="1" t="s">
         <v>0</v>
       </c>
@@ -50895,26 +51639,26 @@
       <c r="DY124" s="4">
         <v>5</v>
       </c>
-      <c r="DZ124" s="4" t="s">
-        <v>13</v>
+      <c r="DZ124" s="4">
+        <v>4</v>
       </c>
       <c r="EA124" s="4">
         <v>4</v>
       </c>
-      <c r="EB124" s="4" t="s">
-        <v>13</v>
+      <c r="EB124" s="4">
+        <v>4</v>
       </c>
       <c r="EC124" s="4">
         <v>5</v>
       </c>
-      <c r="ED124" s="4" t="s">
-        <v>13</v>
+      <c r="ED124" s="4">
+        <v>4</v>
       </c>
       <c r="EE124" s="4">
         <v>4</v>
       </c>
-      <c r="EF124" s="4" t="s">
-        <v>13</v>
+      <c r="EF124" s="4">
+        <v>4</v>
       </c>
       <c r="EG124" s="4">
         <v>5</v>
@@ -50943,8 +51687,14 @@
       <c r="EO124" s="4" t="s">
         <v>1006</v>
       </c>
+      <c r="EP124" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ124" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="125" spans="1:145" ht="409.6">
+    <row r="125" spans="1:147" ht="409.6">
       <c r="A125" s="1" t="s">
         <v>0</v>
       </c>
@@ -51272,26 +52022,26 @@
       <c r="DY125" s="4">
         <v>5</v>
       </c>
-      <c r="DZ125" s="4" t="s">
-        <v>13</v>
+      <c r="DZ125" s="4">
+        <v>4</v>
       </c>
       <c r="EA125" s="4">
         <v>4</v>
       </c>
-      <c r="EB125" s="4" t="s">
-        <v>13</v>
+      <c r="EB125" s="4">
+        <v>4</v>
       </c>
       <c r="EC125" s="4">
         <v>5</v>
       </c>
-      <c r="ED125" s="4" t="s">
-        <v>13</v>
+      <c r="ED125" s="4">
+        <v>4</v>
       </c>
       <c r="EE125" s="4">
         <v>4</v>
       </c>
-      <c r="EF125" s="4" t="s">
-        <v>12</v>
+      <c r="EF125" s="4">
+        <v>4</v>
       </c>
       <c r="EG125" s="4">
         <v>4</v>
@@ -51320,8 +52070,14 @@
       <c r="EO125" s="4" t="s">
         <v>1013</v>
       </c>
+      <c r="EP125" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ125" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="126" spans="1:145" ht="409.6">
+    <row r="126" spans="1:147" ht="409.6">
       <c r="A126" s="1" t="s">
         <v>0</v>
       </c>
@@ -51649,26 +52405,26 @@
       <c r="DY126" s="4">
         <v>3</v>
       </c>
-      <c r="DZ126" s="4" t="s">
-        <v>15</v>
+      <c r="DZ126" s="4">
+        <v>4</v>
       </c>
       <c r="EA126" s="4">
         <v>4</v>
       </c>
-      <c r="EB126" s="4" t="s">
-        <v>15</v>
+      <c r="EB126" s="4">
+        <v>4</v>
       </c>
       <c r="EC126" s="4">
         <v>4</v>
       </c>
-      <c r="ED126" s="4" t="s">
-        <v>13</v>
+      <c r="ED126" s="4">
+        <v>4</v>
       </c>
       <c r="EE126" s="4">
         <v>3</v>
       </c>
-      <c r="EF126" s="4" t="s">
-        <v>13</v>
+      <c r="EF126" s="4">
+        <v>4</v>
       </c>
       <c r="EG126" s="4">
         <v>4</v>
@@ -51697,8 +52453,14 @@
       <c r="EO126" s="4" t="s">
         <v>1019</v>
       </c>
+      <c r="EP126" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ126" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="127" spans="1:145" ht="409.6">
+    <row r="127" spans="1:147" ht="409.6">
       <c r="A127" s="1" t="s">
         <v>0</v>
       </c>
@@ -52026,26 +52788,26 @@
       <c r="DY127" s="4">
         <v>5</v>
       </c>
-      <c r="DZ127" s="4" t="s">
-        <v>13</v>
+      <c r="DZ127" s="4">
+        <v>4</v>
       </c>
       <c r="EA127" s="4">
         <v>4</v>
       </c>
-      <c r="EB127" s="4" t="s">
-        <v>13</v>
+      <c r="EB127" s="4">
+        <v>4</v>
       </c>
       <c r="EC127" s="4">
         <v>4</v>
       </c>
-      <c r="ED127" s="4" t="s">
-        <v>12</v>
+      <c r="ED127" s="4">
+        <v>4</v>
       </c>
       <c r="EE127" s="4">
         <v>4</v>
       </c>
-      <c r="EF127" s="4" t="s">
-        <v>13</v>
+      <c r="EF127" s="4">
+        <v>4</v>
       </c>
       <c r="EG127" s="4">
         <v>5</v>
@@ -52074,8 +52836,14 @@
       <c r="EO127" s="4" t="s">
         <v>1025</v>
       </c>
+      <c r="EP127" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ127" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="128" spans="1:145" ht="409.6">
+    <row r="128" spans="1:147" ht="409.6">
       <c r="A128" s="1" t="s">
         <v>0</v>
       </c>
@@ -52403,26 +53171,26 @@
       <c r="DY128" s="4">
         <v>4</v>
       </c>
-      <c r="DZ128" s="4" t="s">
-        <v>13</v>
+      <c r="DZ128" s="4">
+        <v>4</v>
       </c>
       <c r="EA128" s="4">
         <v>4</v>
       </c>
-      <c r="EB128" s="4" t="s">
-        <v>13</v>
+      <c r="EB128" s="4">
+        <v>4</v>
       </c>
       <c r="EC128" s="4">
         <v>4</v>
       </c>
-      <c r="ED128" s="4" t="s">
-        <v>15</v>
+      <c r="ED128" s="4">
+        <v>4</v>
       </c>
       <c r="EE128" s="4">
         <v>5</v>
       </c>
-      <c r="EF128" s="4" t="s">
-        <v>13</v>
+      <c r="EF128" s="4">
+        <v>4</v>
       </c>
       <c r="EG128" s="4">
         <v>4</v>
@@ -52451,8 +53219,14 @@
       <c r="EO128" s="4" t="s">
         <v>1032</v>
       </c>
+      <c r="EP128" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ128" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="129" spans="1:145" ht="409.6">
+    <row r="129" spans="1:147" ht="409.6">
       <c r="A129" s="1" t="s">
         <v>0</v>
       </c>
@@ -52780,26 +53554,26 @@
       <c r="DY129" s="4">
         <v>4</v>
       </c>
-      <c r="DZ129" s="4" t="s">
-        <v>13</v>
+      <c r="DZ129" s="4">
+        <v>4</v>
       </c>
       <c r="EA129" s="4">
         <v>4</v>
       </c>
-      <c r="EB129" s="4" t="s">
-        <v>13</v>
+      <c r="EB129" s="4">
+        <v>4</v>
       </c>
       <c r="EC129" s="4">
         <v>4</v>
       </c>
-      <c r="ED129" s="4" t="s">
-        <v>12</v>
+      <c r="ED129" s="4">
+        <v>4</v>
       </c>
       <c r="EE129" s="4">
         <v>5</v>
       </c>
-      <c r="EF129" s="4" t="s">
-        <v>13</v>
+      <c r="EF129" s="4">
+        <v>4</v>
       </c>
       <c r="EG129" s="4">
         <v>5</v>
@@ -52828,8 +53602,14 @@
       <c r="EO129" s="4" t="s">
         <v>1039</v>
       </c>
+      <c r="EP129" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ129" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="130" spans="1:145" ht="409.6">
+    <row r="130" spans="1:147" ht="409.6">
       <c r="A130" s="1" t="s">
         <v>0</v>
       </c>
@@ -53157,26 +53937,26 @@
       <c r="DY130" s="4">
         <v>5</v>
       </c>
-      <c r="DZ130" s="4" t="s">
-        <v>13</v>
+      <c r="DZ130" s="4">
+        <v>4</v>
       </c>
       <c r="EA130" s="4">
         <v>4</v>
       </c>
-      <c r="EB130" s="4" t="s">
-        <v>13</v>
+      <c r="EB130" s="4">
+        <v>4</v>
       </c>
       <c r="EC130" s="4">
         <v>5</v>
       </c>
-      <c r="ED130" s="4" t="s">
-        <v>12</v>
+      <c r="ED130" s="4">
+        <v>4</v>
       </c>
       <c r="EE130" s="4">
         <v>5</v>
       </c>
-      <c r="EF130" s="4" t="s">
-        <v>13</v>
+      <c r="EF130" s="4">
+        <v>4</v>
       </c>
       <c r="EG130" s="4">
         <v>4</v>
@@ -53205,8 +53985,14 @@
       <c r="EO130" s="4" t="s">
         <v>1044</v>
       </c>
+      <c r="EP130" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ130" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="131" spans="1:145" ht="409.6">
+    <row r="131" spans="1:147" ht="409.6">
       <c r="A131" s="1" t="s">
         <v>0</v>
       </c>
@@ -53534,26 +54320,26 @@
       <c r="DY131" s="4">
         <v>4</v>
       </c>
-      <c r="DZ131" s="4" t="s">
-        <v>13</v>
+      <c r="DZ131" s="4">
+        <v>4</v>
       </c>
       <c r="EA131" s="4">
         <v>4</v>
       </c>
-      <c r="EB131" s="4" t="s">
-        <v>13</v>
+      <c r="EB131" s="4">
+        <v>4</v>
       </c>
       <c r="EC131" s="4">
         <v>3</v>
       </c>
-      <c r="ED131" s="4" t="s">
-        <v>13</v>
+      <c r="ED131" s="4">
+        <v>4</v>
       </c>
       <c r="EE131" s="4">
         <v>3</v>
       </c>
-      <c r="EF131" s="4" t="s">
-        <v>13</v>
+      <c r="EF131" s="4">
+        <v>4</v>
       </c>
       <c r="EG131" s="4">
         <v>4</v>
@@ -53582,8 +54368,14 @@
       <c r="EO131" s="4" t="s">
         <v>1052</v>
       </c>
+      <c r="EP131" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ131" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="132" spans="1:145" ht="409.6">
+    <row r="132" spans="1:147" ht="409.6">
       <c r="A132" s="1" t="s">
         <v>0</v>
       </c>
@@ -53911,26 +54703,26 @@
       <c r="DY132" s="4">
         <v>4</v>
       </c>
-      <c r="DZ132" s="4" t="s">
-        <v>13</v>
+      <c r="DZ132" s="4">
+        <v>4</v>
       </c>
       <c r="EA132" s="4">
         <v>5</v>
       </c>
-      <c r="EB132" s="4" t="s">
-        <v>13</v>
+      <c r="EB132" s="4">
+        <v>4</v>
       </c>
       <c r="EC132" s="4">
         <v>4</v>
       </c>
-      <c r="ED132" s="4" t="s">
-        <v>13</v>
+      <c r="ED132" s="4">
+        <v>4</v>
       </c>
       <c r="EE132" s="4">
         <v>5</v>
       </c>
-      <c r="EF132" s="4" t="s">
-        <v>13</v>
+      <c r="EF132" s="4">
+        <v>4</v>
       </c>
       <c r="EG132" s="4">
         <v>4</v>
@@ -53959,8 +54751,14 @@
       <c r="EO132" s="4" t="s">
         <v>1058</v>
       </c>
+      <c r="EP132" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ132" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="133" spans="1:145" ht="409.6">
+    <row r="133" spans="1:147" ht="409.6">
       <c r="A133" s="1" t="s">
         <v>0</v>
       </c>
@@ -54288,26 +55086,26 @@
       <c r="DY133" s="4">
         <v>4</v>
       </c>
-      <c r="DZ133" s="4" t="s">
-        <v>13</v>
+      <c r="DZ133" s="4">
+        <v>4</v>
       </c>
       <c r="EA133" s="4">
         <v>5</v>
       </c>
-      <c r="EB133" s="4" t="s">
-        <v>13</v>
+      <c r="EB133" s="4">
+        <v>4</v>
       </c>
       <c r="EC133" s="4">
         <v>4</v>
       </c>
-      <c r="ED133" s="4" t="s">
-        <v>12</v>
+      <c r="ED133" s="4">
+        <v>4</v>
       </c>
       <c r="EE133" s="4">
         <v>5</v>
       </c>
-      <c r="EF133" s="4" t="s">
-        <v>12</v>
+      <c r="EF133" s="4">
+        <v>4</v>
       </c>
       <c r="EG133" s="4">
         <v>5</v>
@@ -54336,8 +55134,14 @@
       <c r="EO133" s="4" t="s">
         <v>1065</v>
       </c>
+      <c r="EP133" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ133" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="134" spans="1:145" ht="409.6">
+    <row r="134" spans="1:147" ht="409.6">
       <c r="A134" s="1" t="s">
         <v>0</v>
       </c>
@@ -54665,26 +55469,26 @@
       <c r="DY134" s="4">
         <v>5</v>
       </c>
-      <c r="DZ134" s="4" t="s">
-        <v>12</v>
+      <c r="DZ134" s="4">
+        <v>4</v>
       </c>
       <c r="EA134" s="4">
         <v>5</v>
       </c>
-      <c r="EB134" s="4" t="s">
-        <v>12</v>
+      <c r="EB134" s="4">
+        <v>4</v>
       </c>
       <c r="EC134" s="4">
         <v>4</v>
       </c>
-      <c r="ED134" s="4" t="s">
-        <v>12</v>
+      <c r="ED134" s="4">
+        <v>4</v>
       </c>
       <c r="EE134" s="4">
         <v>5</v>
       </c>
-      <c r="EF134" s="4" t="s">
-        <v>13</v>
+      <c r="EF134" s="4">
+        <v>4</v>
       </c>
       <c r="EG134" s="4">
         <v>4</v>
@@ -54713,8 +55517,14 @@
       <c r="EO134" s="4" t="s">
         <v>1073</v>
       </c>
+      <c r="EP134" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ134" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="135" spans="1:145" ht="409.6">
+    <row r="135" spans="1:147" ht="409.6">
       <c r="A135" s="1" t="s">
         <v>0</v>
       </c>
@@ -55042,26 +55852,26 @@
       <c r="DY135" s="4">
         <v>3</v>
       </c>
-      <c r="DZ135" s="4" t="s">
-        <v>15</v>
+      <c r="DZ135" s="4">
+        <v>4</v>
       </c>
       <c r="EA135" s="4">
         <v>2</v>
       </c>
-      <c r="EB135" s="4" t="s">
-        <v>15</v>
+      <c r="EB135" s="4">
+        <v>4</v>
       </c>
       <c r="EC135" s="4">
         <v>3</v>
       </c>
-      <c r="ED135" s="4" t="s">
-        <v>12</v>
+      <c r="ED135" s="4">
+        <v>4</v>
       </c>
       <c r="EE135" s="4">
         <v>3</v>
       </c>
-      <c r="EF135" s="4" t="s">
-        <v>14</v>
+      <c r="EF135" s="4">
+        <v>4</v>
       </c>
       <c r="EG135" s="4">
         <v>3</v>
@@ -55090,8 +55900,14 @@
       <c r="EO135" s="4" t="s">
         <v>1080</v>
       </c>
+      <c r="EP135" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ135" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="136" spans="1:145" ht="409.6">
+    <row r="136" spans="1:147" ht="409.6">
       <c r="A136" s="1" t="s">
         <v>0</v>
       </c>
@@ -55419,26 +56235,26 @@
       <c r="DY136" s="4">
         <v>4</v>
       </c>
-      <c r="DZ136" s="4" t="s">
-        <v>12</v>
+      <c r="DZ136" s="4">
+        <v>4</v>
       </c>
       <c r="EA136" s="4">
         <v>4</v>
       </c>
-      <c r="EB136" s="4" t="s">
-        <v>12</v>
+      <c r="EB136" s="4">
+        <v>4</v>
       </c>
       <c r="EC136" s="4">
         <v>4</v>
       </c>
-      <c r="ED136" s="4" t="s">
-        <v>12</v>
+      <c r="ED136" s="4">
+        <v>4</v>
       </c>
       <c r="EE136" s="4">
         <v>4</v>
       </c>
-      <c r="EF136" s="4" t="s">
-        <v>13</v>
+      <c r="EF136" s="4">
+        <v>4</v>
       </c>
       <c r="EG136" s="4">
         <v>5</v>
@@ -55467,8 +56283,14 @@
       <c r="EO136" s="4" t="s">
         <v>1087</v>
       </c>
+      <c r="EP136" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ136" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="137" spans="1:145" ht="409.6">
+    <row r="137" spans="1:147" ht="409.6">
       <c r="A137" s="1" t="s">
         <v>0</v>
       </c>
@@ -55796,26 +56618,26 @@
       <c r="DY137" s="4">
         <v>5</v>
       </c>
-      <c r="DZ137" s="4" t="s">
-        <v>12</v>
+      <c r="DZ137" s="4">
+        <v>4</v>
       </c>
       <c r="EA137" s="4">
         <v>5</v>
       </c>
-      <c r="EB137" s="4" t="s">
-        <v>12</v>
+      <c r="EB137" s="4">
+        <v>4</v>
       </c>
       <c r="EC137" s="4">
         <v>4</v>
       </c>
-      <c r="ED137" s="4" t="s">
-        <v>13</v>
+      <c r="ED137" s="4">
+        <v>4</v>
       </c>
       <c r="EE137" s="4">
         <v>5</v>
       </c>
-      <c r="EF137" s="4" t="s">
-        <v>13</v>
+      <c r="EF137" s="4">
+        <v>4</v>
       </c>
       <c r="EG137" s="4">
         <v>4</v>
@@ -55844,8 +56666,14 @@
       <c r="EO137" s="4" t="s">
         <v>1095</v>
       </c>
+      <c r="EP137" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ137" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="138" spans="1:145" ht="409.6">
+    <row r="138" spans="1:147" ht="409.6">
       <c r="A138" s="1" t="s">
         <v>0</v>
       </c>
@@ -56173,26 +57001,26 @@
       <c r="DY138" s="4">
         <v>5</v>
       </c>
-      <c r="DZ138" s="4" t="s">
-        <v>13</v>
+      <c r="DZ138" s="4">
+        <v>4</v>
       </c>
       <c r="EA138" s="4">
         <v>5</v>
       </c>
-      <c r="EB138" s="4" t="s">
-        <v>13</v>
+      <c r="EB138" s="4">
+        <v>4</v>
       </c>
       <c r="EC138" s="4">
         <v>5</v>
       </c>
-      <c r="ED138" s="4" t="s">
-        <v>13</v>
+      <c r="ED138" s="4">
+        <v>4</v>
       </c>
       <c r="EE138" s="4">
         <v>5</v>
       </c>
-      <c r="EF138" s="4" t="s">
-        <v>13</v>
+      <c r="EF138" s="4">
+        <v>4</v>
       </c>
       <c r="EG138" s="4">
         <v>4</v>
@@ -56221,8 +57049,14 @@
       <c r="EO138" s="4" t="s">
         <v>1102</v>
       </c>
+      <c r="EP138" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ138" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="139" spans="1:145" ht="409.6">
+    <row r="139" spans="1:147" ht="409.6">
       <c r="A139" s="1" t="s">
         <v>0</v>
       </c>
@@ -56550,26 +57384,26 @@
       <c r="DY139" s="4">
         <v>4</v>
       </c>
-      <c r="DZ139" s="4" t="s">
-        <v>13</v>
+      <c r="DZ139" s="4">
+        <v>4</v>
       </c>
       <c r="EA139" s="4">
         <v>4</v>
       </c>
-      <c r="EB139" s="4" t="s">
-        <v>13</v>
+      <c r="EB139" s="4">
+        <v>4</v>
       </c>
       <c r="EC139" s="4">
         <v>5</v>
       </c>
-      <c r="ED139" s="4" t="s">
-        <v>12</v>
+      <c r="ED139" s="4">
+        <v>4</v>
       </c>
       <c r="EE139" s="4">
         <v>4</v>
       </c>
-      <c r="EF139" s="4" t="s">
-        <v>12</v>
+      <c r="EF139" s="4">
+        <v>4</v>
       </c>
       <c r="EG139" s="4">
         <v>4</v>
@@ -56598,8 +57432,14 @@
       <c r="EO139" s="4" t="s">
         <v>1109</v>
       </c>
+      <c r="EP139" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ139" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="140" spans="1:145" ht="409.6">
+    <row r="140" spans="1:147" ht="409.6">
       <c r="A140" s="1" t="s">
         <v>0</v>
       </c>
@@ -56927,26 +57767,26 @@
       <c r="DY140" s="4">
         <v>5</v>
       </c>
-      <c r="DZ140" s="4" t="s">
-        <v>12</v>
+      <c r="DZ140" s="4">
+        <v>4</v>
       </c>
       <c r="EA140" s="4">
         <v>4</v>
       </c>
-      <c r="EB140" s="4" t="s">
-        <v>12</v>
+      <c r="EB140" s="4">
+        <v>4</v>
       </c>
       <c r="EC140" s="4">
         <v>4</v>
       </c>
-      <c r="ED140" s="4" t="s">
-        <v>13</v>
+      <c r="ED140" s="4">
+        <v>4</v>
       </c>
       <c r="EE140" s="4">
         <v>5</v>
       </c>
-      <c r="EF140" s="4" t="s">
-        <v>13</v>
+      <c r="EF140" s="4">
+        <v>4</v>
       </c>
       <c r="EG140" s="4">
         <v>4</v>
@@ -56975,8 +57815,14 @@
       <c r="EO140" s="4" t="s">
         <v>1116</v>
       </c>
+      <c r="EP140" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ140" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="141" spans="1:145" ht="409.6">
+    <row r="141" spans="1:147" ht="409.6">
       <c r="A141" s="1" t="s">
         <v>0</v>
       </c>
@@ -57304,26 +58150,26 @@
       <c r="DY141" s="4">
         <v>5</v>
       </c>
-      <c r="DZ141" s="4" t="s">
-        <v>12</v>
+      <c r="DZ141" s="4">
+        <v>4</v>
       </c>
       <c r="EA141" s="4">
         <v>4</v>
       </c>
-      <c r="EB141" s="4" t="s">
-        <v>12</v>
+      <c r="EB141" s="4">
+        <v>4</v>
       </c>
       <c r="EC141" s="4">
         <v>4</v>
       </c>
-      <c r="ED141" s="4" t="s">
-        <v>13</v>
+      <c r="ED141" s="4">
+        <v>4</v>
       </c>
       <c r="EE141" s="4">
         <v>4</v>
       </c>
-      <c r="EF141" s="4" t="s">
-        <v>13</v>
+      <c r="EF141" s="4">
+        <v>4</v>
       </c>
       <c r="EG141" s="4">
         <v>4</v>
@@ -57352,8 +58198,14 @@
       <c r="EO141" s="4" t="s">
         <v>1123</v>
       </c>
+      <c r="EP141" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ141" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="142" spans="1:145" ht="409.6">
+    <row r="142" spans="1:147" ht="409.6">
       <c r="A142" s="1" t="s">
         <v>0</v>
       </c>
@@ -57681,26 +58533,26 @@
       <c r="DY142" s="4">
         <v>4</v>
       </c>
-      <c r="DZ142" s="4" t="s">
-        <v>12</v>
+      <c r="DZ142" s="4">
+        <v>4</v>
       </c>
       <c r="EA142" s="4">
         <v>5</v>
       </c>
-      <c r="EB142" s="4" t="s">
-        <v>12</v>
+      <c r="EB142" s="4">
+        <v>4</v>
       </c>
       <c r="EC142" s="4">
         <v>5</v>
       </c>
-      <c r="ED142" s="4" t="s">
-        <v>12</v>
+      <c r="ED142" s="4">
+        <v>4</v>
       </c>
       <c r="EE142" s="4">
         <v>5</v>
       </c>
-      <c r="EF142" s="4" t="s">
-        <v>12</v>
+      <c r="EF142" s="4">
+        <v>4</v>
       </c>
       <c r="EG142" s="4">
         <v>4</v>
@@ -57729,8 +58581,14 @@
       <c r="EO142" s="4" t="s">
         <v>1131</v>
       </c>
+      <c r="EP142" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ142" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="143" spans="1:145" ht="409.6">
+    <row r="143" spans="1:147" ht="409.6">
       <c r="A143" s="1" t="s">
         <v>0</v>
       </c>
@@ -58058,26 +58916,26 @@
       <c r="DY143" s="4">
         <v>5</v>
       </c>
-      <c r="DZ143" s="4" t="s">
-        <v>12</v>
+      <c r="DZ143" s="4">
+        <v>4</v>
       </c>
       <c r="EA143" s="4">
         <v>4</v>
       </c>
-      <c r="EB143" s="4" t="s">
-        <v>12</v>
+      <c r="EB143" s="4">
+        <v>4</v>
       </c>
       <c r="EC143" s="4">
         <v>5</v>
       </c>
-      <c r="ED143" s="4" t="s">
-        <v>15</v>
+      <c r="ED143" s="4">
+        <v>4</v>
       </c>
       <c r="EE143" s="4">
         <v>5</v>
       </c>
-      <c r="EF143" s="4" t="s">
-        <v>13</v>
+      <c r="EF143" s="4">
+        <v>4</v>
       </c>
       <c r="EG143" s="4">
         <v>5</v>
@@ -58106,8 +58964,14 @@
       <c r="EO143" s="4" t="s">
         <v>1137</v>
       </c>
+      <c r="EP143" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ143" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="144" spans="1:145" ht="409.6">
+    <row r="144" spans="1:147" ht="409.6">
       <c r="A144" s="1" t="s">
         <v>0</v>
       </c>
@@ -58435,26 +59299,26 @@
       <c r="DY144" s="4">
         <v>5</v>
       </c>
-      <c r="DZ144" s="4" t="s">
-        <v>13</v>
+      <c r="DZ144" s="4">
+        <v>4</v>
       </c>
       <c r="EA144" s="4">
         <v>4</v>
       </c>
-      <c r="EB144" s="4" t="s">
-        <v>13</v>
+      <c r="EB144" s="4">
+        <v>4</v>
       </c>
       <c r="EC144" s="4">
         <v>5</v>
       </c>
-      <c r="ED144" s="4" t="s">
-        <v>12</v>
+      <c r="ED144" s="4">
+        <v>4</v>
       </c>
       <c r="EE144" s="4">
         <v>5</v>
       </c>
-      <c r="EF144" s="4" t="s">
-        <v>13</v>
+      <c r="EF144" s="4">
+        <v>4</v>
       </c>
       <c r="EG144" s="4">
         <v>5</v>
@@ -58483,8 +59347,14 @@
       <c r="EO144" s="4" t="s">
         <v>1143</v>
       </c>
+      <c r="EP144" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ144" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="145" spans="1:145" ht="409.6">
+    <row r="145" spans="1:147" ht="409.6">
       <c r="A145" s="1" t="s">
         <v>0</v>
       </c>
@@ -58812,26 +59682,26 @@
       <c r="DY145" s="4">
         <v>5</v>
       </c>
-      <c r="DZ145" s="4" t="s">
-        <v>13</v>
+      <c r="DZ145" s="4">
+        <v>4</v>
       </c>
       <c r="EA145" s="4">
         <v>4</v>
       </c>
-      <c r="EB145" s="4" t="s">
-        <v>13</v>
+      <c r="EB145" s="4">
+        <v>4</v>
       </c>
       <c r="EC145" s="4">
         <v>5</v>
       </c>
-      <c r="ED145" s="4" t="s">
-        <v>13</v>
+      <c r="ED145" s="4">
+        <v>4</v>
       </c>
       <c r="EE145" s="4">
         <v>5</v>
       </c>
-      <c r="EF145" s="4" t="s">
-        <v>13</v>
+      <c r="EF145" s="4">
+        <v>4</v>
       </c>
       <c r="EG145" s="4">
         <v>5</v>
@@ -58860,8 +59730,14 @@
       <c r="EO145" s="4" t="s">
         <v>1150</v>
       </c>
+      <c r="EP145" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ145" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="146" spans="1:145" ht="409.6">
+    <row r="146" spans="1:147" ht="409.6">
       <c r="A146" s="1" t="s">
         <v>0</v>
       </c>
@@ -59189,26 +60065,26 @@
       <c r="DY146" s="4">
         <v>5</v>
       </c>
-      <c r="DZ146" s="4" t="s">
-        <v>12</v>
+      <c r="DZ146" s="4">
+        <v>4</v>
       </c>
       <c r="EA146" s="4">
         <v>4</v>
       </c>
-      <c r="EB146" s="4" t="s">
-        <v>12</v>
+      <c r="EB146" s="4">
+        <v>4</v>
       </c>
       <c r="EC146" s="4">
         <v>5</v>
       </c>
-      <c r="ED146" s="4" t="s">
-        <v>12</v>
+      <c r="ED146" s="4">
+        <v>4</v>
       </c>
       <c r="EE146" s="4">
         <v>5</v>
       </c>
-      <c r="EF146" s="4" t="s">
-        <v>13</v>
+      <c r="EF146" s="4">
+        <v>4</v>
       </c>
       <c r="EG146" s="4">
         <v>4</v>
@@ -59237,8 +60113,14 @@
       <c r="EO146" s="4" t="s">
         <v>1158</v>
       </c>
+      <c r="EP146" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ146" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="147" spans="1:145" ht="409.6">
+    <row r="147" spans="1:147" ht="409.6">
       <c r="A147" s="1" t="s">
         <v>0</v>
       </c>
@@ -59566,26 +60448,26 @@
       <c r="DY147" s="4">
         <v>5</v>
       </c>
-      <c r="DZ147" s="4" t="s">
-        <v>13</v>
+      <c r="DZ147" s="4">
+        <v>4</v>
       </c>
       <c r="EA147" s="4">
         <v>4</v>
       </c>
-      <c r="EB147" s="4" t="s">
-        <v>13</v>
+      <c r="EB147" s="4">
+        <v>4</v>
       </c>
       <c r="EC147" s="4">
         <v>5</v>
       </c>
-      <c r="ED147" s="4" t="s">
-        <v>12</v>
+      <c r="ED147" s="4">
+        <v>4</v>
       </c>
       <c r="EE147" s="4">
         <v>5</v>
       </c>
-      <c r="EF147" s="4" t="s">
-        <v>13</v>
+      <c r="EF147" s="4">
+        <v>4</v>
       </c>
       <c r="EG147" s="4">
         <v>5</v>
@@ -59614,8 +60496,14 @@
       <c r="EO147" s="4" t="s">
         <v>1165</v>
       </c>
+      <c r="EP147" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ147" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="148" spans="1:145" ht="409.6">
+    <row r="148" spans="1:147" ht="409.6">
       <c r="A148" s="1" t="s">
         <v>0</v>
       </c>
@@ -59943,26 +60831,26 @@
       <c r="DY148" s="4">
         <v>4</v>
       </c>
-      <c r="DZ148" s="4" t="s">
-        <v>13</v>
+      <c r="DZ148" s="4">
+        <v>4</v>
       </c>
       <c r="EA148" s="4">
         <v>5</v>
       </c>
-      <c r="EB148" s="4" t="s">
-        <v>13</v>
+      <c r="EB148" s="4">
+        <v>4</v>
       </c>
       <c r="EC148" s="4">
         <v>4</v>
       </c>
-      <c r="ED148" s="4" t="s">
-        <v>13</v>
+      <c r="ED148" s="4">
+        <v>4</v>
       </c>
       <c r="EE148" s="4">
         <v>4</v>
       </c>
-      <c r="EF148" s="4" t="s">
-        <v>12</v>
+      <c r="EF148" s="4">
+        <v>4</v>
       </c>
       <c r="EG148" s="4">
         <v>5</v>
@@ -59991,8 +60879,14 @@
       <c r="EO148" s="4" t="s">
         <v>1171</v>
       </c>
+      <c r="EP148" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ148" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="149" spans="1:145" ht="409.6">
+    <row r="149" spans="1:147" ht="409.6">
       <c r="A149" s="1" t="s">
         <v>0</v>
       </c>
@@ -60320,26 +61214,26 @@
       <c r="DY149" s="4">
         <v>5</v>
       </c>
-      <c r="DZ149" s="4" t="s">
-        <v>12</v>
+      <c r="DZ149" s="4">
+        <v>4</v>
       </c>
       <c r="EA149" s="4">
         <v>5</v>
       </c>
-      <c r="EB149" s="4" t="s">
-        <v>12</v>
+      <c r="EB149" s="4">
+        <v>4</v>
       </c>
       <c r="EC149" s="4">
         <v>4</v>
       </c>
-      <c r="ED149" s="4" t="s">
-        <v>12</v>
+      <c r="ED149" s="4">
+        <v>4</v>
       </c>
       <c r="EE149" s="4">
         <v>5</v>
       </c>
-      <c r="EF149" s="4" t="s">
-        <v>13</v>
+      <c r="EF149" s="4">
+        <v>4</v>
       </c>
       <c r="EG149" s="4">
         <v>4</v>
@@ -60368,8 +61262,14 @@
       <c r="EO149" s="4" t="s">
         <v>1178</v>
       </c>
+      <c r="EP149" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ149" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="150" spans="1:145" ht="409.6">
+    <row r="150" spans="1:147" ht="409.6">
       <c r="A150" s="1" t="s">
         <v>0</v>
       </c>
@@ -60697,26 +61597,26 @@
       <c r="DY150" s="4">
         <v>3</v>
       </c>
-      <c r="DZ150" s="4" t="s">
-        <v>15</v>
+      <c r="DZ150" s="4">
+        <v>4</v>
       </c>
       <c r="EA150" s="4">
         <v>2</v>
       </c>
-      <c r="EB150" s="4" t="s">
-        <v>15</v>
+      <c r="EB150" s="4">
+        <v>4</v>
       </c>
       <c r="EC150" s="4">
         <v>3</v>
       </c>
-      <c r="ED150" s="4" t="s">
-        <v>14</v>
+      <c r="ED150" s="4">
+        <v>4</v>
       </c>
       <c r="EE150" s="4">
         <v>2</v>
       </c>
-      <c r="EF150" s="4" t="s">
-        <v>14</v>
+      <c r="EF150" s="4">
+        <v>4</v>
       </c>
       <c r="EG150" s="4">
         <v>2</v>
@@ -60745,8 +61645,14 @@
       <c r="EO150" s="4" t="s">
         <v>1184</v>
       </c>
+      <c r="EP150" s="8">
+        <v>45875.731956018521</v>
+      </c>
+      <c r="EQ150" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="151" spans="1:145">
+    <row r="151" spans="1:147">
       <c r="A151" s="7"/>
       <c r="B151" s="7"/>
       <c r="C151" s="7"/>
@@ -60904,5 +61810,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/raw_data.xlsx
+++ b/raw_data.xlsx
@@ -4196,13 +4196,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EQ151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="ED151" workbookViewId="0">
-      <selection activeCell="ES146" sqref="ES146"/>
+    <sheetView tabSelected="1" topLeftCell="BY111" workbookViewId="0">
+      <selection activeCell="DC145" sqref="DC145"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="19.8" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:147" ht="409.6">
+    <row r="1" spans="1:147" ht="19.8" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4585,7 +4585,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="2" spans="1:147" ht="388.8">
+    <row r="2" spans="1:147" ht="19.8" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4968,7 +4968,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="3" spans="1:147" ht="409.6">
+    <row r="3" spans="1:147" ht="19.8" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -5351,7 +5351,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="4" spans="1:147" ht="409.6">
+    <row r="4" spans="1:147" ht="19.8" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -5734,7 +5734,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="5" spans="1:147" ht="409.6">
+    <row r="5" spans="1:147" ht="19.8" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -6117,7 +6117,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="6" spans="1:147" ht="409.6">
+    <row r="6" spans="1:147" ht="19.8" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -6500,7 +6500,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="7" spans="1:147" ht="409.6">
+    <row r="7" spans="1:147" ht="19.8" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -6883,7 +6883,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="8" spans="1:147" ht="409.6">
+    <row r="8" spans="1:147" ht="19.8" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -7266,7 +7266,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="9" spans="1:147" ht="409.6">
+    <row r="9" spans="1:147" ht="19.8" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -7649,7 +7649,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="10" spans="1:147" ht="409.6">
+    <row r="10" spans="1:147" ht="19.8" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -8032,7 +8032,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="11" spans="1:147" ht="409.6">
+    <row r="11" spans="1:147" ht="19.8" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -8415,7 +8415,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="12" spans="1:147" ht="409.6">
+    <row r="12" spans="1:147" ht="19.8" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -8798,7 +8798,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="13" spans="1:147" ht="409.6">
+    <row r="13" spans="1:147" ht="19.8" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -9181,7 +9181,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="14" spans="1:147" ht="409.6">
+    <row r="14" spans="1:147" ht="19.8" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -9564,7 +9564,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="15" spans="1:147" ht="409.6">
+    <row r="15" spans="1:147" ht="19.8" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -9947,7 +9947,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="16" spans="1:147" ht="409.6">
+    <row r="16" spans="1:147" ht="19.8" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -10330,7 +10330,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="17" spans="1:147" ht="409.6">
+    <row r="17" spans="1:147" ht="19.8" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -10713,7 +10713,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="18" spans="1:147" ht="409.6">
+    <row r="18" spans="1:147" ht="19.8" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -11096,7 +11096,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="19" spans="1:147" ht="409.6">
+    <row r="19" spans="1:147" ht="19.8" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -11479,7 +11479,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="20" spans="1:147" ht="409.6">
+    <row r="20" spans="1:147" ht="19.8" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
@@ -11862,7 +11862,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="21" spans="1:147" ht="409.6">
+    <row r="21" spans="1:147" ht="19.8" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -12245,7 +12245,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="22" spans="1:147" ht="409.6">
+    <row r="22" spans="1:147" ht="19.8" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -12628,7 +12628,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="23" spans="1:147" ht="409.6">
+    <row r="23" spans="1:147" ht="19.8" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -13011,7 +13011,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="24" spans="1:147" ht="409.6">
+    <row r="24" spans="1:147" ht="19.8" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -13394,7 +13394,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="25" spans="1:147" ht="409.6">
+    <row r="25" spans="1:147" ht="19.8" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -13777,7 +13777,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="26" spans="1:147" ht="409.6">
+    <row r="26" spans="1:147" ht="19.8" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
@@ -14160,7 +14160,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="27" spans="1:147" ht="409.6">
+    <row r="27" spans="1:147" ht="19.8" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
@@ -14543,7 +14543,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="28" spans="1:147" ht="409.6">
+    <row r="28" spans="1:147" ht="19.8" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
@@ -14926,7 +14926,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="29" spans="1:147" ht="409.6">
+    <row r="29" spans="1:147" ht="19.8" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -15309,7 +15309,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="30" spans="1:147" ht="409.6">
+    <row r="30" spans="1:147" ht="19.8" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
@@ -15692,7 +15692,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="31" spans="1:147" ht="409.6">
+    <row r="31" spans="1:147" ht="19.8" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
@@ -16075,7 +16075,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="32" spans="1:147" ht="409.6">
+    <row r="32" spans="1:147" ht="19.8" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
@@ -16458,7 +16458,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="33" spans="1:147" ht="409.6">
+    <row r="33" spans="1:147" ht="19.8" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
@@ -16841,7 +16841,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="34" spans="1:147" ht="409.6">
+    <row r="34" spans="1:147" ht="19.8" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
@@ -17224,7 +17224,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="35" spans="1:147" ht="409.6">
+    <row r="35" spans="1:147" ht="19.8" customHeight="1">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
@@ -17607,7 +17607,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="36" spans="1:147" ht="409.6">
+    <row r="36" spans="1:147" ht="19.8" customHeight="1">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
@@ -17990,7 +17990,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="37" spans="1:147" ht="409.6">
+    <row r="37" spans="1:147" ht="19.8" customHeight="1">
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
@@ -18373,7 +18373,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="38" spans="1:147" ht="409.6">
+    <row r="38" spans="1:147" ht="19.8" customHeight="1">
       <c r="A38" s="1" t="s">
         <v>0</v>
       </c>
@@ -18756,7 +18756,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="39" spans="1:147" ht="409.6">
+    <row r="39" spans="1:147" ht="19.8" customHeight="1">
       <c r="A39" s="1" t="s">
         <v>0</v>
       </c>
@@ -19139,7 +19139,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="40" spans="1:147" ht="409.6">
+    <row r="40" spans="1:147" ht="19.8" customHeight="1">
       <c r="A40" s="1" t="s">
         <v>0</v>
       </c>
@@ -19522,7 +19522,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="41" spans="1:147" ht="409.6">
+    <row r="41" spans="1:147" ht="19.8" customHeight="1">
       <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
@@ -19905,7 +19905,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="42" spans="1:147" ht="409.6">
+    <row r="42" spans="1:147" ht="19.8" customHeight="1">
       <c r="A42" s="1" t="s">
         <v>0</v>
       </c>
@@ -20288,7 +20288,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="43" spans="1:147" ht="409.6">
+    <row r="43" spans="1:147" ht="19.8" customHeight="1">
       <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
@@ -20671,7 +20671,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="44" spans="1:147" ht="409.6">
+    <row r="44" spans="1:147" ht="19.8" customHeight="1">
       <c r="A44" s="1" t="s">
         <v>0</v>
       </c>
@@ -21054,7 +21054,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="45" spans="1:147" ht="409.6">
+    <row r="45" spans="1:147" ht="19.8" customHeight="1">
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
@@ -21437,7 +21437,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="46" spans="1:147" ht="409.6">
+    <row r="46" spans="1:147" ht="19.8" customHeight="1">
       <c r="A46" s="1" t="s">
         <v>0</v>
       </c>
@@ -21820,7 +21820,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="47" spans="1:147" ht="409.6">
+    <row r="47" spans="1:147" ht="19.8" customHeight="1">
       <c r="A47" s="1" t="s">
         <v>0</v>
       </c>
@@ -22203,7 +22203,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="48" spans="1:147" ht="409.6">
+    <row r="48" spans="1:147" ht="19.8" customHeight="1">
       <c r="A48" s="1" t="s">
         <v>0</v>
       </c>
@@ -22586,7 +22586,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="49" spans="1:147" ht="409.6">
+    <row r="49" spans="1:147" ht="19.8" customHeight="1">
       <c r="A49" s="1" t="s">
         <v>0</v>
       </c>
@@ -22969,7 +22969,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="50" spans="1:147" ht="409.6">
+    <row r="50" spans="1:147" ht="19.8" customHeight="1">
       <c r="A50" s="1" t="s">
         <v>0</v>
       </c>
@@ -23352,7 +23352,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="51" spans="1:147" ht="409.6">
+    <row r="51" spans="1:147" ht="19.8" customHeight="1">
       <c r="A51" s="1" t="s">
         <v>0</v>
       </c>
@@ -23735,7 +23735,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="52" spans="1:147" ht="409.6">
+    <row r="52" spans="1:147" ht="19.8" customHeight="1">
       <c r="A52" s="1" t="s">
         <v>0</v>
       </c>
@@ -24118,7 +24118,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="53" spans="1:147" ht="409.6">
+    <row r="53" spans="1:147" ht="19.8" customHeight="1">
       <c r="A53" s="1" t="s">
         <v>0</v>
       </c>
@@ -24501,7 +24501,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="54" spans="1:147" ht="409.6">
+    <row r="54" spans="1:147" ht="19.8" customHeight="1">
       <c r="A54" s="1" t="s">
         <v>0</v>
       </c>
@@ -24884,7 +24884,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="55" spans="1:147" ht="409.6">
+    <row r="55" spans="1:147" ht="19.8" customHeight="1">
       <c r="A55" s="1" t="s">
         <v>0</v>
       </c>
@@ -25267,7 +25267,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="56" spans="1:147" ht="409.6">
+    <row r="56" spans="1:147" ht="19.8" customHeight="1">
       <c r="A56" s="1" t="s">
         <v>0</v>
       </c>
@@ -25650,7 +25650,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="57" spans="1:147" ht="409.6">
+    <row r="57" spans="1:147" ht="19.8" customHeight="1">
       <c r="A57" s="1" t="s">
         <v>0</v>
       </c>
@@ -26033,7 +26033,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="58" spans="1:147" ht="409.6">
+    <row r="58" spans="1:147" ht="19.8" customHeight="1">
       <c r="A58" s="1" t="s">
         <v>0</v>
       </c>
@@ -26416,7 +26416,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="59" spans="1:147" ht="409.6">
+    <row r="59" spans="1:147" ht="19.8" customHeight="1">
       <c r="A59" s="1" t="s">
         <v>0</v>
       </c>
@@ -26799,7 +26799,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="60" spans="1:147" ht="409.6">
+    <row r="60" spans="1:147" ht="19.8" customHeight="1">
       <c r="A60" s="1" t="s">
         <v>0</v>
       </c>
@@ -27182,7 +27182,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="61" spans="1:147" ht="409.6">
+    <row r="61" spans="1:147" ht="19.8" customHeight="1">
       <c r="A61" s="1" t="s">
         <v>0</v>
       </c>
@@ -27565,7 +27565,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="62" spans="1:147" ht="409.6">
+    <row r="62" spans="1:147" ht="19.8" customHeight="1">
       <c r="A62" s="1" t="s">
         <v>0</v>
       </c>
@@ -27948,7 +27948,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="63" spans="1:147" ht="409.6">
+    <row r="63" spans="1:147" ht="19.8" customHeight="1">
       <c r="A63" s="1" t="s">
         <v>0</v>
       </c>
@@ -28331,7 +28331,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="64" spans="1:147" ht="409.6">
+    <row r="64" spans="1:147" ht="19.8" customHeight="1">
       <c r="A64" s="1" t="s">
         <v>0</v>
       </c>
@@ -28714,7 +28714,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="65" spans="1:147" ht="409.6">
+    <row r="65" spans="1:147" ht="19.8" customHeight="1">
       <c r="A65" s="1" t="s">
         <v>0</v>
       </c>
@@ -29097,7 +29097,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="66" spans="1:147" ht="409.6">
+    <row r="66" spans="1:147" ht="19.8" customHeight="1">
       <c r="A66" s="1" t="s">
         <v>0</v>
       </c>
@@ -29480,7 +29480,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="67" spans="1:147" ht="409.6">
+    <row r="67" spans="1:147" ht="19.8" customHeight="1">
       <c r="A67" s="1" t="s">
         <v>0</v>
       </c>
@@ -29863,7 +29863,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="68" spans="1:147" ht="409.6">
+    <row r="68" spans="1:147" ht="19.8" customHeight="1">
       <c r="A68" s="1" t="s">
         <v>0</v>
       </c>
@@ -30246,7 +30246,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="69" spans="1:147" ht="409.6">
+    <row r="69" spans="1:147" ht="19.8" customHeight="1">
       <c r="A69" s="1" t="s">
         <v>0</v>
       </c>
@@ -30629,7 +30629,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="70" spans="1:147" ht="409.6">
+    <row r="70" spans="1:147" ht="19.8" customHeight="1">
       <c r="A70" s="1" t="s">
         <v>0</v>
       </c>
@@ -31012,7 +31012,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="71" spans="1:147" ht="409.6">
+    <row r="71" spans="1:147" ht="19.8" customHeight="1">
       <c r="A71" s="1" t="s">
         <v>0</v>
       </c>
@@ -31395,7 +31395,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="72" spans="1:147" ht="409.6">
+    <row r="72" spans="1:147" ht="19.8" customHeight="1">
       <c r="A72" s="1" t="s">
         <v>0</v>
       </c>
@@ -31778,7 +31778,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="73" spans="1:147" ht="409.6">
+    <row r="73" spans="1:147" ht="19.8" customHeight="1">
       <c r="A73" s="1" t="s">
         <v>0</v>
       </c>
@@ -32161,7 +32161,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="74" spans="1:147" ht="409.6">
+    <row r="74" spans="1:147" ht="19.8" customHeight="1">
       <c r="A74" s="1" t="s">
         <v>0</v>
       </c>
@@ -32544,7 +32544,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="75" spans="1:147" ht="409.6">
+    <row r="75" spans="1:147" ht="19.8" customHeight="1">
       <c r="A75" s="1" t="s">
         <v>0</v>
       </c>
@@ -32927,7 +32927,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="76" spans="1:147" ht="409.6">
+    <row r="76" spans="1:147" ht="19.8" customHeight="1">
       <c r="A76" s="1" t="s">
         <v>0</v>
       </c>
@@ -33310,7 +33310,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="77" spans="1:147" ht="409.6">
+    <row r="77" spans="1:147" ht="19.8" customHeight="1">
       <c r="A77" s="1" t="s">
         <v>0</v>
       </c>
@@ -33693,7 +33693,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="78" spans="1:147" ht="409.6">
+    <row r="78" spans="1:147" ht="19.8" customHeight="1">
       <c r="A78" s="1" t="s">
         <v>0</v>
       </c>
@@ -34076,7 +34076,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="79" spans="1:147" ht="409.6">
+    <row r="79" spans="1:147" ht="19.8" customHeight="1">
       <c r="A79" s="1" t="s">
         <v>0</v>
       </c>
@@ -34459,7 +34459,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="80" spans="1:147" ht="409.6">
+    <row r="80" spans="1:147" ht="19.8" customHeight="1">
       <c r="A80" s="1" t="s">
         <v>0</v>
       </c>
@@ -34842,7 +34842,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="81" spans="1:147" ht="409.6">
+    <row r="81" spans="1:147" ht="19.8" customHeight="1">
       <c r="A81" s="1" t="s">
         <v>0</v>
       </c>
@@ -35225,7 +35225,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="82" spans="1:147" ht="409.6">
+    <row r="82" spans="1:147" ht="19.8" customHeight="1">
       <c r="A82" s="1" t="s">
         <v>0</v>
       </c>
@@ -35608,7 +35608,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="83" spans="1:147" ht="409.6">
+    <row r="83" spans="1:147" ht="19.8" customHeight="1">
       <c r="A83" s="1" t="s">
         <v>0</v>
       </c>
@@ -35991,7 +35991,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="84" spans="1:147" ht="409.6">
+    <row r="84" spans="1:147" ht="19.8" customHeight="1">
       <c r="A84" s="1" t="s">
         <v>0</v>
       </c>
@@ -36374,7 +36374,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="85" spans="1:147" ht="409.6">
+    <row r="85" spans="1:147" ht="19.8" customHeight="1">
       <c r="A85" s="1" t="s">
         <v>0</v>
       </c>
@@ -36757,7 +36757,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="86" spans="1:147" ht="409.6">
+    <row r="86" spans="1:147" ht="19.8" customHeight="1">
       <c r="A86" s="1" t="s">
         <v>0</v>
       </c>
@@ -37140,7 +37140,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="87" spans="1:147" ht="409.6">
+    <row r="87" spans="1:147" ht="19.8" customHeight="1">
       <c r="A87" s="1" t="s">
         <v>0</v>
       </c>
@@ -37523,7 +37523,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="88" spans="1:147" ht="409.6">
+    <row r="88" spans="1:147" ht="19.8" customHeight="1">
       <c r="A88" s="1" t="s">
         <v>0</v>
       </c>
@@ -37906,7 +37906,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="89" spans="1:147" ht="409.6">
+    <row r="89" spans="1:147" ht="19.8" customHeight="1">
       <c r="A89" s="1" t="s">
         <v>0</v>
       </c>
@@ -38289,7 +38289,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="90" spans="1:147" ht="409.6">
+    <row r="90" spans="1:147" ht="19.8" customHeight="1">
       <c r="A90" s="1" t="s">
         <v>0</v>
       </c>
@@ -38672,7 +38672,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="91" spans="1:147" ht="409.6">
+    <row r="91" spans="1:147" ht="19.8" customHeight="1">
       <c r="A91" s="1" t="s">
         <v>0</v>
       </c>
@@ -39055,7 +39055,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="92" spans="1:147" ht="409.6">
+    <row r="92" spans="1:147" ht="19.8" customHeight="1">
       <c r="A92" s="1" t="s">
         <v>0</v>
       </c>
@@ -39438,7 +39438,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="93" spans="1:147" ht="409.6">
+    <row r="93" spans="1:147" ht="19.8" customHeight="1">
       <c r="A93" s="1" t="s">
         <v>0</v>
       </c>
@@ -39821,7 +39821,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="94" spans="1:147" ht="409.6">
+    <row r="94" spans="1:147" ht="19.8" customHeight="1">
       <c r="A94" s="1" t="s">
         <v>0</v>
       </c>
@@ -40204,7 +40204,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="95" spans="1:147" ht="409.6">
+    <row r="95" spans="1:147" ht="19.8" customHeight="1">
       <c r="A95" s="1" t="s">
         <v>0</v>
       </c>
@@ -40587,7 +40587,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="96" spans="1:147" ht="409.6">
+    <row r="96" spans="1:147" ht="19.8" customHeight="1">
       <c r="A96" s="1" t="s">
         <v>0</v>
       </c>
@@ -40970,7 +40970,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="97" spans="1:147" ht="409.6">
+    <row r="97" spans="1:147" ht="19.8" customHeight="1">
       <c r="A97" s="1" t="s">
         <v>0</v>
       </c>
@@ -41353,7 +41353,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="98" spans="1:147" ht="409.6">
+    <row r="98" spans="1:147" ht="19.8" customHeight="1">
       <c r="A98" s="1" t="s">
         <v>0</v>
       </c>
@@ -41736,7 +41736,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="99" spans="1:147" ht="409.6">
+    <row r="99" spans="1:147" ht="19.8" customHeight="1">
       <c r="A99" s="1" t="s">
         <v>0</v>
       </c>
@@ -42119,7 +42119,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="100" spans="1:147" ht="409.6">
+    <row r="100" spans="1:147" ht="19.8" customHeight="1">
       <c r="A100" s="1" t="s">
         <v>0</v>
       </c>
@@ -42502,7 +42502,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="101" spans="1:147" ht="409.6">
+    <row r="101" spans="1:147" ht="19.8" customHeight="1">
       <c r="A101" s="1" t="s">
         <v>0</v>
       </c>
@@ -42885,7 +42885,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="102" spans="1:147" ht="409.6">
+    <row r="102" spans="1:147" ht="19.8" customHeight="1">
       <c r="A102" s="1" t="s">
         <v>0</v>
       </c>
@@ -43268,7 +43268,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="103" spans="1:147" ht="409.6">
+    <row r="103" spans="1:147" ht="19.8" customHeight="1">
       <c r="A103" s="1" t="s">
         <v>0</v>
       </c>
@@ -43651,7 +43651,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="104" spans="1:147" ht="409.6">
+    <row r="104" spans="1:147" ht="19.8" customHeight="1">
       <c r="A104" s="1" t="s">
         <v>0</v>
       </c>
@@ -44034,7 +44034,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="105" spans="1:147" ht="409.6">
+    <row r="105" spans="1:147" ht="19.8" customHeight="1">
       <c r="A105" s="1" t="s">
         <v>0</v>
       </c>
@@ -44417,7 +44417,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="106" spans="1:147" ht="409.6">
+    <row r="106" spans="1:147" ht="19.8" customHeight="1">
       <c r="A106" s="1" t="s">
         <v>0</v>
       </c>
@@ -44800,7 +44800,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="107" spans="1:147" ht="409.6">
+    <row r="107" spans="1:147" ht="19.8" customHeight="1">
       <c r="A107" s="1" t="s">
         <v>0</v>
       </c>
@@ -45183,7 +45183,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="108" spans="1:147" ht="409.6">
+    <row r="108" spans="1:147" ht="19.8" customHeight="1">
       <c r="A108" s="1" t="s">
         <v>0</v>
       </c>
@@ -45566,7 +45566,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="109" spans="1:147" ht="409.6">
+    <row r="109" spans="1:147" ht="19.8" customHeight="1">
       <c r="A109" s="1" t="s">
         <v>0</v>
       </c>
@@ -45949,7 +45949,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="110" spans="1:147" ht="409.6">
+    <row r="110" spans="1:147" ht="19.8" customHeight="1">
       <c r="A110" s="1" t="s">
         <v>0</v>
       </c>
@@ -46332,7 +46332,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="111" spans="1:147" ht="409.6">
+    <row r="111" spans="1:147" ht="19.8" customHeight="1">
       <c r="A111" s="1" t="s">
         <v>0</v>
       </c>
@@ -46715,7 +46715,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="112" spans="1:147" ht="409.6">
+    <row r="112" spans="1:147" ht="19.8" customHeight="1">
       <c r="A112" s="1" t="s">
         <v>0</v>
       </c>
@@ -47098,7 +47098,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="113" spans="1:147" ht="409.6">
+    <row r="113" spans="1:147" ht="19.8" customHeight="1">
       <c r="A113" s="1" t="s">
         <v>0</v>
       </c>
@@ -47481,7 +47481,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="114" spans="1:147" ht="409.6">
+    <row r="114" spans="1:147" ht="19.8" customHeight="1">
       <c r="A114" s="1" t="s">
         <v>0</v>
       </c>
@@ -47864,7 +47864,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="115" spans="1:147" ht="409.6">
+    <row r="115" spans="1:147" ht="19.8" customHeight="1">
       <c r="A115" s="1" t="s">
         <v>0</v>
       </c>
@@ -48247,7 +48247,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="116" spans="1:147" ht="409.6">
+    <row r="116" spans="1:147" ht="19.8" customHeight="1">
       <c r="A116" s="1" t="s">
         <v>0</v>
       </c>
@@ -48630,7 +48630,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="117" spans="1:147" ht="409.6">
+    <row r="117" spans="1:147" ht="19.8" customHeight="1">
       <c r="A117" s="1" t="s">
         <v>0</v>
       </c>
@@ -49013,7 +49013,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="118" spans="1:147" ht="409.6">
+    <row r="118" spans="1:147" ht="19.8" customHeight="1">
       <c r="A118" s="1" t="s">
         <v>0</v>
       </c>
@@ -49396,7 +49396,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="119" spans="1:147" ht="409.6">
+    <row r="119" spans="1:147" ht="19.8" customHeight="1">
       <c r="A119" s="1" t="s">
         <v>0</v>
       </c>
@@ -49779,7 +49779,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="120" spans="1:147" ht="409.6">
+    <row r="120" spans="1:147" ht="19.8" customHeight="1">
       <c r="A120" s="1" t="s">
         <v>0</v>
       </c>
@@ -50162,7 +50162,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="121" spans="1:147" ht="409.6">
+    <row r="121" spans="1:147" ht="19.8" customHeight="1">
       <c r="A121" s="1" t="s">
         <v>0</v>
       </c>
@@ -50545,7 +50545,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="122" spans="1:147" ht="409.6">
+    <row r="122" spans="1:147" ht="19.8" customHeight="1">
       <c r="A122" s="1" t="s">
         <v>0</v>
       </c>
@@ -50928,7 +50928,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="123" spans="1:147" ht="409.6">
+    <row r="123" spans="1:147" ht="19.8" customHeight="1">
       <c r="A123" s="1" t="s">
         <v>0</v>
       </c>
@@ -51311,7 +51311,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="124" spans="1:147" ht="409.6">
+    <row r="124" spans="1:147" ht="19.8" customHeight="1">
       <c r="A124" s="1" t="s">
         <v>0</v>
       </c>
@@ -51694,7 +51694,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="125" spans="1:147" ht="409.6">
+    <row r="125" spans="1:147" ht="19.8" customHeight="1">
       <c r="A125" s="1" t="s">
         <v>0</v>
       </c>
@@ -52077,7 +52077,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="126" spans="1:147" ht="409.6">
+    <row r="126" spans="1:147" ht="19.8" customHeight="1">
       <c r="A126" s="1" t="s">
         <v>0</v>
       </c>
@@ -52460,7 +52460,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="127" spans="1:147" ht="409.6">
+    <row r="127" spans="1:147" ht="19.8" customHeight="1">
       <c r="A127" s="1" t="s">
         <v>0</v>
       </c>
@@ -52843,7 +52843,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="128" spans="1:147" ht="409.6">
+    <row r="128" spans="1:147" ht="19.8" customHeight="1">
       <c r="A128" s="1" t="s">
         <v>0</v>
       </c>
@@ -53226,7 +53226,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="129" spans="1:147" ht="409.6">
+    <row r="129" spans="1:147" ht="19.8" customHeight="1">
       <c r="A129" s="1" t="s">
         <v>0</v>
       </c>
@@ -53609,7 +53609,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="130" spans="1:147" ht="409.6">
+    <row r="130" spans="1:147" ht="19.8" customHeight="1">
       <c r="A130" s="1" t="s">
         <v>0</v>
       </c>
@@ -53992,7 +53992,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="131" spans="1:147" ht="409.6">
+    <row r="131" spans="1:147" ht="19.8" customHeight="1">
       <c r="A131" s="1" t="s">
         <v>0</v>
       </c>
@@ -54375,7 +54375,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="132" spans="1:147" ht="409.6">
+    <row r="132" spans="1:147" ht="19.8" customHeight="1">
       <c r="A132" s="1" t="s">
         <v>0</v>
       </c>
@@ -54758,7 +54758,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="133" spans="1:147" ht="409.6">
+    <row r="133" spans="1:147" ht="19.8" customHeight="1">
       <c r="A133" s="1" t="s">
         <v>0</v>
       </c>
@@ -55141,7 +55141,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="134" spans="1:147" ht="409.6">
+    <row r="134" spans="1:147" ht="19.8" customHeight="1">
       <c r="A134" s="1" t="s">
         <v>0</v>
       </c>
@@ -55524,7 +55524,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="135" spans="1:147" ht="409.6">
+    <row r="135" spans="1:147" ht="19.8" customHeight="1">
       <c r="A135" s="1" t="s">
         <v>0</v>
       </c>
@@ -55907,7 +55907,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="136" spans="1:147" ht="409.6">
+    <row r="136" spans="1:147" ht="19.8" customHeight="1">
       <c r="A136" s="1" t="s">
         <v>0</v>
       </c>
@@ -56290,7 +56290,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="137" spans="1:147" ht="409.6">
+    <row r="137" spans="1:147" ht="19.8" customHeight="1">
       <c r="A137" s="1" t="s">
         <v>0</v>
       </c>
@@ -56673,7 +56673,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="138" spans="1:147" ht="409.6">
+    <row r="138" spans="1:147" ht="19.8" customHeight="1">
       <c r="A138" s="1" t="s">
         <v>0</v>
       </c>
@@ -57056,7 +57056,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="139" spans="1:147" ht="409.6">
+    <row r="139" spans="1:147" ht="19.8" customHeight="1">
       <c r="A139" s="1" t="s">
         <v>0</v>
       </c>
@@ -57439,7 +57439,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="140" spans="1:147" ht="409.6">
+    <row r="140" spans="1:147" ht="19.8" customHeight="1">
       <c r="A140" s="1" t="s">
         <v>0</v>
       </c>
@@ -57822,7 +57822,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="141" spans="1:147" ht="409.6">
+    <row r="141" spans="1:147" ht="19.8" customHeight="1">
       <c r="A141" s="1" t="s">
         <v>0</v>
       </c>
@@ -58205,7 +58205,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="142" spans="1:147" ht="409.6">
+    <row r="142" spans="1:147" ht="19.8" customHeight="1">
       <c r="A142" s="1" t="s">
         <v>0</v>
       </c>
@@ -58588,7 +58588,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="143" spans="1:147" ht="409.6">
+    <row r="143" spans="1:147" ht="19.8" customHeight="1">
       <c r="A143" s="1" t="s">
         <v>0</v>
       </c>
@@ -58971,7 +58971,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="144" spans="1:147" ht="409.6">
+    <row r="144" spans="1:147" ht="19.8" customHeight="1">
       <c r="A144" s="1" t="s">
         <v>0</v>
       </c>
@@ -59354,7 +59354,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="145" spans="1:147" ht="409.6">
+    <row r="145" spans="1:147" ht="19.8" customHeight="1">
       <c r="A145" s="1" t="s">
         <v>0</v>
       </c>
@@ -59737,7 +59737,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="146" spans="1:147" ht="409.6">
+    <row r="146" spans="1:147" ht="19.8" customHeight="1">
       <c r="A146" s="1" t="s">
         <v>0</v>
       </c>
@@ -60120,7 +60120,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="147" spans="1:147" ht="409.6">
+    <row r="147" spans="1:147" ht="19.8" customHeight="1">
       <c r="A147" s="1" t="s">
         <v>0</v>
       </c>
@@ -60503,7 +60503,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="148" spans="1:147" ht="409.6">
+    <row r="148" spans="1:147" ht="19.8" customHeight="1">
       <c r="A148" s="1" t="s">
         <v>0</v>
       </c>
@@ -60886,7 +60886,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="149" spans="1:147" ht="409.6">
+    <row r="149" spans="1:147" ht="19.8" customHeight="1">
       <c r="A149" s="1" t="s">
         <v>0</v>
       </c>
@@ -61269,7 +61269,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="150" spans="1:147" ht="409.6">
+    <row r="150" spans="1:147" ht="19.8" customHeight="1">
       <c r="A150" s="1" t="s">
         <v>0</v>
       </c>
@@ -61652,7 +61652,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="151" spans="1:147">
+    <row r="151" spans="1:147" ht="19.8" customHeight="1">
       <c r="A151" s="7"/>
       <c r="B151" s="7"/>
       <c r="C151" s="7"/>
